--- a/hardware/manufacture/reDIP-SID-BOM.xlsx
+++ b/hardware/manufacture/reDIP-SID-BOM.xlsx
@@ -862,19 +862,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="R7" authorId="0">
       <text>
         <r>
@@ -887,29 +874,15 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.28      $0.28
-    10   $0.19      $1.90
-    50   $0.11      $5.69
-   100   $0.10      $9.61
-   500   $0.07     $32.89
-  1000   $0.06     $58.19
-  2500   $0.06    $139.15
-  5000   $0.05    $253.00
- 10000   $0.05    $480.70
- 20000   $0.05    $910.80</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+     1   $0.29      $0.29
+    10   $0.20      $1.98
+    50   $0.12      $5.95
+   100   $0.10     $10.05
+   500   $0.07     $34.38
+  1000   $0.06     $60.84
+  2500   $0.06    $145.48
+  5000   $0.05    $264.50
+ 10000   $0.05    $502.60</t>
         </r>
       </text>
     </comment>
@@ -925,14 +898,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.10      £1.05
-   100   £0.06      £6.00
-   150   £0.06      £9.00
-   500   £0.05     £22.80
-  2500   £0.03     £84.50
-  5000   £0.03    £140.00
- 10000   £0.02    £233.00
- 50000   £0.02  £1,000.00</t>
+    10   £0.13      £1.28
+   100   £0.06      £6.38
+   150   £0.06      £9.57
+   500   £0.05     £24.75
+  2500   £0.03     £79.75
+  5000   £0.03    £146.00
+ 10000   £0.03    £264.00
+ 50000   £0.02  £1,100.00</t>
         </r>
       </text>
     </comment>
@@ -948,12 +921,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.07      $0.65
-   100   $0.05      $5.12
-   300   $0.05     $14.58
-  1000   $0.05     $46.00
-  5000   $0.04    $224.50
- 10000   $0.04    $443.00</t>
+    10   $0.06      $0.64
+   100   $0.05      $4.94
+   300   $0.05     $14.04
+  1000   $0.04     $44.20
+  5000   $0.04    $215.50
+ 10000   $0.04    $425.00</t>
         </r>
       </text>
     </comment>
@@ -991,19 +964,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AL7" authorId="0">
       <text>
         <r>
@@ -1036,15 +996,14 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.02      $0.25
-    50   $0.01      $0.69
-   100   $0.01      $1.13
-   500   $0.01      $4.04
-  1000   $0.01      $6.35
-  2500   $0.01     $14.45
-  5000   $0.01     $26.55
- 15000   $0.00     $69.30
- 30000   $0.00    $131.70</t>
+    10   $0.03      $0.27
+    50   $0.01      $0.72
+   100   $0.01      $1.18
+   500   $0.01      $4.23
+  1000   $0.01      $6.64
+  2500   $0.01     $15.10
+  5000   $0.01     $27.75
+ 15000   $0.00     $63.00</t>
         </r>
       </text>
     </comment>
@@ -1061,12 +1020,12 @@
   Qty  -  Unit£  -  Ext£
 ================
     10   £0.01      £0.06
-   100   £0.01      £0.57
-   150   £0.01      £0.86
-   500   £0.00      £2.50
+   100   £0.01      £0.56
+   150   £0.01      £0.84
+   500   £0.00      £2.45
   2500   £0.00      £7.00
-  7500   £0.00     £18.75
- 15000   £0.00     £31.50
+  7500   £0.00     £18.00
+ 15000   £0.00     £33.00
  75000   £0.00    £120.00</t>
         </r>
       </text>
@@ -1084,8 +1043,8 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.03      $0.27
-    50   $0.03      $1.35
+    10   $0.01      $0.14
+    50   $0.01      $0.70
    100   $0.01      $1.10
   1000   $0.01      $6.00
  10000   $0.00     $50.00</t>
@@ -1104,10 +1063,24 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.02      $0.15
-    25   $0.01      $0.25
-    50   $0.01      $0.35
-   100   $0.00      $0.50</t>
+    10   $0.03      $0.27
+    25   $0.02      $0.55
+    50   $0.02      $0.80
+   100   $0.01      $1.10
+ 15000   $0.00     $60.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -1123,29 +1096,15 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.24      $0.24
-    10   $0.16      $1.65
-    50   $0.11      $5.50
-   100   $0.09      $9.35
-   500   $0.07     $33.00
-  1000   $0.06     $57.75
-  2500   $0.06    $137.50
-  5000   $0.05    $254.40
- 15000   $0.05    $684.75
- 30000   $0.04  $1,320.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+     1   $0.25      $0.25
+    10   $0.17      $1.72
+    50   $0.12      $5.75
+   100   $0.10      $9.78
+   500   $0.07     $34.50
+  1000   $0.06     $60.38
+  2500   $0.06    $143.75
+  5000   $0.05    $265.95
+ 15000   $0.05    $715.95</t>
         </r>
       </text>
     </comment>
@@ -1161,14 +1120,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.24      £2.36
-   100   £0.15     £14.80
-   150   £0.15     £22.20
-   500   £0.11     £55.50
-  2500   £0.08    £196.75
-  7500   £0.07    £492.00
- 15000   £0.06    £945.00
- 75000   £0.05  £4,050.00</t>
+    10   £0.22      £2.18
+   100   £0.14     £13.70
+   150   £0.14     £20.55
+   500   £0.10     £51.50
+  2500   £0.07    £181.75
+  7500   £0.06    £454.50
+ 15000   £0.06    £891.00
+ 75000   £0.05  £3,825.00</t>
         </r>
       </text>
     </comment>
@@ -1205,25 +1164,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.26      $0.26
-    10   $0.12      $1.21
-    50   $0.12      $6.05
-   100   $0.10      $9.70
-  1000   $0.06     $60.00
+     1   $0.24      $0.24
+    10   $0.11      $1.10
+    50   $0.11      $5.50
+   100   $0.09      $9.40
+  1000   $0.06     $58.00
  10000   $0.05    $510.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -1242,7 +1188,21 @@
     10   $0.12      $1.21
     25   $0.11      $2.82
     50   $0.10      $5.25
-   100   $0.10      $9.70</t>
+   100   $0.10      $9.70
+ 15000   $0.06    $855.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -1258,29 +1218,15 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.18      $0.18
-    10   $0.12      $1.24
-    50   $0.07      $3.71
-   100   $0.06      $6.27
-   500   $0.04     $21.45
-  1000   $0.04     $37.95
-  2500   $0.04     $90.75
-  5000   $0.03    $165.00
- 10000   $0.03    $313.50
- 20000   $0.03    $594.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+     1   $0.19      $0.19
+    10   $0.13      $1.29
+    50   $0.08      $3.88
+   100   $0.07      $6.56
+   500   $0.04     $22.42
+  1000   $0.04     $39.68
+  2500   $0.04     $94.88
+  5000   $0.03    $172.50
+ 10000   $0.03    $327.80</t>
         </r>
       </text>
     </comment>
@@ -1296,14 +1242,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.16      £1.57
-   100   £0.09      £8.97
-   150   £0.09     £13.46
-   500   £0.07     £34.15
-  2500   £0.05    £126.50
-  5000   £0.04    £209.50
- 10000   £0.03    £349.00
- 50000   £0.03  £1,495.00</t>
+    10   £0.14      £1.43
+   100   £0.08      £8.17
+   150   £0.08     £12.25
+   500   £0.06     £31.10
+  2500   £0.05    £115.25
+  5000   £0.04    £190.50
+ 10000   £0.03    £318.00
+ 50000   £0.03  £1,360.00</t>
         </r>
       </text>
     </comment>
@@ -1319,12 +1265,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.06      $0.63
-   100   $0.05      $4.76
-   300   $0.04     $13.41
-  1000   $0.04     $41.70
-  5000   $0.04    $202.50
- 10000   $0.04    $398.00</t>
+    10   $0.06      $0.60
+   100   $0.04      $4.41
+   300   $0.04     $12.36
+  1000   $0.04     $38.30
+  5000   $0.04    $185.50
+ 10000   $0.04    $364.00</t>
         </r>
       </text>
     </comment>
@@ -1345,20 +1291,7 @@
     50   $0.08      $3.75
    100   $0.06      $6.30
   1000   $0.04     $38.00
- 10000   $0.03    $290.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+ 10000   $0.03    $310.00</t>
         </r>
       </text>
     </comment>
@@ -1395,29 +1328,15 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.42      $0.42
-    10   $0.29      $2.94
-    50   $0.21     $10.28
-   100   $0.18     $17.62
-   500   $0.13     $66.08
-  1000   $0.11    $111.61
-  2500   $0.11    $264.32
-  5000   $0.10    $499.30
- 10000   $0.09    $939.80
- 20000   $0.09  $1,821.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+     1   $0.44      $0.44
+    10   $0.31      $3.07
+    50   $0.22     $10.75
+   100   $0.18     $18.42
+   500   $0.14     $69.09
+  1000   $0.12    $116.68
+  2500   $0.11    $276.35
+  5000   $0.10    $522.00
+ 10000   $0.10    $982.60</t>
         </r>
       </text>
     </comment>
@@ -1433,14 +1352,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.19      £1.92
-   100   £0.14     £13.70
-   150   £0.14     £20.55
-   500   £0.09     £43.20
-  2500   £0.08    £204.75
-  5000   £0.08    £387.00
- 10000   £0.08    £751.00
- 50000   £0.07  £3,260.00</t>
+    10   £0.19      £1.87
+   100   £0.15     £15.10
+   150   £0.15     £22.65
+   500   £0.08     £42.10
+  2500   £0.08    £199.25
+  5000   £0.07    £370.00
+ 10000   £0.07    £718.00
+ 50000   £0.06  £3,075.00</t>
         </r>
       </text>
     </comment>
@@ -1456,12 +1375,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.12      $0.58
-    50   $0.09      $4.32
-   150   $0.08     $12.15
-   500   $0.08     $37.85
-  2500   $0.07    $183.25
-  5000   $0.07    $361.00</t>
+     5   $0.12      $0.59
+    50   $0.09      $4.30
+   150   $0.08     $12.02
+   500   $0.07     $37.10
+  2500   $0.07    $179.00
+  5000   $0.07    $351.50</t>
         </r>
       </text>
     </comment>
@@ -1477,25 +1396,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.47      $0.47
-    10   $0.23      $2.27
-    50   $0.23     $11.35
-   100   $0.19     $19.40
-  1000   $0.12    $123.00
- 10000   $0.11  $1,100.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+     1   $0.42      $0.42
+    10   $0.21      $2.06
+    50   $0.21     $10.30
+   100   $0.18     $17.70
+  1000   $0.11    $112.00
+ 10000   $0.09    $940.00</t>
         </r>
       </text>
     </comment>
@@ -1514,7 +1420,8 @@
     10   $0.23      $2.27
     25   $0.22      $5.40
     50   $0.20     $10.25
-   100   $0.19     $19.40</t>
+   100   $0.19     $19.40
+ 10000   $0.11  $1,100.00</t>
         </r>
       </text>
     </comment>
@@ -1531,15 +1438,27 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.03      $0.33
-    50   $0.02      $0.89
-   100   $0.01      $1.46
-   500   $0.01      $5.20
-  1000   $0.01      $8.17
-  2500   $0.01     $18.55
-  5000   $0.01     $34.15
- 15000   $0.01     $89.10
- 30000   $0.01    $169.20</t>
+    10   $0.03      $0.34
+    50   $0.02      $0.93
+   100   $0.02      $1.52
+   500   $0.01      $5.43
+  1000   $0.01      $8.54
+  2500   $0.01     $19.40
+  5000   $0.01     $35.70
+ 15000   $0.01     $93.15</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -1578,25 +1497,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    50   $0.01      $0.32
-   500   $0.00      $2.45
-  1500   $0.00      $7.05
-  5000   $0.00     $22.00
- 25000   $0.00    $107.50
- 50000   $0.00    $210.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+    50   $0.00      $0.18
+   500   $0.00      $1.30
+  1500   $0.00      $3.60
+  5000   $0.00     $11.00
+ 25000   $0.00     $55.00
+ 50000   $0.00    $105.00</t>
         </r>
       </text>
     </comment>
@@ -1617,7 +1523,7 @@
     50   $0.02      $0.90
    100   $0.02      $1.50
   1000   $0.01      $9.00
- 10000   $0.01     $60.00</t>
+ 10000   $0.01     $70.00</t>
         </r>
       </text>
     </comment>
@@ -1636,7 +1542,8 @@
     10   $0.03      $0.34
     25   $0.03      $0.70
     50   $0.02      $1.05
-   100   $0.02      $1.50</t>
+   100   $0.02      $1.50
+ 15000   $0.00     $75.00</t>
         </r>
       </text>
     </comment>
@@ -1652,9 +1559,6 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-  1000   £0.01      £6.00
-  5000   £0.00     £25.00
- 10000   £0.00     £50.00
  15000   £0.00     £60.00
  60000   £0.00    £240.00</t>
         </r>
@@ -1673,15 +1577,50 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.34      $0.34
-    10   $0.24      $2.36
-   100   $0.12     $11.91
-   500   $0.10     $48.59
+    10   $0.25      $2.51
+   100   $0.14     $14.20
+   500   $0.09     $47.02
   1000   $0.07     $72.10
-  2000   $0.06    $121.32
-  5000   $0.06    $290.00
+  2000   $0.06    $125.40
+  5000   $0.06    $282.15
  10000   $0.05    $501.60
- 30000   $0.05  $1,476.60
- 50000   $0.04  $2,062.50</t>
+ 30000   $0.05  $1,410.90
+ 50000   $0.04  $2,085.00
+100000   $0.04  $4,125.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+     5   £0.29      £1.46
+    10   £0.22      £2.19
+   100   £0.10     £10.50
+   500   £0.08     £41.90
+  1000   £0.05     £50.70
+  5000   £0.05    £248.50</t>
         </r>
       </text>
     </comment>
@@ -1697,12 +1636,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.35      $0.35
-    10   $0.23      $2.31
-    50   $0.23     $11.55
-   100   $0.12     $12.50
-  1000   $0.08     $76.00
- 10000   $0.05    $520.00</t>
+     1   $0.39      $0.39
+    10   $0.26      $2.55
+    50   $0.26     $12.75
+   100   $0.14     $13.80
+  1000   $0.08     $84.00
+ 10000   $0.06    $580.00</t>
         </r>
       </text>
     </comment>
@@ -1762,7 +1701,7 @@
   8000   $0.06    $518.96
  12000   $0.06    $691.92
  28000   $0.05  $1,513.68
-100000   $0.05  $4,760.00</t>
+100000   $0.05  $5,100.00</t>
         </r>
       </text>
     </comment>
@@ -1803,7 +1742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV14" authorId="0">
+    <comment ref="AL14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1815,11 +1754,32 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.18      $0.90
-    25   $0.16      $4.00
-   100   $0.10     $10.10
-   500   $0.08     $39.60
-  4000   $0.06    $237.60</t>
+     1   $0.32      $0.32
+    25   $0.25      $6.22
+    50   $0.18      $9.00
+   100   $0.11     $11.10
+   250   $0.11     $26.50
+   500   $0.10     $50.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+     5   £0.13      £0.66
+    25   £0.12      £2.91
+   100   £0.07      £7.35
+   500   £0.06     £28.80
+  4000   £0.04    £172.80</t>
         </r>
       </text>
     </comment>
@@ -1845,7 +1805,7 @@
   8000   $0.07    $534.24
  12000   $0.06    $712.32
  28000   $0.06  $1,558.20
-100000   $0.05  $4,900.00</t>
+100000   $0.05  $5,250.00</t>
         </r>
       </text>
     </comment>
@@ -1923,14 +1883,14 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
 ================
-     5   $0.18      $0.90
-    25   $0.14      $3.50
-   100   $0.10     $10.10
-   500   $0.08     $37.50
-  4000   $0.05    $216.00</t>
+     5   £0.13      £0.66
+    25   £0.10      £2.55
+   100   £0.07      £7.35
+   500   £0.05     £27.30
+  4000   £0.04    £157.20</t>
         </r>
       </text>
     </comment>
@@ -1990,12 +1950,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.40      $0.40
-    10   $0.29      $2.90
-    30   $0.27      $8.17
-   100   $0.25     $25.25
-   500   $0.24    $121.75
-  1000   $0.24    $239.90</t>
+     1   $0.33      $0.33
+    10   $0.25      $2.54
+    30   $0.23      $7.03
+   100   $0.21     $21.10
+   500   $0.20    $100.10
+  1000   $0.20    $198.40</t>
         </r>
       </text>
     </comment>
@@ -2049,6 +2009,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="P20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R20" authorId="0">
       <text>
         <r>
@@ -2062,15 +2035,12 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.03      $0.27
-   100   $0.01      $1.10
-  1000   $0.00      $4.96
-  2500   $0.00     $10.75
-  5000   $0.00     $17.75
- 15000   $0.00     $46.35
- 30000   $0.00     $81.30
- 75000   $0.00    $186.75
-105000   $0.00    $256.20</t>
+    10   $0.03      $0.28
+   100   $0.01      $1.15
+  1000   $0.01      $5.18
+  2500   $0.00     $11.25
+  5000   $0.00     $18.55
+ 15000   $0.00     $48.45</t>
         </r>
       </text>
     </comment>
@@ -2166,10 +2136,20 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-  1000   £0.00      £4.00
-  5000   £0.00     £25.00
- 10000   £0.00     £50.00
  15000   £0.00     £60.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -2196,7 +2176,7 @@
   5000   $0.00     $16.15
  15000   $0.00     $42.15
  30000   $0.00     $74.10
- 75000   $0.00    $169.50</t>
+ 75000   $0.00    $173.25</t>
         </r>
       </text>
     </comment>
@@ -2218,29 +2198,8 @@
    500   £0.02      £9.00
   2500   £0.01     £30.00
   7500   £0.01     £67.50
- 15000   £0.01    £105.00
- 75000   £0.00    £352.50</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-    50   $0.01      $0.35
-   500   $0.01      $2.70
-  1500   $0.01      $7.65
-  5000   $0.00     $24.00
- 25000   $0.00    $117.50
- 50000   $0.00    $235.00</t>
+ 15000   £0.01     £82.50
+ 75000   £0.00    £345.00</t>
         </r>
       </text>
     </comment>
@@ -2257,8 +2216,8 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.02      $0.15
-    50   $0.02      $0.75
+    10   $0.01      $0.14
+    50   $0.01      $0.70
    100   $0.01      $0.60
   1000   $0.00      $5.00
  10000   $0.00     $30.00</t>
@@ -2284,7 +2243,8 @@
    500   $0.01      $3.50
   1000   $0.01      $6.00
   2500   $0.00     $12.50
-  5000   $0.00     $20.00</t>
+  5000   $0.00     $20.00
+ 15000   $0.01     $90.00</t>
         </r>
       </text>
     </comment>
@@ -2300,8 +2260,20 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-  1000   £0.00      £4.00
  15000   £0.00     £75.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -2318,15 +2290,12 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.03      $0.27
-   100   $0.01      $1.10
-  1000   $0.00      $4.96
-  2500   $0.00     $10.75
-  5000   $0.00     $17.75
- 15000   $0.00     $46.35
- 30000   $0.00     $81.30
- 75000   $0.00    $186.75
-105000   $0.00    $256.20</t>
+    10   $0.03      $0.28
+   100   $0.01      $1.15
+  1000   $0.01      $5.18
+  2500   $0.00     $11.25
+  5000   $0.00     $18.55
+ 15000   $0.00     $48.45</t>
         </r>
       </text>
     </comment>
@@ -2355,7 +2324,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
- 30000   £0.00    £147.00</t>
+ 30000   £0.00    £141.00</t>
         </r>
       </text>
     </comment>
@@ -2372,11 +2341,11 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.03      $0.26
-    50   $0.03      $1.30
-   100   $0.01      $1.10
-  1000   $0.00      $5.00
- 10000   $0.00     $30.00</t>
+    10   $0.03      $0.31
+    50   $0.03      $1.55
+   100   $0.01      $1.40
+  1000   $0.01      $7.00
+ 10000   $0.00     $50.00</t>
         </r>
       </text>
     </comment>
@@ -2393,22 +2362,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
+    <comment ref="AL22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
 ================
-  1000   £0.01     £11.00
-  5000   £0.01     £45.00
- 10000   £0.01     £80.00
- 15000   £0.01     £90.00</t>
+ 15000   $0.01     $90.00</t>
         </r>
       </text>
     </comment>
@@ -2425,15 +2391,12 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.03      $0.27
-   100   $0.01      $1.10
-  1000   $0.00      $4.96
-  2500   $0.00     $10.75
-  5000   $0.00     $17.75
- 15000   $0.00     $46.35
- 30000   $0.00     $81.30
- 75000   $0.00    $186.75
-105000   $0.00    $256.20</t>
+    10   $0.03      $0.28
+   100   $0.01      $1.15
+  1000   $0.01      $5.18
+  2500   $0.00     $11.25
+  5000   $0.00     $18.55
+ 15000   $0.00     $48.45</t>
         </r>
       </text>
     </comment>
@@ -2462,7 +2425,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
- 30000   £0.01    £201.00</t>
+ 30000   £0.01    £192.00</t>
         </r>
       </text>
     </comment>
@@ -2499,9 +2462,6 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-  1000   £0.00      £4.00
-  5000   £0.00     £20.00
- 10000   £0.00     £40.00
  15000   £0.00     £60.00</t>
         </r>
       </text>
@@ -2519,15 +2479,12 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.03      $0.27
-   100   $0.01      $1.10
-  1000   $0.00      $4.96
-  2500   $0.00     $10.75
-  5000   $0.00     $17.75
- 15000   $0.00     $46.35
- 30000   $0.00     $81.30
- 75000   $0.00    $186.75
-105000   $0.00    $256.20</t>
+    10   $0.03      $0.28
+   100   $0.01      $1.15
+  1000   $0.01      $5.18
+  2500   $0.00     $11.25
+  5000   $0.00     $18.55
+ 15000   $0.00     $48.45</t>
         </r>
       </text>
     </comment>
@@ -2556,7 +2513,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
- 30000   £0.00    £147.00</t>
+ 30000   £0.00    £141.00</t>
         </r>
       </text>
     </comment>
@@ -2607,15 +2564,12 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.03      $0.27
-   100   $0.01      $1.10
-  1000   $0.00      $4.96
-  2500   $0.00     $10.75
-  5000   $0.00     $17.75
- 15000   $0.00     $46.35
- 30000   $0.00     $81.30
- 75000   $0.00    $186.75
-105000   $0.00    $256.20</t>
+    10   $0.03      $0.28
+   100   $0.01      $1.15
+  1000   $0.01      $5.18
+  2500   $0.00     $11.25
+  5000   $0.00     $18.55
+ 15000   $0.00     $48.45</t>
         </r>
       </text>
     </comment>
@@ -2644,7 +2598,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
- 30000   £0.00    £147.00</t>
+ 30000   £0.00    £141.00</t>
         </r>
       </text>
     </comment>
@@ -2715,14 +2669,83 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-  1000   £0.00      £4.00
-  5000   £0.00     £20.00
- 10000   £0.00     £40.00
  15000   £0.00     £60.00</t>
         </r>
       </text>
     </comment>
     <comment ref="R26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.03      $0.28
+   100   $0.01      $1.15
+  1000   $0.01      $5.18
+  2500   $0.00     $11.25
+  5000   $0.00     $18.55
+ 15000   $0.00     $48.45</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+ 30000   £0.00    £141.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+    50   $0.02      $0.98
+   500   $0.02      $7.55
+  1500   $0.01     $21.45
+  5000   $0.01     $67.50
+ 25000   $0.01    $327.50
+ 50000   $0.01    $645.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2736,18 +2759,14 @@
 ================
      1   $0.10      $0.10
     10   $0.03      $0.27
+    50   $0.03      $1.35
    100   $0.01      $1.10
-  1000   $0.00      $4.96
-  2500   $0.00     $10.75
-  5000   $0.00     $17.75
- 15000   $0.00     $46.35
- 30000   $0.00     $81.30
- 75000   $0.00    $186.75
-105000   $0.00    $256.20</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U26" authorId="0">
+  1000   $0.00      $5.00
+ 10000   $0.00     $30.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2760,7 +2779,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="W26" authorId="0">
+    <comment ref="AL26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+ 45000   $0.00    $180.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2772,80 +2807,6 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
- 30000   £0.00    £147.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-    50   $0.02      $1.00
-   500   $0.02      $7.70
-  1500   $0.01     $21.90
-  5000   $0.01     $69.00
- 25000   $0.01    $335.00
- 50000   $0.01    $660.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.03      $0.26
-    50   $0.03      $1.30
-   100   $0.01      $1.10
-  1000   $0.00      $5.00
- 10000   $0.00     $30.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AQ26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
-================
-  1000   £0.01     £11.00
-  5000   £0.01     £45.00
- 10000   £0.01     £80.00
  15000   £0.01     £90.00</t>
         </r>
       </text>
@@ -2887,10 +2848,10 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.16      £1.59
-    50   £0.15      £7.50
-   100   £0.14     £13.70
-   500   £0.12     £59.00</t>
+    10   £0.16      £1.56
+    50   £0.15      £7.40
+   100   £0.14     £13.50
+   500   £0.12     £58.00</t>
         </r>
       </text>
     </comment>
@@ -2906,25 +2867,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.22      $0.22
-    10   $0.17      $1.69
-    30   $0.16      $4.78
-   100   $0.15     $14.94
-   500   $0.14     $72.45
-  1000   $0.14    $142.70</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+     1   $0.20      $0.20
+    10   $0.14      $1.44
+    30   $0.13      $4.01
+   100   $0.12     $12.35
+   500   $0.12     $59.55
+  1000   $0.12    $116.90</t>
         </r>
       </text>
     </comment>
@@ -2976,31 +2924,65 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+     5   £0.16      £0.82
+   100   £0.14     £13.86
+  1000   £0.10     £95.30
+  3000   £0.08    £254.70
+  8500   £0.08    £707.20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.23      $1.14
-   100   $0.19     $19.24
-  1000   $0.13    $132.30
-  3000   $0.12    $353.40
-  8500   $0.12    $980.90</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R28" authorId="0">
+     1   $0.46      $0.46
+    10   $0.34      $3.43
+    25   $0.30      $7.51
+   100   $0.19     $19.45
+   250   $0.16     $40.25
+   500   $0.13     $64.40
+  1000   $0.10     $98.74
+  3000   $0.09    $257.58
+  6000   $0.08    $463.62
+ 15000   $0.07  $1,030.35
+ 30000   $0.06  $1,932.00
+ 75000   $0.06  $4,556.25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+     5   £0.33      £1.67
+    10   £0.22      £2.24
+   100   £0.09      £8.86
+   500   £0.06     £27.55
+  3000   £0.04    £130.20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3012,24 +2994,39 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-  3000   $0.12    $367.71</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W28" authorId="0">
+     1   $0.34      $0.34
+    10   $0.23      $2.26
+    50   $0.23     $11.30
+   100   $0.12     $12.10
+  1000   $0.08     $75.00
+ 10000   $0.05    $510.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     5   $0.36      $1.82
+    10   $0.30      $2.96
+   100   $0.14     $13.80
+  6000   $0.05    $300.00
+ 12000   $0.05    $600.00
+ 18000   $0.04    $756.00
+ 48000   $0.04  $1,824.00
+ 90000   $0.04  $3,240.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3041,32 +3038,15 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-  3000   £0.06    £168.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.43      $0.43
-    10   $0.32      $3.21
-    50   $0.32     $16.05
-   100   $0.16     $16.50
-  1000   $0.12    $119.00
- 10000   $0.10    $990.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ28" authorId="0">
+  3000   £0.03     £81.00
+  9000   £0.03    £279.00
+ 24000   £0.03    £720.00
+ 45000   £0.03  £1,305.00
+ 99000   £0.03  £2,772.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3094,14 +3074,27 @@
      1   $0.54      $0.54
     10   $0.44      $4.38
     25   $0.40     $10.03
-   100   $0.27     $27.05
-   250   $0.22     $55.97
-   500   $0.21    $102.61
-  1000   $0.15    $153.91
-  3000   $0.14    $433.74
-  6000   $0.14    $811.56
- 15000   $0.12  $1,860.90
- 30000   $0.12  $3,696.00</t>
+   100   $0.30     $29.85
+   250   $0.27     $67.63
+   500   $0.22    $111.94
+  1000   $0.17    $167.90
+  3000   $0.15    $461.73
+  6000   $0.14    $867.48
+ 15000   $0.14  $2,028.90
+ 30000   $0.13  $3,960.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -3118,14 +3111,14 @@
   Qty  -  Unit£  -  Ext£
 ================
      5   £0.42      £2.11
-    10   £0.28      £2.75
+    10   £0.31      £3.09
    100   £0.14     £14.20
    150   £0.14     £21.30
    500   £0.10     £52.50
   3000   £0.09    £274.20
   9000   £0.09    £793.80
- 24000   £0.09  £2,092.80
- 45000   £0.09  £3,870.00</t>
+ 24000   £0.09  £2,042.40
+ 45000   £0.08  £3,762.00</t>
         </r>
       </text>
     </comment>
@@ -3141,12 +3134,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.49      $0.49
-    10   $0.36      $3.64
-    50   $0.36     $18.20
-   100   $0.19     $18.60
-  1000   $0.14    $140.00
- 10000   $0.12  $1,160.00</t>
+     1   $0.54      $0.54
+    10   $0.40      $4.02
+    50   $0.40     $20.10
+   100   $0.22     $22.40
+  1000   $0.15    $154.00
+ 10000   $0.14  $1,350.00</t>
         </r>
       </text>
     </comment>
@@ -3162,9 +3155,9 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.46      $2.30
-    10   $0.34      $3.43
-   100   $0.18     $17.50
+     5   $0.49      $2.45
+    10   $0.36      $3.64
+   100   $0.19     $18.60
   3000   $0.12    $345.00
   6000   $0.11    $678.00
  12000   $0.11  $1,332.00
@@ -3187,12 +3180,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    18   £0.26      £4.72
-   108   £0.13     £14.36
-  1008   £0.10    £100.80
-  3000   £0.08    £255.00
-  3006   £0.09    £261.52
-  9000   £0.08    £756.00</t>
+  3000   £0.09    £264.00</t>
         </r>
       </text>
     </comment>
@@ -3221,7 +3209,7 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-  2000   $1.14  $2,289.60</t>
+  2000   $1.34  $2,672.00</t>
         </r>
       </text>
     </comment>
@@ -3258,12 +3246,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $2.49      $2.49
+     1   $2.50      $2.50
     10   $2.25     $22.50
     50   $2.12    $106.00
-   100   $1.70    $170.00
-  1000   $1.15  $1,150.00
- 10000   $1.10 $11,000.00</t>
+   100   $1.61    $161.00
+  1000   $1.30  $1,300.00
+ 10000   $1.11 $11,100.00</t>
         </r>
       </text>
     </comment>
@@ -3292,8 +3280,8 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $3.40      $3.40
-    10   $3.33     $33.33</t>
+     1   $3.54      $3.54
+    10   $3.50     $35.00</t>
         </r>
       </text>
     </comment>
@@ -3322,11 +3310,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     1   £3.21      £3.21
-    10   £2.72     £27.20
-    25   £2.56     £64.00
-    50   £2.40    £120.00
-   100   £2.25    £225.00</t>
+     1   £2.90      £2.90
+    10   £2.17     £21.70
+    25   £2.05     £51.25
+    50   £1.92     £96.00
+   100   £1.80    £180.00
+   250   £1.61    £402.50
+   500   £1.54    £770.00
+  1000   £1.28  £1,280.00</t>
         </r>
       </text>
     </comment>
@@ -3355,12 +3346,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $3.33      $3.33
-    10   $2.72     $27.20
-    50   $2.72    $136.00
-   100   $2.24    $224.00
-  1000   $1.61  $1,610.00
- 10000   $1.53 $15,300.00</t>
+     1   $3.37      $3.37
+    10   $2.87     $28.70
+    50   $2.87    $143.50
+   100   $2.63    $263.00
+  1000   $2.55  $2,550.00
+ 10000   $2.54 $25,400.00</t>
         </r>
       </text>
     </comment>
@@ -3389,25 +3380,13 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $3.21      $3.21
-    10   $2.72     $27.20
-    25   $2.56     $64.00
-    50   $2.40    $120.00
-   100   $2.24    $224.00
-   250   $2.01    $502.50</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+     1   $3.83      $3.83
+    10   $3.13     $31.30
+    25   $2.94     $73.50
+    50   $2.76    $138.00
+   100   $2.58    $258.00
+   250   $2.31    $577.50
+  2450   $2.31  $5,659.50</t>
         </r>
       </text>
     </comment>
@@ -3438,6 +3417,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="U32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="W32" authorId="0">
       <text>
         <r>
@@ -3450,19 +3442,19 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     5   £0.21      £1.04
+     5   £0.24      £1.18
     10   £0.20      £2.00
-   100   £0.13     £13.30
-   150   £0.13     £19.95
+   100   £0.14     £13.70
+   150   £0.14     £20.55
    500   £0.10     £52.00
   4000   £0.10    £389.20
  12000   £0.09  £1,129.20
  32000   £0.09  £2,944.00
- 60000   £0.09  £5,400.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB32" authorId="0">
+ 60000   £0.09  £5,322.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3474,16 +3466,16 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.20      $0.20
-    10   $0.15      $1.49
-    30   $0.14      $4.20
-   100   $0.13     $13.13
-   500   $0.13     $63.70
-  1000   $0.13    $125.50</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG32" authorId="0">
+     1   $0.39      $0.39
+    10   $0.31      $3.06
+    50   $0.31     $15.30
+   100   $0.18     $18.40
+  1000   $0.12    $116.00
+ 10000   $0.09    $920.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3495,30 +3487,9 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.22      $0.22
-    10   $0.19      $1.92
-    50   $0.19      $9.60
-   100   $0.15     $14.80
-  1000   $0.14    $143.00
- 10000   $0.12  $1,210.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     5   $0.24      $1.17
-    10   $0.22      $2.23
-   100   $0.20     $20.10
+     1   $0.24      $0.24
+    10   $0.23      $2.27
+   100   $0.20     $20.30
   4000   $0.13    $536.00
   6000   $0.12    $708.00
   8000   $0.13  $1,064.00
@@ -3540,11 +3511,11 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    50   £0.16      £8.10
-   100   £0.12     £12.30
-  1000   £0.10     £96.00
-  4000   £0.09    £360.00
-  8000   £0.09    £720.00</t>
+    50   £0.15      £7.35
+   100   £0.11     £11.30
+  1000   £0.11    £109.00
+  4000   £0.10    £408.00
+  8000   £0.09    £736.00</t>
         </r>
       </text>
     </comment>
@@ -3557,27 +3528,14 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
 ================
-     5   $0.23      $1.14
-    25   $0.20      $5.11
-   100   $0.18     $18.03
-   500   $0.16     $81.15
-  2000   $0.15    $302.96</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+     5   £0.16      £0.82
+    25   £0.15      £3.68
+   100   £0.13     £13.00
+   500   £0.12     £58.48
+  2000   £0.11    £218.32</t>
         </r>
       </text>
     </comment>
@@ -3605,19 +3563,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="P35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="R35" authorId="0">
       <text>
         <r>
@@ -3634,19 +3579,6 @@
     25   $5.25    $131.25
    100   $5.00    $500.50
   2000   $5.00 $10,010.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -3671,33 +3603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P36" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE36" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG36" authorId="0">
+    <comment ref="R36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3709,12 +3615,45 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.83      $1.83
-    10   $1.76     $17.60
-    50   $1.72     $86.00
-   100   $1.47    $147.00
-  1000   $1.15  $1,150.00
- 10000   $1.05 $10,500.00</t>
+     1   $1.62      $1.62
+    10   $1.55     $15.48
+    50   $1.51     $75.60
+   100   $1.30    $129.60
+   500   $1.26    $630.00
+  1000   $1.06  $1,062.00
+  3000   $1.01  $3,024.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+  3000   $1.28  $3,840.00
+  4000   $1.17  $4,680.00
+  6000   $1.12  $6,720.00
+ 10000   $1.09 $10,900.00</t>
         </r>
       </text>
     </comment>
@@ -3866,7 +3805,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="302">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -3949,8 +3888,8 @@
     <t>GRM033C80J105ME05D</t>
   </si>
   <si>
-    <t>C8-C10: 1.55V DC AUDIO
-C2,C15: 1.2V DC</t>
+    <t>C2,C15: 1.2V DC
+C8-C10: 1.55V DC AUDIO</t>
   </si>
   <si>
     <t>C20</t>
@@ -4207,13 +4146,13 @@
     <t>U1</t>
   </si>
   <si>
-    <t>NCP163AMX120TBG</t>
-  </si>
-  <si>
-    <t>IC REG LDO 1.2V 250mA XDFN4</t>
-  </si>
-  <si>
-    <t>CASE711AJ_1.0x1.0mm_P0.65mm</t>
+    <t>NCP115AMX120TCG</t>
+  </si>
+  <si>
+    <t>IC REG LDO 1.2V 300mA XDFN4</t>
+  </si>
+  <si>
+    <t>CASE_711AJ_1.0x1.0mm_P0.65mm</t>
   </si>
   <si>
     <t>ON Semiconductor</t>
@@ -4270,7 +4209,7 @@
     <t>IC USB TERMINATOR ESD PROTECTION SOT-563</t>
   </si>
   <si>
-    <t>CASE463A_1.6x1.2mm_P0.5mm</t>
+    <t>CASE_463A_1.6x1.2mm_P0.5mm</t>
   </si>
   <si>
     <t>NUF2042XV6T1G</t>
@@ -4330,7 +4269,7 @@
     <t>X1</t>
   </si>
   <si>
-    <t>ASCO-24.576MHZ-EK-T</t>
+    <t>ASCO-24.576MHZ-EK-T3</t>
   </si>
   <si>
     <t>OSC 24.576 MHz</t>
@@ -4369,7 +4308,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>to. 04. mars 2021 kl. 15.46 +0100</t>
+    <t>sø. 18. april 2021 kl. 23.21 +0200</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -4384,7 +4323,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2021-03-04 15:46:21</t>
+    <t>2021-04-18 23:21:28</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -4408,15 +4347,15 @@
     <t>490-14595-1-ND</t>
   </si>
   <si>
+    <t>490-5403-1-ND</t>
+  </si>
+  <si>
+    <t>490-13218-1-ND</t>
+  </si>
+  <si>
     <t>NonStk</t>
   </si>
   <si>
-    <t>490-5403-1-ND</t>
-  </si>
-  <si>
-    <t>490-13218-1-ND</t>
-  </si>
-  <si>
     <t>490-13238-1-ND</t>
   </si>
   <si>
@@ -4468,7 +4407,7 @@
     <t>CKN10779CT-ND</t>
   </si>
   <si>
-    <t>NCP163AMX120TBG-ND</t>
+    <t>NCP115AMX120TCGOSCT-ND</t>
   </si>
   <si>
     <t>NCP167AMX330TBGOSCT-ND</t>
@@ -4489,7 +4428,7 @@
     <t>220-2212-1-ND</t>
   </si>
   <si>
-    <t>ASCO-24.576MHZ-EK-T-ND</t>
+    <t>535-12074-1-ND</t>
   </si>
   <si>
     <t>Farnell</t>
@@ -4513,6 +4452,9 @@
     <t>2990684</t>
   </si>
   <si>
+    <t>2191801</t>
+  </si>
+  <si>
     <t>2775247</t>
   </si>
   <si>
@@ -4540,10 +4482,10 @@
     <t>3303150</t>
   </si>
   <si>
-    <t>3023200RL</t>
-  </si>
-  <si>
-    <t>3611550</t>
+    <t>3023200</t>
+  </si>
+  <si>
+    <t>3010452</t>
   </si>
   <si>
     <t>2981158</t>
@@ -4576,9 +4518,6 @@
     <t>C165948</t>
   </si>
   <si>
-    <t>C716999</t>
-  </si>
-  <si>
     <t>C713500</t>
   </si>
   <si>
@@ -4591,9 +4530,6 @@
     <t>C2683750</t>
   </si>
   <si>
-    <t>C90707</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
@@ -4651,7 +4587,7 @@
     <t>611KXT331LHS</t>
   </si>
   <si>
-    <t>863NCP163AMX120TBG</t>
+    <t>863NCP115AMX120TCG</t>
   </si>
   <si>
     <t>863NCP167AMX330TBG</t>
@@ -4669,9 +4605,6 @@
     <t>842ICE40UP5KSG48I</t>
   </si>
   <si>
-    <t>815ASCO24.576EKT</t>
-  </si>
-  <si>
     <t>Newark</t>
   </si>
   <si>
@@ -4723,7 +4656,7 @@
     <t>39AH6821</t>
   </si>
   <si>
-    <t>65AC4909</t>
+    <t>97AC7838</t>
   </si>
   <si>
     <t>84AC7230</t>
@@ -4735,31 +4668,34 @@
     <t>46AC1428</t>
   </si>
   <si>
+    <t>96W9421</t>
+  </si>
+  <si>
     <t>RS Components</t>
   </si>
   <si>
-    <t>1852023</t>
-  </si>
-  <si>
-    <t>1797128</t>
-  </si>
-  <si>
-    <t>1763574</t>
-  </si>
-  <si>
-    <t>1797158</t>
-  </si>
-  <si>
-    <t>1797145</t>
-  </si>
-  <si>
-    <t>1797129</t>
-  </si>
-  <si>
-    <t>1797135</t>
-  </si>
-  <si>
-    <t>1859325</t>
+    <t>1851581</t>
+  </si>
+  <si>
+    <t>1797111</t>
+  </si>
+  <si>
+    <t>1755716</t>
+  </si>
+  <si>
+    <t>1797106</t>
+  </si>
+  <si>
+    <t>1797101</t>
+  </si>
+  <si>
+    <t>1797103</t>
+  </si>
+  <si>
+    <t>1861230</t>
+  </si>
+  <si>
+    <t>1858072</t>
   </si>
   <si>
     <t>8051879</t>
@@ -4854,18 +4790,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -4947,7 +4883,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -5008,10 +4944,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -5566,35 +5502,35 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
       <c r="AS5" s="14"/>
       <c r="AT5" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AU5" s="15"/>
       <c r="AV5" s="15"/>
@@ -5787,50 +5723,50 @@
         <f>iferror(H7*I7,"")</f>
         <v>0</v>
       </c>
-      <c r="P7" s="19" t="s">
-        <v>179</v>
+      <c r="P7" s="17">
+        <v>240</v>
       </c>
       <c r="R7" s="18">
-        <f>iferror(lookup(if(Q7="",H7,Q7),{0,1,10,50,100,500,1000,2500,5000,10000,20000},{0.0,0.28,0.19,0.1138,0.0961,0.06578,0.05819,0.05566,0.0506,0.04807,0.04554}),"")</f>
+        <f>iferror(lookup(if(Q7="",H7,Q7),{0,1,10,50,100,500,1000,2500,5000,10000},{0.0,0.29,0.198,0.119,0.1005,0.06876,0.06084,0.05819,0.0529,0.05026}),"")</f>
         <v>0</v>
       </c>
       <c r="S7" s="18">
         <f>iferror(if(Q7="",H7,Q7)*R7,"")</f>
         <v>0</v>
       </c>
-      <c r="T7" s="20" t="s">
+      <c r="T7" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="U7" s="19" t="s">
-        <v>179</v>
+      <c r="U7" s="17">
+        <v>10000</v>
       </c>
       <c r="W7" s="18">
-        <f>iferror(USD_GBP*lookup(if(V7="",H7,V7),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.105,0.105,0.06,0.06,0.0456,0.0338,0.028,0.0233,0.02}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V7="",H7,V7),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.128,0.128,0.0638,0.0638,0.0495,0.0319,0.0292,0.0264,0.022}),"")</f>
         <v>0</v>
       </c>
       <c r="X7" s="18">
         <f>iferror(if(V7="",H7,V7)*W7,"")</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="Y7" s="19" t="s">
         <v>208</v>
       </c>
       <c r="Z7" s="17">
-        <v>4280</v>
+        <v>3330</v>
       </c>
       <c r="AB7" s="18">
-        <f>iferror(lookup(if(AA7="",H7,AA7),{0,1,10,100,300,1000,5000,10000},{0.0,0.0653,0.0653,0.0512,0.0486,0.046,0.0449,0.0443}),"")</f>
+        <f>iferror(lookup(if(AA7="",H7,AA7),{0,1,10,100,300,1000,5000,10000},{0.0,0.0635,0.0635,0.0494,0.0468,0.0442,0.0431,0.0425}),"")</f>
         <v>0</v>
       </c>
       <c r="AC7" s="18">
         <f>iferror(if(AA7="",H7,AA7)*AB7,"")</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE7" s="19" t="s">
-        <v>179</v>
+      <c r="AD7" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="AG7" s="18">
         <f>iferror(lookup(if(AF7="",H7,AF7),{0,1,10,50,100,1000,10000},{0.0,0.26,0.174,0.174,0.099,0.061,0.043}),"")</f>
@@ -5840,11 +5776,11 @@
         <f>iferror(if(AF7="",H7,AF7)*AG7,"")</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="AJ7" s="19" t="s">
-        <v>179</v>
+      <c r="AI7" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ7" s="17">
+        <v>10000</v>
       </c>
       <c r="AL7" s="18">
         <f>iferror(lookup(if(AK7="",H7,AK7),{0,1,10,25,50,100},{0.0,0.174,0.174,0.149,0.124,0.099}),"")</f>
@@ -5854,8 +5790,8 @@
         <f>iferror(if(AK7="",H7,AK7)*AL7,"")</f>
         <v>0</v>
       </c>
-      <c r="AN7" s="20" t="s">
-        <v>268</v>
+      <c r="AN7" s="19" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -5893,60 +5829,60 @@
         <v>0</v>
       </c>
       <c r="P8" s="17">
-        <v>1156207</v>
+        <v>1116679</v>
       </c>
       <c r="R8" s="18">
-        <f>iferror(lookup(if(Q8="",H8,Q8),{0,1,10,50,100,500,1000,2500,5000,15000,30000},{0.0,0.1,0.025,0.0138,0.0113,0.00808,0.00635,0.00578,0.00531,0.00462,0.00439}),"")</f>
+        <f>iferror(lookup(if(Q8="",H8,Q8),{0,1,10,50,100,500,1000,2500,5000,15000},{0.0,0.1,0.027,0.0144,0.0118,0.00846,0.00664,0.00604,0.00555,0.0042}),"")</f>
         <v>0</v>
       </c>
       <c r="S8" s="18">
         <f>iferror(if(Q8="",H8,Q8)*R8,"")</f>
         <v>0</v>
       </c>
-      <c r="T8" s="20" t="s">
-        <v>180</v>
+      <c r="T8" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="U8" s="17">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="W8" s="18">
-        <f>iferror(USD_GBP*lookup(if(V8="",H8,V8),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0064,0.0064,0.0057,0.0057,0.005,0.0028,0.0025,0.0021,0.0016}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V8="",H8,V8),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0063,0.0063,0.0056,0.0056,0.0049,0.0028,0.0024,0.0022,0.0016}),"")</f>
         <v>0</v>
       </c>
       <c r="X8" s="18">
         <f>iferror(if(V8="",H8,V8)*W8,"")</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="20" t="s">
+      <c r="Y8" s="19" t="s">
         <v>209</v>
       </c>
       <c r="AE8" s="17">
-        <v>463372</v>
+        <v>414778</v>
       </c>
       <c r="AG8" s="18">
-        <f>iferror(lookup(if(AF8="",H8,AF8),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.006,0.005}),"")</f>
+        <f>iferror(lookup(if(AF8="",H8,AF8),{0,1,10,50,100,1000,10000},{0.0,0.1,0.014,0.014,0.011,0.006,0.005}),"")</f>
         <v>0</v>
       </c>
       <c r="AH8" s="18">
         <f>iferror(if(AF8="",H8,AF8)*AG8,"")</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="20" t="s">
-        <v>243</v>
+      <c r="AI8" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="AJ8" s="17">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="AL8" s="18">
-        <f>iferror(lookup(if(AK8="",H8,AK8),{0,1,10,25,50,100},{0.0,0.015,0.015,0.01,0.007,0.005}),"")</f>
+        <f>iferror(lookup(if(AK8="",H8,AK8),{0,1,10,25,50,100,15000},{0.0,0.027,0.027,0.022,0.016,0.011,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AM8" s="18">
         <f>iferror(if(AK8="",H8,AK8)*AL8,"")</f>
         <v>0</v>
       </c>
-      <c r="AN8" s="20" t="s">
-        <v>269</v>
+      <c r="AN8" s="19" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -5983,36 +5919,36 @@
         <f>iferror(H9*I9,"")</f>
         <v>0</v>
       </c>
-      <c r="P9" s="17">
-        <v>1608714</v>
+      <c r="P9" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="R9" s="18">
-        <f>iferror(lookup(if(Q9="",H9,Q9),{0,1,10,50,100,500,1000,2500,5000,15000,30000},{0.0,0.24,0.165,0.11,0.0935,0.066,0.05775,0.055,0.05088,0.04565,0.044}),"")</f>
+        <f>iferror(lookup(if(Q9="",H9,Q9),{0,1,10,50,100,500,1000,2500,5000,15000},{0.0,0.25,0.172,0.115,0.0978,0.069,0.06038,0.0575,0.05319,0.04773}),"")</f>
         <v>0</v>
       </c>
       <c r="S9" s="18">
         <f>iferror(if(Q9="",H9,Q9)*R9,"")</f>
         <v>0</v>
       </c>
-      <c r="T9" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>179</v>
+      <c r="T9" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="U9" s="17">
+        <v>30000</v>
       </c>
       <c r="W9" s="18">
-        <f>iferror(USD_GBP*lookup(if(V9="",H9,V9),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.236,0.236,0.148,0.148,0.111,0.0787,0.0656,0.063,0.054}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V9="",H9,V9),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.218,0.218,0.137,0.137,0.103,0.0727,0.0606,0.0594,0.051}),"")</f>
         <v>0</v>
       </c>
       <c r="X9" s="18">
         <f>iferror(if(V9="",H9,V9)*W9,"")</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="20" t="s">
+      <c r="Y9" s="19" t="s">
         <v>210</v>
       </c>
       <c r="Z9" s="17">
-        <v>4160</v>
+        <v>3740</v>
       </c>
       <c r="AB9" s="18">
         <f>iferror(lookup(if(AA9="",H9,AA9),{0,1,20,200,600,2000,10000,20000},{0.0,0.0208,0.0208,0.0161,0.0153,0.0144,0.0141,0.0139}),"")</f>
@@ -6022,36 +5958,36 @@
         <f>iferror(if(AA9="",H9,AA9)*AB9,"")</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="20" t="s">
-        <v>230</v>
+      <c r="AD9" s="19" t="s">
+        <v>231</v>
       </c>
       <c r="AE9" s="17">
-        <v>2238412</v>
+        <v>1390085</v>
       </c>
       <c r="AG9" s="18">
-        <f>iferror(lookup(if(AF9="",H9,AF9),{0,1,10,50,100,1000,10000},{0.0,0.26,0.121,0.121,0.097,0.06,0.051}),"")</f>
+        <f>iferror(lookup(if(AF9="",H9,AF9),{0,1,10,50,100,1000,10000},{0.0,0.24,0.11,0.11,0.094,0.058,0.051}),"")</f>
         <v>0</v>
       </c>
       <c r="AH9" s="18">
         <f>iferror(if(AF9="",H9,AF9)*AG9,"")</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>179</v>
+      <c r="AI9" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ9" s="17">
+        <v>30000</v>
       </c>
       <c r="AL9" s="18">
-        <f>iferror(lookup(if(AK9="",H9,AK9),{0,1,10,25,50,100},{0.0,0.121,0.121,0.113,0.105,0.097}),"")</f>
+        <f>iferror(lookup(if(AK9="",H9,AK9),{0,1,10,25,50,100,15000},{0.0,0.121,0.121,0.113,0.105,0.097,0.057}),"")</f>
         <v>0</v>
       </c>
       <c r="AM9" s="18">
         <f>iferror(if(AK9="",H9,AK9)*AL9,"")</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="20" t="s">
-        <v>270</v>
+      <c r="AN9" s="19" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -6088,64 +6024,64 @@
         <f>iferror(H10*I10,"")</f>
         <v>0</v>
       </c>
-      <c r="P10" s="17">
-        <v>266438</v>
+      <c r="P10" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="R10" s="18">
-        <f>iferror(lookup(if(Q10="",H10,Q10),{0,1,10,50,100,500,1000,2500,5000,10000,20000},{0.0,0.18,0.124,0.0742,0.0627,0.0429,0.03795,0.0363,0.033,0.03135,0.0297}),"")</f>
+        <f>iferror(lookup(if(Q10="",H10,Q10),{0,1,10,50,100,500,1000,2500,5000,10000},{0.0,0.19,0.129,0.0776,0.0656,0.04484,0.03968,0.03795,0.0345,0.03278}),"")</f>
         <v>0</v>
       </c>
       <c r="S10" s="18">
         <f>iferror(if(Q10="",H10,Q10)*R10,"")</f>
         <v>0</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="U10" s="19" t="s">
-        <v>179</v>
+      <c r="U10" s="17">
+        <v>140000</v>
       </c>
       <c r="W10" s="18">
-        <f>iferror(USD_GBP*lookup(if(V10="",H10,V10),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.157,0.157,0.0897,0.0897,0.0683,0.0506,0.0419,0.0349,0.0299}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V10="",H10,V10),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.143,0.143,0.0817,0.0817,0.0622,0.0461,0.0381,0.0318,0.0272}),"")</f>
         <v>0</v>
       </c>
       <c r="X10" s="18">
         <f>iferror(if(V10="",H10,V10)*W10,"")</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="19" t="s">
         <v>211</v>
       </c>
       <c r="Z10" s="17">
-        <v>90</v>
+        <v>4360</v>
       </c>
       <c r="AB10" s="18">
-        <f>iferror(lookup(if(AA10="",H10,AA10),{0,1,10,100,300,1000,5000,10000},{0.0,0.0634,0.0634,0.0476,0.0447,0.0417,0.0405,0.0398}),"")</f>
+        <f>iferror(lookup(if(AA10="",H10,AA10),{0,1,10,100,300,1000,5000,10000},{0.0,0.0599,0.0599,0.0441,0.0412,0.0383,0.0371,0.0364}),"")</f>
         <v>0</v>
       </c>
       <c r="AC10" s="18">
         <f>iferror(if(AA10="",H10,AA10)*AB10,"")</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="20" t="s">
-        <v>231</v>
+      <c r="AD10" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="AE10" s="17">
-        <v>300465</v>
+        <v>383146</v>
       </c>
       <c r="AG10" s="18">
-        <f>iferror(lookup(if(AF10="",H10,AF10),{0,1,10,50,100,1000,10000},{0.0,0.18,0.075,0.075,0.063,0.038,0.029}),"")</f>
+        <f>iferror(lookup(if(AF10="",H10,AF10),{0,1,10,50,100,1000,10000},{0.0,0.18,0.075,0.075,0.063,0.038,0.031}),"")</f>
         <v>0</v>
       </c>
       <c r="AH10" s="18">
         <f>iferror(if(AF10="",H10,AF10)*AG10,"")</f>
         <v>0</v>
       </c>
-      <c r="AI10" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="AJ10" s="19" t="s">
-        <v>179</v>
+      <c r="AI10" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ10" s="17">
+        <v>140000</v>
       </c>
       <c r="AL10" s="18">
         <f>iferror(lookup(if(AK10="",H10,AK10),{0,1,10,25,50,100,10000,20000},{0.0,0.173,0.173,0.144,0.116,0.087,0.033,0.032}),"")</f>
@@ -6155,8 +6091,8 @@
         <f>iferror(if(AK10="",H10,AK10)*AL10,"")</f>
         <v>0</v>
       </c>
-      <c r="AN10" s="20" t="s">
-        <v>271</v>
+      <c r="AN10" s="19" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -6194,74 +6130,74 @@
         <v>0</v>
       </c>
       <c r="P11" s="17">
-        <v>513868</v>
+        <v>1363139</v>
       </c>
       <c r="R11" s="18">
-        <f>iferror(lookup(if(Q11="",H11,Q11),{0,1,10,50,100,500,1000,2500,5000,10000,20000},{0.0,0.42,0.294,0.2056,0.1762,0.13216,0.11161,0.10573,0.09986,0.09398,0.09105}),"")</f>
+        <f>iferror(lookup(if(Q11="",H11,Q11),{0,1,10,50,100,500,1000,2500,5000,10000},{0.0,0.44,0.307,0.215,0.1842,0.13818,0.11668,0.11054,0.1044,0.09826}),"")</f>
         <v>0</v>
       </c>
       <c r="S11" s="18">
         <f>iferror(if(Q11="",H11,Q11)*R11,"")</f>
         <v>0</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="T11" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="U11" s="19" t="s">
-        <v>179</v>
+      <c r="U11" s="17">
+        <v>50000</v>
       </c>
       <c r="W11" s="18">
-        <f>iferror(USD_GBP*lookup(if(V11="",H11,V11),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.192,0.192,0.137,0.137,0.0864,0.0819,0.0774,0.0751,0.0652}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V11="",H11,V11),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.187,0.187,0.151,0.151,0.0842,0.0797,0.074,0.0718,0.0615}),"")</f>
         <v>0</v>
       </c>
       <c r="X11" s="18">
         <f>iferror(if(V11="",H11,V11)*W11,"")</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="20" t="s">
+      <c r="Y11" s="19" t="s">
         <v>212</v>
       </c>
       <c r="Z11" s="17">
-        <v>61740</v>
+        <v>250515</v>
       </c>
       <c r="AB11" s="18">
-        <f>iferror(lookup(if(AA11="",H11,AA11),{0,1,5,50,150,500,2500,5000},{0.0,0.115,0.115,0.0863,0.081,0.0757,0.0733,0.0722}),"")</f>
+        <f>iferror(lookup(if(AA11="",H11,AA11),{0,1,5,50,150,500,2500,5000},{0.0,0.1179,0.1179,0.0859,0.0801,0.0742,0.0716,0.0703}),"")</f>
         <v>0</v>
       </c>
       <c r="AC11" s="18">
         <f>iferror(if(AA11="",H11,AA11)*AB11,"")</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="20" t="s">
-        <v>232</v>
+      <c r="AD11" s="19" t="s">
+        <v>233</v>
       </c>
       <c r="AE11" s="17">
-        <v>873332</v>
+        <v>182719</v>
       </c>
       <c r="AG11" s="18">
-        <f>iferror(lookup(if(AF11="",H11,AF11),{0,1,10,50,100,1000,10000},{0.0,0.47,0.227,0.227,0.194,0.123,0.11}),"")</f>
+        <f>iferror(lookup(if(AF11="",H11,AF11),{0,1,10,50,100,1000,10000},{0.0,0.42,0.206,0.206,0.177,0.112,0.094}),"")</f>
         <v>0</v>
       </c>
       <c r="AH11" s="18">
         <f>iferror(if(AF11="",H11,AF11)*AG11,"")</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AJ11" s="19" t="s">
-        <v>179</v>
+      <c r="AI11" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ11" s="17">
+        <v>50000</v>
       </c>
       <c r="AL11" s="18">
-        <f>iferror(lookup(if(AK11="",H11,AK11),{0,1,10,25,50,100},{0.0,0.227,0.227,0.216,0.205,0.194}),"")</f>
+        <f>iferror(lookup(if(AK11="",H11,AK11),{0,1,10,25,50,100,10000},{0.0,0.227,0.227,0.216,0.205,0.194,0.11}),"")</f>
         <v>0</v>
       </c>
       <c r="AM11" s="18">
         <f>iferror(if(AK11="",H11,AK11)*AL11,"")</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="20" t="s">
-        <v>272</v>
+      <c r="AN11" s="19" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -6299,21 +6235,21 @@
         <v>0</v>
       </c>
       <c r="P12" s="17">
-        <v>11631</v>
+        <v>1648265</v>
       </c>
       <c r="R12" s="18">
-        <f>iferror(lookup(if(Q12="",H12,Q12),{0,1,10,50,100,500,1000,2500,5000,15000,30000},{0.0,0.1,0.033,0.0178,0.0146,0.0104,0.00817,0.00742,0.00683,0.00594,0.00564}),"")</f>
+        <f>iferror(lookup(if(Q12="",H12,Q12),{0,1,10,50,100,500,1000,2500,5000,15000},{0.0,0.1,0.034,0.0186,0.0152,0.01086,0.00854,0.00776,0.00714,0.00621}),"")</f>
         <v>0</v>
       </c>
       <c r="S12" s="18">
         <f>iferror(if(Q12="",H12,Q12)*R12,"")</f>
         <v>0</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="T12" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="U12" s="17">
-        <v>588</v>
+      <c r="U12" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W12" s="18">
         <f>iferror(USD_GBP*lookup(if(V12="",H12,V12),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0202,0.0202,0.0159,0.0159,0.0076,0.0059,0.0058,0.004,0.0039}),"")</f>
@@ -6323,64 +6259,64 @@
         <f>iferror(if(V12="",H12,V12)*W12,"")</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="20" t="s">
+      <c r="Y12" s="19" t="s">
         <v>213</v>
       </c>
       <c r="Z12" s="17">
-        <v>19600</v>
+        <v>20800</v>
       </c>
       <c r="AB12" s="18">
-        <f>iferror(lookup(if(AA12="",H12,AA12),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0063,0.0063,0.0049,0.0047,0.0044,0.0043,0.0042}),"")</f>
+        <f>iferror(lookup(if(AA12="",H12,AA12),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0035,0.0035,0.0026,0.0024,0.0022,0.0022,0.0021}),"")</f>
         <v>0</v>
       </c>
       <c r="AC12" s="18">
         <f>iferror(if(AA12="",H12,AA12)*AB12,"")</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE12" s="19" t="s">
-        <v>179</v>
+      <c r="AD12" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>321000</v>
       </c>
       <c r="AG12" s="18">
-        <f>iferror(lookup(if(AF12="",H12,AF12),{0,1,10,50,100,1000,10000},{0.0,0.1,0.018,0.018,0.015,0.009,0.006}),"")</f>
+        <f>iferror(lookup(if(AF12="",H12,AF12),{0,1,10,50,100,1000,10000},{0.0,0.1,0.018,0.018,0.015,0.009,0.007}),"")</f>
         <v>0</v>
       </c>
       <c r="AH12" s="18">
         <f>iferror(if(AF12="",H12,AF12)*AG12,"")</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="20" t="s">
-        <v>247</v>
+      <c r="AI12" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="AJ12" s="17">
-        <v>375</v>
+        <v>15000</v>
       </c>
       <c r="AL12" s="18">
-        <f>iferror(lookup(if(AK12="",H12,AK12),{0,1,10,25,50,100},{0.0,0.034,0.034,0.028,0.021,0.015}),"")</f>
+        <f>iferror(lookup(if(AK12="",H12,AK12),{0,1,10,25,50,100,15000},{0.0,0.034,0.034,0.028,0.021,0.015,0.005}),"")</f>
         <v>0</v>
       </c>
       <c r="AM12" s="18">
         <f>iferror(if(AK12="",H12,AK12)*AL12,"")</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="20" t="s">
-        <v>273</v>
+      <c r="AN12" s="19" t="s">
+        <v>271</v>
       </c>
       <c r="AO12" s="17">
         <v>7000</v>
       </c>
       <c r="AQ12" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP12="",H12,AP12),{0,1,1000,5000,10000,15000,60000},{0.0,0.006,0.006,0.005,0.005,0.004,0.004}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP12="",H12,AP12),{0,1,15000,60000},{0.0,0.004,0.004,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AR12" s="18">
         <f>iferror(if(AP12="",H12,AP12)*AQ12,"")</f>
         <v>0</v>
       </c>
-      <c r="AS12" s="20" t="s">
-        <v>289</v>
+      <c r="AS12" s="19" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -6415,35 +6351,49 @@
         <v>0</v>
       </c>
       <c r="P13" s="17">
-        <v>44732</v>
+        <v>32431</v>
       </c>
       <c r="R13" s="18">
-        <f>iferror(lookup(if(Q13="",H13,Q13),{0,1,10,100,500,1000,2000,5000,10000,30000,50000},{0.0,0.34,0.236,0.1191,0.09718,0.0721,0.06066,0.058,0.05016,0.04922,0.04125}),"")</f>
+        <f>iferror(lookup(if(Q13="",H13,Q13),{0,1,10,100,500,1000,2000,5000,10000,30000,50000,100000},{0.0,0.34,0.251,0.142,0.09404,0.0721,0.0627,0.05643,0.05016,0.04703,0.0417,0.04125}),"")</f>
         <v>0</v>
       </c>
       <c r="S13" s="18">
         <f>iferror(if(Q13="",H13,Q13)*R13,"")</f>
         <v>0</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T13" s="19" t="s">
         <v>185</v>
       </c>
+      <c r="U13" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="W13" s="18">
+        <f>iferror(USD_GBP*lookup(if(V13="",H13,V13),{0,1,5,10,100,500,1000,5000},{0.0,0.293,0.293,0.219,0.105,0.0838,0.0507,0.0497}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="18">
+        <f>iferror(if(V13="",H13,V13)*W13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="19" t="s">
+        <v>214</v>
+      </c>
       <c r="AE13" s="17">
-        <v>8068</v>
+        <v>269</v>
       </c>
       <c r="AG13" s="18">
-        <f>iferror(lookup(if(AF13="",H13,AF13),{0,1,10,50,100,1000,10000},{0.0,0.35,0.231,0.231,0.125,0.076,0.052}),"")</f>
+        <f>iferror(lookup(if(AF13="",H13,AF13),{0,1,10,50,100,1000,10000},{0.0,0.39,0.255,0.255,0.138,0.084,0.058}),"")</f>
         <v>0</v>
       </c>
       <c r="AH13" s="18">
         <f>iferror(if(AF13="",H13,AF13)*AG13,"")</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ13" s="19" t="s">
-        <v>179</v>
+      <c r="AI13" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ13" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="AL13" s="18">
         <f>iferror(lookup(if(AK13="",H13,AK13),{0,1,5,10,100,500,1000,2500},{0.0,0.36,0.36,0.276,0.154,0.136,0.118,0.103}),"")</f>
@@ -6453,8 +6403,8 @@
         <f>iferror(if(AK13="",H13,AK13)*AL13,"")</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="20" t="s">
-        <v>274</v>
+      <c r="AN13" s="19" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -6489,17 +6439,17 @@
         <v>0</v>
       </c>
       <c r="P14" s="17">
-        <v>2726</v>
+        <v>2338</v>
       </c>
       <c r="R14" s="18">
-        <f>iferror(lookup(if(Q14="",H14,Q14),{0,1,10,100,500,1000,2000,4000,8000,12000,28000,100000},{0.0,0.32,0.249,0.1117,0.10092,0.08289,0.07208,0.07208,0.06487,0.05766,0.05406,0.0476}),"")</f>
+        <f>iferror(lookup(if(Q14="",H14,Q14),{0,1,10,100,500,1000,2000,4000,8000,12000,28000,100000},{0.0,0.32,0.249,0.1117,0.10092,0.08289,0.07208,0.07208,0.06487,0.05766,0.05406,0.051}),"")</f>
         <v>0</v>
       </c>
       <c r="S14" s="18">
         <f>iferror(if(Q14="",H14,Q14)*R14,"")</f>
         <v>0</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="T14" s="19" t="s">
         <v>186</v>
       </c>
       <c r="U14" s="17">
@@ -6513,11 +6463,11 @@
         <f>iferror(if(V14="",H14,V14)*W14,"")</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="20" t="s">
-        <v>214</v>
+      <c r="Y14" s="19" t="s">
+        <v>215</v>
       </c>
       <c r="AE14" s="17">
-        <v>3041</v>
+        <v>2916</v>
       </c>
       <c r="AG14" s="18">
         <f>iferror(lookup(if(AF14="",H14,AF14),{0,1,10,50,100,1000,10000},{0.0,0.46,0.257,0.257,0.104,0.086,0.054}),"")</f>
@@ -6527,28 +6477,36 @@
         <f>iferror(if(AF14="",H14,AF14)*AG14,"")</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="20" t="s">
-        <v>249</v>
+      <c r="AI14" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="AJ14" s="17">
         <v>715</v>
       </c>
-      <c r="AN14" s="20" t="s">
-        <v>275</v>
+      <c r="AL14" s="18">
+        <f>iferror(lookup(if(AK14="",H14,AK14),{0,1,25,50,100,250,500},{0.0,0.32,0.249,0.18,0.111,0.106,0.1}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="18">
+        <f>iferror(if(AK14="",H14,AK14)*AL14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="AT14" s="17">
-        <v>3995</v>
+        <v>3678</v>
       </c>
       <c r="AV14" s="18">
-        <f>iferror(lookup(if(AU14="",H14,AU14),{0,1,5,25,100,500,4000},{0.0,0.18,0.18,0.16,0.101,0.0792,0.0594}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AU14="",H14,AU14),{0,1,5,25,100,500,4000},{0.0,0.131,0.131,0.1164,0.0735,0.0576,0.0432}),"")</f>
         <v>0</v>
       </c>
       <c r="AW14" s="18">
         <f>iferror(if(AU14="",H14,AU14)*AV14,"")</f>
         <v>0</v>
       </c>
-      <c r="AX14" s="20" t="s">
-        <v>299</v>
+      <c r="AX14" s="19" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -6583,21 +6541,21 @@
         <v>0</v>
       </c>
       <c r="P15" s="17">
-        <v>39419</v>
+        <v>38879</v>
       </c>
       <c r="R15" s="18">
-        <f>iferror(lookup(if(Q15="",H15,Q15),{0,1,10,100,500,1000,2000,4000,8000,12000,28000,100000},{0.0,0.32,0.256,0.115,0.10388,0.08533,0.0742,0.0742,0.06678,0.05936,0.05565,0.049}),"")</f>
+        <f>iferror(lookup(if(Q15="",H15,Q15),{0,1,10,100,500,1000,2000,4000,8000,12000,28000,100000},{0.0,0.32,0.256,0.115,0.10388,0.08533,0.0742,0.0742,0.06678,0.05936,0.05565,0.0525}),"")</f>
         <v>0</v>
       </c>
       <c r="S15" s="18">
         <f>iferror(if(Q15="",H15,Q15)*R15,"")</f>
         <v>0</v>
       </c>
-      <c r="T15" s="20" t="s">
+      <c r="T15" s="19" t="s">
         <v>187</v>
       </c>
       <c r="U15" s="17">
-        <v>3377</v>
+        <v>3337</v>
       </c>
       <c r="W15" s="18">
         <f>iferror(USD_GBP*lookup(if(V15="",H15,V15),{0,1,25,50,100,250,500,1000,2500},{0.0,0.347,0.182,0.156,0.129,0.0882,0.0775,0.0615,0.0597}),"")</f>
@@ -6607,11 +6565,11 @@
         <f>iferror(if(V15="",H15,V15)*W15,"")</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="20" t="s">
-        <v>215</v>
+      <c r="Y15" s="19" t="s">
+        <v>216</v>
       </c>
       <c r="AE15" s="17">
-        <v>11539</v>
+        <v>10713</v>
       </c>
       <c r="AG15" s="18">
         <f>iferror(lookup(if(AF15="",H15,AF15),{0,1,10,50,100,1000,10000},{0.0,0.47,0.265,0.265,0.107,0.088,0.056}),"")</f>
@@ -6621,11 +6579,11 @@
         <f>iferror(if(AF15="",H15,AF15)*AG15,"")</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="20" t="s">
-        <v>250</v>
+      <c r="AI15" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="AJ15" s="17">
-        <v>3377</v>
+        <v>3337</v>
       </c>
       <c r="AL15" s="18">
         <f>iferror(lookup(if(AK15="",H15,AK15),{0,1,25,50,100,250,500},{0.0,0.039,0.039,0.039,0.039,0.039,0.039}),"")</f>
@@ -6635,22 +6593,22 @@
         <f>iferror(if(AK15="",H15,AK15)*AL15,"")</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="20" t="s">
-        <v>276</v>
+      <c r="AN15" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="AT15" s="17">
-        <v>2925</v>
+        <v>2915</v>
       </c>
       <c r="AV15" s="18">
-        <f>iferror(lookup(if(AU15="",H15,AU15),{0,1,5,25,100,500,4000},{0.0,0.18,0.18,0.14,0.101,0.075,0.054}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AU15="",H15,AU15),{0,1,5,25,100,500,4000},{0.0,0.131,0.131,0.1019,0.0735,0.0546,0.0393}),"")</f>
         <v>0</v>
       </c>
       <c r="AW15" s="18">
         <f>iferror(if(AU15="",H15,AU15)*AV15,"")</f>
         <v>0</v>
       </c>
-      <c r="AX15" s="20" t="s">
-        <v>300</v>
+      <c r="AX15" s="19" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -6685,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="17">
-        <v>2271</v>
+        <v>2245</v>
       </c>
       <c r="R16" s="18">
         <f>iferror(lookup(if(Q16="",H16,Q16),{0,1,10,25,50,100,250,500},{0.0,0.17,0.157,0.134,0.1172,0.1089,0.09632,0.09214}),"")</f>
@@ -6695,7 +6653,7 @@
         <f>iferror(if(Q16="",H16,Q16)*R16,"")</f>
         <v>0</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="T16" s="19" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6731,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="17">
-        <v>5656</v>
+        <v>3948</v>
       </c>
       <c r="R17" s="18">
         <f>iferror(lookup(if(Q17="",H17,Q17),{0,1,10,25,50,100,250,500},{0.0,0.29,0.271,0.2324,0.1974,0.1896,0.17028,0.16254}),"")</f>
@@ -6741,7 +6699,7 @@
         <f>iferror(if(Q17="",H17,Q17)*R17,"")</f>
         <v>0</v>
       </c>
-      <c r="T17" s="20" t="s">
+      <c r="T17" s="19" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6777,18 +6735,18 @@
         <v>0</v>
       </c>
       <c r="Z18" s="17">
-        <v>44993</v>
+        <v>110598</v>
       </c>
       <c r="AB18" s="18">
-        <f>iferror(lookup(if(AA18="",H18,AA18),{0,1,10,30,100,500,1000},{0.0,0.395,0.2904,0.2723,0.2525,0.2435,0.2399}),"")</f>
+        <f>iferror(lookup(if(AA18="",H18,AA18),{0,1,10,30,100,500,1000},{0.0,0.3282,0.2543,0.2345,0.211,0.2002,0.1984}),"")</f>
         <v>0</v>
       </c>
       <c r="AC18" s="18">
         <f>iferror(if(AA18="",H18,AA18)*AB18,"")</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="20" t="s">
-        <v>234</v>
+      <c r="AD18" s="19" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -6822,8 +6780,8 @@
         <f>iferror(H19*I19,"")</f>
         <v>0</v>
       </c>
-      <c r="P19" s="19" t="s">
-        <v>179</v>
+      <c r="P19" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="R19" s="18">
         <f>iferror(lookup(if(Q19="",H19,Q19),{0,1,10000},{0.0,0.0302,0.0302}),"")</f>
@@ -6833,7 +6791,7 @@
         <f>iferror(if(Q19="",H19,Q19)*R19,"")</f>
         <v>0</v>
       </c>
-      <c r="T19" s="20" t="s">
+      <c r="T19" s="19" t="s">
         <v>190</v>
       </c>
       <c r="AE19" s="17">
@@ -6847,8 +6805,8 @@
         <f>iferror(if(AF19="",H19,AF19)*AG19,"")</f>
         <v>0</v>
       </c>
-      <c r="AI19" s="20" t="s">
-        <v>251</v>
+      <c r="AI19" s="19" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -6882,22 +6840,22 @@
         <f>iferror(H20*I20,"")</f>
         <v>0</v>
       </c>
-      <c r="P20" s="17">
-        <v>3807</v>
+      <c r="P20" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="R20" s="18">
-        <f>iferror(lookup(if(Q20="",H20,Q20),{0,1,10,100,1000,2500,5000,15000,30000,75000,105000},{0.0,0.1,0.027,0.011,0.00496,0.0043,0.00355,0.00309,0.00271,0.00249,0.00244}),"")</f>
+        <f>iferror(lookup(if(Q20="",H20,Q20),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.028,0.0115,0.00518,0.0045,0.00371,0.00323}),"")</f>
         <v>0</v>
       </c>
       <c r="S20" s="18">
         <f>iferror(if(Q20="",H20,Q20)*R20,"")</f>
         <v>0</v>
       </c>
-      <c r="T20" s="20" t="s">
+      <c r="T20" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="U20" s="19" t="s">
-        <v>179</v>
+      <c r="U20" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W20" s="18">
         <f>iferror(USD_GBP*lookup(if(V20="",H20,V20),{0,1,30000},{0.0,0.005,0.005}),"")</f>
@@ -6907,11 +6865,11 @@
         <f>iferror(if(V20="",H20,V20)*W20,"")</f>
         <v>0</v>
       </c>
-      <c r="Y20" s="20" t="s">
-        <v>216</v>
+      <c r="Y20" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="AE20" s="17">
-        <v>48181</v>
+        <v>77526</v>
       </c>
       <c r="AG20" s="18">
         <f>iferror(lookup(if(AF20="",H20,AF20),{0,1,10,50,100,1000,10000},{0.0,0.1,0.025,0.025,0.008,0.005,0.003}),"")</f>
@@ -6921,11 +6879,11 @@
         <f>iferror(if(AF20="",H20,AF20)*AG20,"")</f>
         <v>0</v>
       </c>
-      <c r="AI20" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="AJ20" s="19" t="s">
-        <v>179</v>
+      <c r="AI20" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ20" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="AL20" s="18">
         <f>iferror(lookup(if(AK20="",H20,AK20),{0,1,15000,30000},{0.0,0.005,0.005,0.004}),"")</f>
@@ -6935,22 +6893,22 @@
         <f>iferror(if(AK20="",H20,AK20)*AL20,"")</f>
         <v>0</v>
       </c>
-      <c r="AN20" s="20" t="s">
-        <v>277</v>
+      <c r="AN20" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="AO20" s="17">
-        <v>40000</v>
+        <v>38000</v>
       </c>
       <c r="AQ20" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP20="",H20,AP20),{0,1,1000,5000,10000,15000},{0.0,0.004,0.004,0.005,0.005,0.004}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP20="",H20,AP20),{0,1,15000},{0.0,0.004,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AR20" s="18">
         <f>iferror(if(AP20="",H20,AP20)*AQ20,"")</f>
         <v>0</v>
       </c>
-      <c r="AS20" s="20" t="s">
-        <v>290</v>
+      <c r="AS20" s="19" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:50">
@@ -6984,89 +6942,75 @@
         <f>iferror(H21*I21,"")</f>
         <v>0</v>
       </c>
-      <c r="P21" s="17">
-        <v>2450322</v>
+      <c r="P21" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="R21" s="18">
-        <f>iferror(lookup(if(Q21="",H21,Q21),{0,1,10,25,50,100,250,500,1000,5000,15000,30000,75000},{0.0,0.1,0.025,0.018,0.0136,0.01,0.00764,0.00612,0.0045,0.00323,0.00281,0.00247,0.00226}),"")</f>
+        <f>iferror(lookup(if(Q21="",H21,Q21),{0,1,10,25,50,100,250,500,1000,5000,15000,30000,75000},{0.0,0.1,0.025,0.018,0.0136,0.01,0.00764,0.00612,0.0045,0.00323,0.00281,0.00247,0.00231}),"")</f>
         <v>0</v>
       </c>
       <c r="S21" s="18">
         <f>iferror(if(Q21="",H21,Q21)*R21,"")</f>
         <v>0</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="19" t="s">
         <v>192</v>
       </c>
       <c r="U21" s="17">
-        <v>95971</v>
+        <v>80971</v>
       </c>
       <c r="W21" s="18">
-        <f>iferror(USD_GBP*lookup(if(V21="",H21,V21),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.04,0.04,0.024,0.024,0.018,0.012,0.009,0.007,0.0047}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V21="",H21,V21),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.04,0.04,0.024,0.024,0.018,0.012,0.009,0.0055,0.0046}),"")</f>
         <v>0</v>
       </c>
       <c r="X21" s="18">
         <f>iferror(if(V21="",H21,V21)*W21,"")</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z21" s="17">
-        <v>3000</v>
-      </c>
-      <c r="AB21" s="18">
-        <f>iferror(lookup(if(AA21="",H21,AA21),{0,1,50,500,1500,5000,25000,50000},{0.0,0.007,0.007,0.0054,0.0051,0.0048,0.0047,0.0047}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="18">
-        <f>iferror(if(AA21="",H21,AA21)*AB21,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="20" t="s">
-        <v>235</v>
+      <c r="Y21" s="19" t="s">
+        <v>218</v>
       </c>
       <c r="AE21" s="17">
-        <v>2025194</v>
+        <v>1078884</v>
       </c>
       <c r="AG21" s="18">
-        <f>iferror(lookup(if(AF21="",H21,AF21),{0,1,10,50,100,1000,10000},{0.0,0.1,0.015,0.015,0.006,0.005,0.003}),"")</f>
+        <f>iferror(lookup(if(AF21="",H21,AF21),{0,1,10,50,100,1000,10000},{0.0,0.1,0.014,0.014,0.006,0.005,0.003}),"")</f>
         <v>0</v>
       </c>
       <c r="AH21" s="18">
         <f>iferror(if(AF21="",H21,AF21)*AG21,"")</f>
         <v>0</v>
       </c>
-      <c r="AI21" s="20" t="s">
-        <v>253</v>
+      <c r="AI21" s="19" t="s">
+        <v>252</v>
       </c>
       <c r="AJ21" s="17">
-        <v>95971</v>
+        <v>50971</v>
       </c>
       <c r="AL21" s="18">
-        <f>iferror(lookup(if(AK21="",H21,AK21),{0,1,25,100,250,500,1000,2500,5000},{0.0,0.211,0.021,0.009,0.008,0.007,0.006,0.005,0.004}),"")</f>
+        <f>iferror(lookup(if(AK21="",H21,AK21),{0,1,25,100,250,500,1000,2500,5000,15000},{0.0,0.211,0.021,0.009,0.008,0.007,0.006,0.005,0.004,0.006}),"")</f>
         <v>0</v>
       </c>
       <c r="AM21" s="18">
         <f>iferror(if(AK21="",H21,AK21)*AL21,"")</f>
         <v>0</v>
       </c>
-      <c r="AN21" s="20" t="s">
-        <v>278</v>
+      <c r="AN21" s="19" t="s">
+        <v>276</v>
       </c>
       <c r="AO21" s="17">
-        <v>1074637</v>
+        <v>1053637</v>
       </c>
       <c r="AQ21" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP21="",H21,AP21),{0,1,1000,15000},{0.0,0.004,0.004,0.005}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP21="",H21,AP21),{0,1,15000},{0.0,0.005,0.005}),"")</f>
         <v>0</v>
       </c>
       <c r="AR21" s="18">
         <f>iferror(if(AP21="",H21,AP21)*AQ21,"")</f>
         <v>0</v>
       </c>
-      <c r="AS21" s="20" t="s">
-        <v>291</v>
+      <c r="AS21" s="19" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:50">
@@ -7100,67 +7044,61 @@
         <f>iferror(H22*I22,"")</f>
         <v>0</v>
       </c>
-      <c r="P22" s="17">
-        <v>3284</v>
+      <c r="P22" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="R22" s="18">
-        <f>iferror(lookup(if(Q22="",H22,Q22),{0,1,10,100,1000,2500,5000,15000,30000,75000,105000},{0.0,0.1,0.027,0.011,0.00496,0.0043,0.00355,0.00309,0.00271,0.00249,0.00244}),"")</f>
+        <f>iferror(lookup(if(Q22="",H22,Q22),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.028,0.0115,0.00518,0.0045,0.00371,0.00323}),"")</f>
         <v>0</v>
       </c>
       <c r="S22" s="18">
         <f>iferror(if(Q22="",H22,Q22)*R22,"")</f>
         <v>0</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="T22" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="U22" s="19" t="s">
-        <v>179</v>
+      <c r="U22" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W22" s="18">
-        <f>iferror(USD_GBP*lookup(if(V22="",H22,V22),{0,1,30000},{0.0,0.0049,0.0049}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V22="",H22,V22),{0,1,30000},{0.0,0.0047,0.0047}),"")</f>
         <v>0</v>
       </c>
       <c r="X22" s="18">
         <f>iferror(if(V22="",H22,V22)*W22,"")</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="20" t="s">
-        <v>218</v>
+      <c r="Y22" s="19" t="s">
+        <v>219</v>
       </c>
       <c r="AE22" s="17">
-        <v>69604</v>
+        <v>11626</v>
       </c>
       <c r="AG22" s="18">
-        <f>iferror(lookup(if(AF22="",H22,AF22),{0,1,10,50,100,1000,10000},{0.0,0.1,0.026,0.026,0.011,0.005,0.003}),"")</f>
+        <f>iferror(lookup(if(AF22="",H22,AF22),{0,1,10,50,100,1000,10000},{0.0,0.1,0.031,0.031,0.014,0.007,0.005}),"")</f>
         <v>0</v>
       </c>
       <c r="AH22" s="18">
         <f>iferror(if(AF22="",H22,AF22)*AG22,"")</f>
         <v>0</v>
       </c>
-      <c r="AI22" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ22" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN22" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="AO22" s="17">
-        <v>23000</v>
-      </c>
-      <c r="AQ22" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP22="",H22,AP22),{0,1,1000,5000,10000,15000},{0.0,0.011,0.011,0.009,0.008,0.006}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AR22" s="18">
-        <f>iferror(if(AP22="",H22,AP22)*AQ22,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AS22" s="20" t="s">
-        <v>292</v>
+      <c r="AI22" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ22" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL22" s="18">
+        <f>iferror(lookup(if(AK22="",H22,AK22),{0,1,15000},{0.0,0.006,0.006}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="18">
+        <f>iferror(if(AK22="",H22,AK22)*AL22,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="19" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:50">
@@ -7195,35 +7133,35 @@
         <v>0</v>
       </c>
       <c r="P23" s="17">
-        <v>30696</v>
+        <v>66384</v>
       </c>
       <c r="R23" s="18">
-        <f>iferror(lookup(if(Q23="",H23,Q23),{0,1,10,100,1000,2500,5000,15000,30000,75000,105000},{0.0,0.1,0.027,0.011,0.00496,0.0043,0.00355,0.00309,0.00271,0.00249,0.00244}),"")</f>
+        <f>iferror(lookup(if(Q23="",H23,Q23),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.028,0.0115,0.00518,0.0045,0.00371,0.00323}),"")</f>
         <v>0</v>
       </c>
       <c r="S23" s="18">
         <f>iferror(if(Q23="",H23,Q23)*R23,"")</f>
         <v>0</v>
       </c>
-      <c r="T23" s="20" t="s">
+      <c r="T23" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="U23" s="19" t="s">
-        <v>179</v>
+      <c r="U23" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W23" s="18">
-        <f>iferror(USD_GBP*lookup(if(V23="",H23,V23),{0,1,30000},{0.0,0.0067,0.0067}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V23="",H23,V23),{0,1,30000},{0.0,0.0064,0.0064}),"")</f>
         <v>0</v>
       </c>
       <c r="X23" s="18">
         <f>iferror(if(V23="",H23,V23)*W23,"")</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="20" t="s">
-        <v>219</v>
+      <c r="Y23" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="AE23" s="17">
-        <v>96945</v>
+        <v>69379</v>
       </c>
       <c r="AG23" s="18">
         <f>iferror(lookup(if(AF23="",H23,AF23),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.005,0.003}),"")</f>
@@ -7233,22 +7171,22 @@
         <f>iferror(if(AF23="",H23,AF23)*AG23,"")</f>
         <v>0</v>
       </c>
-      <c r="AI23" s="20" t="s">
-        <v>255</v>
+      <c r="AI23" s="19" t="s">
+        <v>254</v>
       </c>
       <c r="AO23" s="17">
         <v>28000</v>
       </c>
       <c r="AQ23" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP23="",H23,AP23),{0,1,1000,5000,10000,15000},{0.0,0.004,0.004,0.004,0.004,0.004}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP23="",H23,AP23),{0,1,15000},{0.0,0.004,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AR23" s="18">
         <f>iferror(if(AP23="",H23,AP23)*AQ23,"")</f>
         <v>0</v>
       </c>
-      <c r="AS23" s="20" t="s">
-        <v>293</v>
+      <c r="AS23" s="19" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:50">
@@ -7283,35 +7221,35 @@
         <v>0</v>
       </c>
       <c r="P24" s="17">
-        <v>12271</v>
+        <v>70771</v>
       </c>
       <c r="R24" s="18">
-        <f>iferror(lookup(if(Q24="",H24,Q24),{0,1,10,100,1000,2500,5000,15000,30000,75000,105000},{0.0,0.1,0.027,0.011,0.00496,0.0043,0.00355,0.00309,0.00271,0.00249,0.00244}),"")</f>
+        <f>iferror(lookup(if(Q24="",H24,Q24),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.028,0.0115,0.00518,0.0045,0.00371,0.00323}),"")</f>
         <v>0</v>
       </c>
       <c r="S24" s="18">
         <f>iferror(if(Q24="",H24,Q24)*R24,"")</f>
         <v>0</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="T24" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="U24" s="19" t="s">
-        <v>179</v>
+      <c r="U24" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W24" s="18">
-        <f>iferror(USD_GBP*lookup(if(V24="",H24,V24),{0,1,30000},{0.0,0.0049,0.0049}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V24="",H24,V24),{0,1,30000},{0.0,0.0047,0.0047}),"")</f>
         <v>0</v>
       </c>
       <c r="X24" s="18">
         <f>iferror(if(V24="",H24,V24)*W24,"")</f>
         <v>0</v>
       </c>
-      <c r="Y24" s="20" t="s">
-        <v>220</v>
+      <c r="Y24" s="19" t="s">
+        <v>221</v>
       </c>
       <c r="AE24" s="17">
-        <v>81725</v>
+        <v>80525</v>
       </c>
       <c r="AG24" s="18">
         <f>iferror(lookup(if(AF24="",H24,AF24),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.005,0.003}),"")</f>
@@ -7321,14 +7259,14 @@
         <f>iferror(if(AF24="",H24,AF24)*AG24,"")</f>
         <v>0</v>
       </c>
-      <c r="AI24" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="AJ24" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN24" s="20" t="s">
-        <v>280</v>
+      <c r="AI24" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="AJ24" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN24" s="19" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:50">
@@ -7363,32 +7301,32 @@
         <v>0</v>
       </c>
       <c r="P25" s="17">
-        <v>191797</v>
+        <v>14561</v>
       </c>
       <c r="R25" s="18">
-        <f>iferror(lookup(if(Q25="",H25,Q25),{0,1,10,100,1000,2500,5000,15000,30000,75000,105000},{0.0,0.1,0.027,0.011,0.00496,0.0043,0.00355,0.00309,0.00271,0.00249,0.00244}),"")</f>
+        <f>iferror(lookup(if(Q25="",H25,Q25),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.028,0.0115,0.00518,0.0045,0.00371,0.00323}),"")</f>
         <v>0</v>
       </c>
       <c r="S25" s="18">
         <f>iferror(if(Q25="",H25,Q25)*R25,"")</f>
         <v>0</v>
       </c>
-      <c r="T25" s="20" t="s">
+      <c r="T25" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="U25" s="19" t="s">
-        <v>179</v>
+      <c r="U25" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W25" s="18">
-        <f>iferror(USD_GBP*lookup(if(V25="",H25,V25),{0,1,30000},{0.0,0.0049,0.0049}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V25="",H25,V25),{0,1,30000},{0.0,0.0047,0.0047}),"")</f>
         <v>0</v>
       </c>
       <c r="X25" s="18">
         <f>iferror(if(V25="",H25,V25)*W25,"")</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="20" t="s">
-        <v>221</v>
+      <c r="Y25" s="19" t="s">
+        <v>222</v>
       </c>
       <c r="Z25" s="17">
         <v>14800</v>
@@ -7401,11 +7339,11 @@
         <f>iferror(if(AA25="",H25,AA25)*AB25,"")</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="20" t="s">
+      <c r="AD25" s="19" t="s">
         <v>236</v>
       </c>
       <c r="AE25" s="17">
-        <v>99927</v>
+        <v>87954</v>
       </c>
       <c r="AG25" s="18">
         <f>iferror(lookup(if(AF25="",H25,AF25),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.005,0.003}),"")</f>
@@ -7415,28 +7353,28 @@
         <f>iferror(if(AF25="",H25,AF25)*AG25,"")</f>
         <v>0</v>
       </c>
-      <c r="AI25" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ25" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN25" s="20" t="s">
-        <v>281</v>
+      <c r="AI25" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ25" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN25" s="19" t="s">
+        <v>279</v>
       </c>
       <c r="AO25" s="17">
-        <v>53000</v>
+        <v>37000</v>
       </c>
       <c r="AQ25" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP25="",H25,AP25),{0,1,1000,5000,10000,15000},{0.0,0.004,0.004,0.004,0.004,0.004}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP25="",H25,AP25),{0,1,15000},{0.0,0.004,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AR25" s="18">
         <f>iferror(if(AP25="",H25,AP25)*AQ25,"")</f>
         <v>0</v>
       </c>
-      <c r="AS25" s="20" t="s">
-        <v>294</v>
+      <c r="AS25" s="19" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:50">
@@ -7471,80 +7409,88 @@
         <v>0</v>
       </c>
       <c r="P26" s="17">
-        <v>240563</v>
+        <v>539607</v>
       </c>
       <c r="R26" s="18">
-        <f>iferror(lookup(if(Q26="",H26,Q26),{0,1,10,100,1000,2500,5000,15000,30000,75000,105000},{0.0,0.1,0.027,0.011,0.00496,0.0043,0.00355,0.00309,0.00271,0.00249,0.00244}),"")</f>
+        <f>iferror(lookup(if(Q26="",H26,Q26),{0,1,10,100,1000,2500,5000,15000},{0.0,0.1,0.028,0.0115,0.00518,0.0045,0.00371,0.00323}),"")</f>
         <v>0</v>
       </c>
       <c r="S26" s="18">
         <f>iferror(if(Q26="",H26,Q26)*R26,"")</f>
         <v>0</v>
       </c>
-      <c r="T26" s="20" t="s">
+      <c r="T26" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="U26" s="19" t="s">
-        <v>179</v>
+      <c r="U26" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W26" s="18">
-        <f>iferror(USD_GBP*lookup(if(V26="",H26,V26),{0,1,30000},{0.0,0.0049,0.0049}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V26="",H26,V26),{0,1,30000},{0.0,0.0047,0.0047}),"")</f>
         <v>0</v>
       </c>
       <c r="X26" s="18">
         <f>iferror(if(V26="",H26,V26)*W26,"")</f>
         <v>0</v>
       </c>
-      <c r="Y26" s="20" t="s">
-        <v>222</v>
+      <c r="Y26" s="19" t="s">
+        <v>223</v>
       </c>
       <c r="Z26" s="17">
-        <v>4050</v>
+        <v>4000</v>
       </c>
       <c r="AB26" s="18">
-        <f>iferror(lookup(if(AA26="",H26,AA26),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0199,0.0199,0.0154,0.0146,0.0138,0.0134,0.0132}),"")</f>
+        <f>iferror(lookup(if(AA26="",H26,AA26),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0197,0.0197,0.0151,0.0143,0.0135,0.0131,0.0129}),"")</f>
         <v>0</v>
       </c>
       <c r="AC26" s="18">
         <f>iferror(if(AA26="",H26,AA26)*AB26,"")</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="20" t="s">
+      <c r="AD26" s="19" t="s">
         <v>237</v>
       </c>
       <c r="AE26" s="17">
-        <v>623070</v>
+        <v>186613</v>
       </c>
       <c r="AG26" s="18">
-        <f>iferror(lookup(if(AF26="",H26,AF26),{0,1,10,50,100,1000,10000},{0.0,0.1,0.026,0.026,0.011,0.005,0.003}),"")</f>
+        <f>iferror(lookup(if(AF26="",H26,AF26),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.005,0.003}),"")</f>
         <v>0</v>
       </c>
       <c r="AH26" s="18">
         <f>iferror(if(AF26="",H26,AF26)*AG26,"")</f>
         <v>0</v>
       </c>
-      <c r="AI26" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ26" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN26" s="20" t="s">
-        <v>282</v>
+      <c r="AI26" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="AJ26" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL26" s="18">
+        <f>iferror(lookup(if(AK26="",H26,AK26),{0,1,45000},{0.0,0.004,0.004}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="18">
+        <f>iferror(if(AK26="",H26,AK26)*AL26,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="AO26" s="17">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="AQ26" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP26="",H26,AP26),{0,1,1000,5000,10000,15000},{0.0,0.011,0.011,0.009,0.008,0.006}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP26="",H26,AP26),{0,1,15000},{0.0,0.006,0.006}),"")</f>
         <v>0</v>
       </c>
       <c r="AR26" s="18">
         <f>iferror(if(AP26="",H26,AP26)*AQ26,"")</f>
         <v>0</v>
       </c>
-      <c r="AS26" s="20" t="s">
-        <v>295</v>
+      <c r="AS26" s="19" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:50">
@@ -7579,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="17">
-        <v>1855</v>
+        <v>40904</v>
       </c>
       <c r="R27" s="18">
         <f>iferror(lookup(if(Q27="",H27,Q27),{0,1,10,25,100,250,500,1000,2500,8500,17000},{0.0,0.22,0.211,0.2,0.1819,0.171,0.15644,0.13097,0.12733,0.12005,0.11278}),"")</f>
@@ -7589,39 +7535,39 @@
         <f>iferror(if(Q27="",H27,Q27)*R27,"")</f>
         <v>0</v>
       </c>
-      <c r="T27" s="20" t="s">
+      <c r="T27" s="19" t="s">
         <v>198</v>
       </c>
       <c r="U27" s="17">
-        <v>486</v>
+        <v>7800</v>
       </c>
       <c r="W27" s="18">
-        <f>iferror(USD_GBP*lookup(if(V27="",H27,V27),{0,1,10,50,100,500},{0.0,0.159,0.159,0.15,0.137,0.118}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V27="",H27,V27),{0,1,10,50,100,500},{0.0,0.156,0.156,0.148,0.135,0.116}),"")</f>
         <v>0</v>
       </c>
       <c r="X27" s="18">
         <f>iferror(if(V27="",H27,V27)*W27,"")</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="20" t="s">
-        <v>223</v>
+      <c r="Y27" s="19" t="s">
+        <v>224</v>
       </c>
       <c r="Z27" s="17">
-        <v>19222</v>
+        <v>18851</v>
       </c>
       <c r="AB27" s="18">
-        <f>iferror(lookup(if(AA27="",H27,AA27),{0,1,10,30,100,500,1000},{0.0,0.2242,0.1694,0.1594,0.1494,0.1449,0.1427}),"")</f>
+        <f>iferror(lookup(if(AA27="",H27,AA27),{0,1,10,30,100,500,1000},{0.0,0.1983,0.1436,0.1336,0.1235,0.1191,0.1169}),"")</f>
         <v>0</v>
       </c>
       <c r="AC27" s="18">
         <f>iferror(if(AA27="",H27,AA27)*AB27,"")</f>
         <v>0</v>
       </c>
-      <c r="AD27" s="20" t="s">
+      <c r="AD27" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="AE27" s="19" t="s">
-        <v>179</v>
+      <c r="AE27" s="17">
+        <v>11967</v>
       </c>
       <c r="AG27" s="18">
         <f>iferror(lookup(if(AF27="",H27,AF27),{0,1,10,50,100,1000,10000},{0.0,0.22,0.211,0.194,0.173,0.119,0.119}),"")</f>
@@ -7631,8 +7577,8 @@
         <f>iferror(if(AF27="",H27,AF27)*AG27,"")</f>
         <v>0</v>
       </c>
-      <c r="AI27" s="20" t="s">
-        <v>259</v>
+      <c r="AI27" s="19" t="s">
+        <v>258</v>
       </c>
       <c r="AJ27" s="17">
         <v>7274</v>
@@ -7645,22 +7591,22 @@
         <f>iferror(if(AK27="",H27,AK27)*AL27,"")</f>
         <v>0</v>
       </c>
-      <c r="AN27" s="20" t="s">
-        <v>283</v>
+      <c r="AN27" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="AT27" s="17">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="AV27" s="18">
-        <f>iferror(lookup(if(AU27="",H27,AU27),{0,1,5,100,1000,3000,8500},{0.0,0.2284,0.2284,0.1924,0.1323,0.1178,0.1154}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AU27="",H27,AU27),{0,1,5,100,1000,3000,8500},{0.0,0.1646,0.1646,0.1386,0.0953,0.0849,0.0832}),"")</f>
         <v>0</v>
       </c>
       <c r="AW27" s="18">
         <f>iferror(if(AU27="",H27,AU27)*AV27,"")</f>
         <v>0</v>
       </c>
-      <c r="AX27" s="20" t="s">
-        <v>301</v>
+      <c r="AX27" s="19" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:50">
@@ -7694,53 +7640,75 @@
         <f>iferror(H28*I28,"")</f>
         <v>0</v>
       </c>
-      <c r="P28" s="19" t="s">
-        <v>179</v>
+      <c r="P28" s="17">
+        <v>1191</v>
       </c>
       <c r="R28" s="18">
-        <f>iferror(lookup(if(Q28="",H28,Q28),{0,1,3000},{0.0,0.12257,0.12257}),"")</f>
+        <f>iferror(lookup(if(Q28="",H28,Q28),{0,1,10,25,100,250,500,1000,3000,6000,15000,30000,75000},{0.0,0.46,0.343,0.3004,0.1945,0.161,0.1288,0.09874,0.08586,0.07727,0.06869,0.0644,0.06075}),"")</f>
         <v>0</v>
       </c>
       <c r="S28" s="18">
         <f>iferror(if(Q28="",H28,Q28)*R28,"")</f>
         <v>0</v>
       </c>
-      <c r="T28" s="20" t="s">
+      <c r="T28" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="U28" s="19" t="s">
-        <v>179</v>
+      <c r="U28" s="17">
+        <v>1973</v>
       </c>
       <c r="W28" s="18">
-        <f>iferror(USD_GBP*lookup(if(V28="",H28,V28),{0,1,3000},{0.0,0.056,0.056}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V28="",H28,V28),{0,1,5,10,100,500,3000},{0.0,0.334,0.334,0.224,0.0886,0.0551,0.0434}),"")</f>
         <v>0</v>
       </c>
       <c r="X28" s="18">
         <f>iferror(if(V28="",H28,V28)*W28,"")</f>
         <v>0</v>
       </c>
-      <c r="Y28" s="20" t="s">
-        <v>224</v>
+      <c r="Y28" s="19" t="s">
+        <v>225</v>
       </c>
       <c r="AE28" s="17">
-        <v>121</v>
+        <v>13244</v>
       </c>
       <c r="AG28" s="18">
-        <f>iferror(lookup(if(AF28="",H28,AF28),{0,1,10,50,100,1000,10000},{0.0,0.43,0.321,0.321,0.165,0.119,0.099}),"")</f>
+        <f>iferror(lookup(if(AF28="",H28,AF28),{0,1,10,50,100,1000,10000},{0.0,0.34,0.226,0.226,0.121,0.075,0.051}),"")</f>
         <v>0</v>
       </c>
       <c r="AH28" s="18">
         <f>iferror(if(AF28="",H28,AF28)*AG28,"")</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="AJ28" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN28" s="20" t="s">
-        <v>284</v>
+      <c r="AI28" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AJ28" s="17">
+        <v>1948</v>
+      </c>
+      <c r="AL28" s="18">
+        <f>iferror(lookup(if(AK28="",H28,AK28),{0,1,5,10,100,6000,12000,18000,48000,90000},{0.0,0.363,0.363,0.296,0.138,0.05,0.05,0.042,0.038,0.036}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="18">
+        <f>iferror(if(AK28="",H28,AK28)*AL28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="AO28" s="17">
+        <v>3000</v>
+      </c>
+      <c r="AQ28" s="18">
+        <f>iferror(USD_GBP*lookup(if(AP28="",H28,AP28),{0,1,3000,9000,24000,45000,99000},{0.0,0.027,0.027,0.031,0.03,0.029,0.028}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="18">
+        <f>iferror(if(AP28="",H28,AP28)*AQ28,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AS28" s="19" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:50">
@@ -7774,75 +7742,75 @@
         <f>iferror(H29*I29,"")</f>
         <v>0</v>
       </c>
-      <c r="P29" s="17">
-        <v>3211</v>
+      <c r="P29" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="R29" s="18">
-        <f>iferror(lookup(if(Q29="",H29,Q29),{0,1,10,25,100,250,500,1000,3000,6000,15000,30000},{0.0,0.54,0.438,0.4012,0.2705,0.22388,0.20522,0.15391,0.14458,0.13526,0.12406,0.1232}),"")</f>
+        <f>iferror(lookup(if(Q29="",H29,Q29),{0,1,10,25,100,250,500,1000,3000,6000,15000,30000},{0.0,0.54,0.438,0.4012,0.2985,0.27052,0.22388,0.1679,0.15391,0.14458,0.13526,0.132}),"")</f>
         <v>0</v>
       </c>
       <c r="S29" s="18">
         <f>iferror(if(Q29="",H29,Q29)*R29,"")</f>
         <v>0</v>
       </c>
-      <c r="T29" s="20" t="s">
+      <c r="T29" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="U29" s="17">
-        <v>695</v>
+      <c r="U29" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W29" s="18">
-        <f>iferror(USD_GBP*lookup(if(V29="",H29,V29),{0,1,5,10,100,150,500,3000,9000,24000,45000},{0.0,0.422,0.422,0.275,0.142,0.142,0.105,0.0914,0.0882,0.0872,0.086}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V29="",H29,V29),{0,1,5,10,100,150,500,3000,9000,24000,45000},{0.0,0.422,0.422,0.309,0.142,0.142,0.105,0.0914,0.0882,0.0851,0.0836}),"")</f>
         <v>0</v>
       </c>
       <c r="X29" s="18">
         <f>iferror(if(V29="",H29,V29)*W29,"")</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="20" t="s">
-        <v>225</v>
+      <c r="Y29" s="19" t="s">
+        <v>226</v>
       </c>
       <c r="AE29" s="17">
-        <v>6644</v>
+        <v>429</v>
       </c>
       <c r="AG29" s="18">
-        <f>iferror(lookup(if(AF29="",H29,AF29),{0,1,10,50,100,1000,10000},{0.0,0.49,0.364,0.364,0.186,0.14,0.116}),"")</f>
+        <f>iferror(lookup(if(AF29="",H29,AF29),{0,1,10,50,100,1000,10000},{0.0,0.54,0.402,0.402,0.224,0.154,0.135}),"")</f>
         <v>0</v>
       </c>
       <c r="AH29" s="18">
         <f>iferror(if(AF29="",H29,AF29)*AG29,"")</f>
         <v>0</v>
       </c>
-      <c r="AI29" s="20" t="s">
-        <v>261</v>
+      <c r="AI29" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="AJ29" s="17">
-        <v>655</v>
+        <v>190</v>
       </c>
       <c r="AL29" s="18">
-        <f>iferror(lookup(if(AK29="",H29,AK29),{0,1,5,10,100,3000,6000,12000,18000,24000,30000,300000},{0.0,0.46,0.46,0.343,0.175,0.115,0.113,0.111,0.11,0.108,0.106,0.104}),"")</f>
+        <f>iferror(lookup(if(AK29="",H29,AK29),{0,1,5,10,100,3000,6000,12000,18000,24000,30000,300000},{0.0,0.49,0.49,0.364,0.186,0.115,0.113,0.111,0.11,0.108,0.106,0.104}),"")</f>
         <v>0</v>
       </c>
       <c r="AM29" s="18">
         <f>iferror(if(AK29="",H29,AK29)*AL29,"")</f>
         <v>0</v>
       </c>
-      <c r="AN29" s="20" t="s">
-        <v>285</v>
+      <c r="AN29" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="AO29" s="17">
-        <v>2856</v>
+        <v>12</v>
       </c>
       <c r="AQ29" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP29="",H29,AP29),{0,1,18,108,1008,3000,3006,9000},{0.0,0.262,0.262,0.133,0.1,0.085,0.087,0.084}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP29="",H29,AP29),{0,1,3000},{0.0,0.088,0.088}),"")</f>
         <v>0</v>
       </c>
       <c r="AR29" s="18">
         <f>iferror(if(AP29="",H29,AP29)*AQ29,"")</f>
         <v>0</v>
       </c>
-      <c r="AS29" s="20" t="s">
-        <v>296</v>
+      <c r="AS29" s="19" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:50">
@@ -7876,18 +7844,18 @@
         <f>iferror(H30*I30,"")</f>
         <v>0</v>
       </c>
-      <c r="P30" s="19" t="s">
-        <v>179</v>
+      <c r="P30" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="R30" s="18">
-        <f>iferror(lookup(if(Q30="",H30,Q30),{0,1,2000},{0.0,1.1448,1.1448}),"")</f>
+        <f>iferror(lookup(if(Q30="",H30,Q30),{0,1,2000},{0.0,1.336,1.336}),"")</f>
         <v>0</v>
       </c>
       <c r="S30" s="18">
         <f>iferror(if(Q30="",H30,Q30)*R30,"")</f>
         <v>0</v>
       </c>
-      <c r="T30" s="20" t="s">
+      <c r="T30" s="19" t="s">
         <v>201</v>
       </c>
       <c r="Z30" s="17">
@@ -7901,22 +7869,22 @@
         <f>iferror(if(AA30="",H30,AA30)*AB30,"")</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="20" t="s">
+      <c r="AD30" s="19" t="s">
         <v>239</v>
       </c>
       <c r="AE30" s="17">
-        <v>627</v>
+        <v>590</v>
       </c>
       <c r="AG30" s="18">
-        <f>iferror(lookup(if(AF30="",H30,AF30),{0,1,10,50,100,1000,10000},{0.0,2.49,2.25,2.12,1.7,1.15,1.1}),"")</f>
+        <f>iferror(lookup(if(AF30="",H30,AF30),{0,1,10,50,100,1000,10000},{0.0,2.5,2.25,2.12,1.61,1.3,1.11}),"")</f>
         <v>0</v>
       </c>
       <c r="AH30" s="18">
         <f>iferror(if(AF30="",H30,AF30)*AG30,"")</f>
         <v>0</v>
       </c>
-      <c r="AI30" s="20" t="s">
-        <v>262</v>
+      <c r="AI30" s="19" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:50">
@@ -7953,61 +7921,61 @@
         <f>iferror(H31*I31,"")</f>
         <v>0</v>
       </c>
-      <c r="P31" s="19" t="s">
-        <v>179</v>
+      <c r="P31" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="R31" s="18">
-        <f>iferror(lookup(if(Q31="",H31,Q31),{0,1,10},{0.0,3.4,3.333}),"")</f>
+        <f>iferror(lookup(if(Q31="",H31,Q31),{0,1,10},{0.0,3.54,3.5}),"")</f>
         <v>0</v>
       </c>
       <c r="S31" s="18">
         <f>iferror(if(Q31="",H31,Q31)*R31,"")</f>
         <v>0</v>
       </c>
-      <c r="T31" s="20" t="s">
+      <c r="T31" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="U31" s="19" t="s">
-        <v>179</v>
+      <c r="U31" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W31" s="18">
-        <f>iferror(USD_GBP*lookup(if(V31="",H31,V31),{0,1,10,25,50,100},{0.0,3.21,2.72,2.56,2.4,2.25}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V31="",H31,V31),{0,1,10,25,50,100,250,500,1000},{0.0,2.9,2.17,2.05,1.92,1.8,1.61,1.54,1.28}),"")</f>
         <v>0</v>
       </c>
       <c r="X31" s="18">
         <f>iferror(if(V31="",H31,V31)*W31,"")</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE31" s="19" t="s">
-        <v>179</v>
+      <c r="Y31" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE31" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="AG31" s="18">
-        <f>iferror(lookup(if(AF31="",H31,AF31),{0,1,10,50,100,1000,10000},{0.0,3.33,2.72,2.72,2.24,1.61,1.53}),"")</f>
+        <f>iferror(lookup(if(AF31="",H31,AF31),{0,1,10,50,100,1000,10000},{0.0,3.37,2.87,2.87,2.63,2.55,2.54}),"")</f>
         <v>0</v>
       </c>
       <c r="AH31" s="18">
         <f>iferror(if(AF31="",H31,AF31)*AG31,"")</f>
         <v>0</v>
       </c>
-      <c r="AI31" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="AJ31" s="19" t="s">
-        <v>179</v>
+      <c r="AI31" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="AJ31" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="AL31" s="18">
-        <f>iferror(lookup(if(AK31="",H31,AK31),{0,1,10,25,50,100,250},{0.0,3.21,2.72,2.56,2.4,2.24,2.01}),"")</f>
+        <f>iferror(lookup(if(AK31="",H31,AK31),{0,1,10,25,50,100,250,2450},{0.0,3.83,3.13,2.94,2.76,2.58,2.31,2.31}),"")</f>
         <v>0</v>
       </c>
       <c r="AM31" s="18">
         <f>iferror(if(AK31="",H31,AK31)*AL31,"")</f>
         <v>0</v>
       </c>
-      <c r="AN31" s="20" t="s">
-        <v>286</v>
+      <c r="AN31" s="19" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:50">
@@ -8041,8 +8009,8 @@
         <f>iferror(H32*I32,"")</f>
         <v>0</v>
       </c>
-      <c r="P32" s="19" t="s">
-        <v>179</v>
+      <c r="P32" s="17">
+        <v>16189</v>
       </c>
       <c r="R32" s="18">
         <f>iferror(lookup(if(Q32="",H32,Q32),{0,1,10,25,50,100,250,500,1000,4000,8000,12000,28000},{0.0,0.22,0.208,0.1984,0.192,0.1856,0.176,0.1472,0.11424,0.1088,0.1024,0.096,0.0896}),"")</f>
@@ -8052,91 +8020,77 @@
         <f>iferror(if(Q32="",H32,Q32)*R32,"")</f>
         <v>0</v>
       </c>
-      <c r="T32" s="20" t="s">
+      <c r="T32" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="U32" s="17">
-        <v>4242</v>
+      <c r="U32" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="W32" s="18">
-        <f>iferror(USD_GBP*lookup(if(V32="",H32,V32),{0,1,5,10,100,150,500,4000,12000,32000,60000},{0.0,0.207,0.207,0.2,0.133,0.133,0.104,0.0973,0.0941,0.092,0.09}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V32="",H32,V32),{0,1,5,10,100,150,500,4000,12000,32000,60000},{0.0,0.237,0.237,0.2,0.137,0.137,0.104,0.0973,0.0941,0.092,0.0887}),"")</f>
         <v>0</v>
       </c>
       <c r="X32" s="18">
         <f>iferror(if(V32="",H32,V32)*W32,"")</f>
         <v>0</v>
       </c>
-      <c r="Y32" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z32" s="17">
-        <v>829</v>
-      </c>
-      <c r="AB32" s="18">
-        <f>iferror(lookup(if(AA32="",H32,AA32),{0,1,10,30,100,500,1000},{0.0,0.1967,0.1489,0.1401,0.1313,0.1274,0.1255}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="18">
-        <f>iferror(if(AA32="",H32,AA32)*AB32,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="20" t="s">
-        <v>240</v>
+      <c r="Y32" s="19" t="s">
+        <v>228</v>
       </c>
       <c r="AE32" s="17">
-        <v>9289</v>
+        <v>2</v>
       </c>
       <c r="AG32" s="18">
-        <f>iferror(lookup(if(AF32="",H32,AF32),{0,1,10,50,100,1000,10000},{0.0,0.22,0.192,0.192,0.148,0.143,0.121}),"")</f>
+        <f>iferror(lookup(if(AF32="",H32,AF32),{0,1,10,50,100,1000,10000},{0.0,0.39,0.306,0.306,0.184,0.116,0.092}),"")</f>
         <v>0</v>
       </c>
       <c r="AH32" s="18">
         <f>iferror(if(AF32="",H32,AF32)*AG32,"")</f>
         <v>0</v>
       </c>
-      <c r="AI32" s="20" t="s">
-        <v>264</v>
+      <c r="AI32" s="19" t="s">
+        <v>263</v>
       </c>
       <c r="AJ32" s="17">
-        <v>3995</v>
+        <v>280</v>
       </c>
       <c r="AL32" s="18">
-        <f>iferror(lookup(if(AK32="",H32,AK32),{0,1,5,10,100,4000,6000,8000,12000,18000,30000},{0.0,0.235,0.235,0.223,0.201,0.134,0.118,0.133,0.121,0.113,0.105}),"")</f>
+        <f>iferror(lookup(if(AK32="",H32,AK32),{0,1,10,100,4000,6000,8000,12000,18000,30000},{0.0,0.239,0.227,0.203,0.134,0.118,0.133,0.121,0.113,0.105}),"")</f>
         <v>0</v>
       </c>
       <c r="AM32" s="18">
         <f>iferror(if(AK32="",H32,AK32)*AL32,"")</f>
         <v>0</v>
       </c>
-      <c r="AN32" s="20" t="s">
-        <v>287</v>
+      <c r="AN32" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="AO32" s="17">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="AQ32" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP32="",H32,AP32),{0,1,50,100,1000,4000,8000},{0.0,0.162,0.162,0.123,0.096,0.09,0.09}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP32="",H32,AP32),{0,1,50,100,1000,4000,8000},{0.0,0.147,0.147,0.113,0.109,0.102,0.092}),"")</f>
         <v>0</v>
       </c>
       <c r="AR32" s="18">
         <f>iferror(if(AP32="",H32,AP32)*AQ32,"")</f>
         <v>0</v>
       </c>
-      <c r="AS32" s="20" t="s">
-        <v>297</v>
+      <c r="AS32" s="19" t="s">
+        <v>296</v>
       </c>
       <c r="AT32" s="17">
-        <v>3104</v>
+        <v>2794</v>
       </c>
       <c r="AV32" s="18">
-        <f>iferror(lookup(if(AU32="",H32,AU32),{0,1,5,25,100,500,2000},{0.0,0.22722,0.22722,0.20438,0.18034,0.1623,0.15148}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AU32="",H32,AU32),{0,1,5,25,100,500,2000},{0.0,0.16374,0.16374,0.14728,0.12995,0.11695,0.10916}),"")</f>
         <v>0</v>
       </c>
       <c r="AW32" s="18">
         <f>iferror(if(AU32="",H32,AU32)*AV32,"")</f>
         <v>0</v>
       </c>
-      <c r="AX32" s="20" t="s">
+      <c r="AX32" s="19" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8209,8 +8163,8 @@
         <f>iferror(H34*I34,"")</f>
         <v>0</v>
       </c>
-      <c r="P34" s="19" t="s">
-        <v>179</v>
+      <c r="P34" s="17">
+        <v>98</v>
       </c>
       <c r="R34" s="18">
         <f>iferror(lookup(if(Q34="",H34,Q34),{0,1,10,25,50,100,250,500,1000,5000},{0.0,1.72,1.566,1.5232,1.5154,1.3547,1.35072,1.33034,1.27387,1.18601}),"")</f>
@@ -8220,7 +8174,7 @@
         <f>iferror(if(Q34="",H34,Q34)*R34,"")</f>
         <v>0</v>
       </c>
-      <c r="T34" s="20" t="s">
+      <c r="T34" s="19" t="s">
         <v>204</v>
       </c>
     </row>
@@ -8255,8 +8209,8 @@
         <f>iferror(H35*I35,"")</f>
         <v>0</v>
       </c>
-      <c r="P35" s="19" t="s">
-        <v>179</v>
+      <c r="P35" s="17">
+        <v>1058</v>
       </c>
       <c r="R35" s="18">
         <f>iferror(lookup(if(Q35="",H35,Q35),{0,1,25,100,2000},{0.0,6.0,5.25,5.005,5.005}),"")</f>
@@ -8266,11 +8220,11 @@
         <f>iferror(if(Q35="",H35,Q35)*R35,"")</f>
         <v>0</v>
       </c>
-      <c r="T35" s="20" t="s">
+      <c r="T35" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="AE35" s="19" t="s">
-        <v>179</v>
+      <c r="AE35" s="17">
+        <v>614</v>
       </c>
       <c r="AG35" s="18">
         <f>iferror(lookup(if(AF35="",H35,AF35),{0,1,10,50,100,1000,10000},{0.0,6.06,6.06,5.31,5.06,5.06,5.05}),"")</f>
@@ -8280,8 +8234,8 @@
         <f>iferror(if(AF35="",H35,AF35)*AG35,"")</f>
         <v>0</v>
       </c>
-      <c r="AI35" s="20" t="s">
-        <v>265</v>
+      <c r="AI35" s="19" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:49">
@@ -8315,25 +8269,33 @@
         <f>iferror(H36*I36,"")</f>
         <v>0</v>
       </c>
-      <c r="P36" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="T36" s="20" t="s">
+      <c r="P36" s="17">
+        <v>3000</v>
+      </c>
+      <c r="R36" s="18">
+        <f>iferror(lookup(if(Q36="",H36,Q36),{0,1,10,50,100,500,1000,3000},{0.0,1.62,1.548,1.512,1.296,1.26,1.062,1.008}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="18">
+        <f>iferror(if(Q36="",H36,Q36)*R36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="AE36" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG36" s="18">
-        <f>iferror(lookup(if(AF36="",H36,AF36),{0,1,10,50,100,1000,10000},{0.0,1.83,1.76,1.72,1.47,1.15,1.05}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="18">
-        <f>iferror(if(AF36="",H36,AF36)*AG36,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI36" s="20" t="s">
-        <v>266</v>
+      <c r="AJ36" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL36" s="18">
+        <f>iferror(lookup(if(AK36="",H36,AK36),{0,1,3000,4000,6000,10000},{0.0,1.28,1.28,1.17,1.12,1.09}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="18">
+        <f>iferror(if(AK36="",H36,AK36)*AL36,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="19" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:49">
@@ -8347,7 +8309,7 @@
         <f>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(arrow_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(farnell_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(newark_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(rs_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(tme_part_data)+3)),INDIRECT(ADDRESS(ROW(),COLUMN(lcsc_part_data)+3)))</f>
         <v>0</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="19" t="s">
         <v>176</v>
       </c>
       <c r="L38" s="6">
@@ -8358,7 +8320,7 @@
         <f>SUMIF(L7:L36,"&gt;0",N7:N36)</f>
         <v>0</v>
       </c>
-      <c r="P38" s="20" t="s">
+      <c r="P38" s="19" t="s">
         <v>176</v>
       </c>
       <c r="Q38" s="6">
@@ -8369,7 +8331,7 @@
         <f>SUMIF(Q7:Q36,"&gt;0",S7:S36)</f>
         <v>0</v>
       </c>
-      <c r="U38" s="20" t="s">
+      <c r="U38" s="19" t="s">
         <v>176</v>
       </c>
       <c r="V38" s="6">
@@ -8380,7 +8342,7 @@
         <f>SUMIF(V7:V36,"&gt;0",X7:X36)</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="20" t="s">
+      <c r="Z38" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AA38" s="6">
@@ -8391,7 +8353,7 @@
         <f>SUMIF(AA7:AA36,"&gt;0",AC7:AC36)</f>
         <v>0</v>
       </c>
-      <c r="AE38" s="20" t="s">
+      <c r="AE38" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AF38" s="6">
@@ -8402,7 +8364,7 @@
         <f>SUMIF(AF7:AF36,"&gt;0",AH7:AH36)</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="20" t="s">
+      <c r="AJ38" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AK38" s="6">
@@ -8413,7 +8375,7 @@
         <f>SUMIF(AK7:AK36,"&gt;0",AM7:AM36)</f>
         <v>0</v>
       </c>
-      <c r="AO38" s="20" t="s">
+      <c r="AO38" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AP38" s="6">
@@ -8424,7 +8386,7 @@
         <f>SUMIF(AP7:AP36,"&gt;0",AR7:AR36)</f>
         <v>0</v>
       </c>
-      <c r="AT38" s="20" t="s">
+      <c r="AT38" s="19" t="s">
         <v>176</v>
       </c>
       <c r="AU38" s="6">
@@ -8531,7 +8493,7 @@
     </row>
     <row r="41" spans="1:49">
       <c r="A41" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L41">
         <f t="array" ref="L41">IFERROR(CONCATENATE(INDEX(O7:O36,SMALL(IF(ISNUMBER(L7:L36),IF(L7:L36&gt;0,IF(O7:O36&lt;&gt;"",ROW(L7:L36)-MIN(ROW(L7:L36))+1))),ROW()-ROW(A$39)+1)),",",TEXT(INDEX(L7:L36,SMALL(IF(ISNUMBER(L7:L36),IF(L7:L36&gt;0,IF(O7:O36&lt;&gt;"",ROW(L7:L36)-MIN(ROW(L7:L36))+1))),ROW()-ROW(A$39)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A36,SMALL(IF(ISNUMBER(L7:L36),IF(L7:L36&gt;0,IF(O7:O36&lt;&gt;"",ROW(L7:L36)-MIN(ROW(L7:L36))+1))),ROW()-ROW(A$39)+1)),",",";")),"")</f>
@@ -9727,1471 +9689,1539 @@
     <mergeCell ref="AT5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="AA10">
-    <cfRule type="expression" dxfId="3" priority="391">
+    <cfRule type="expression" dxfId="3" priority="401">
       <formula>AND(AA10&gt;0,AA10&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="392" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="402" operator="greaterThan">
       <formula>Z10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11">
-    <cfRule type="expression" dxfId="3" priority="397">
+    <cfRule type="expression" dxfId="3" priority="407">
       <formula>AND(AA11&gt;0,AA11&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="398" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="408" operator="greaterThan">
       <formula>Z11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA12">
-    <cfRule type="expression" dxfId="3" priority="403">
+    <cfRule type="expression" dxfId="3" priority="413">
       <formula>AND(AA12&gt;0,AA12&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="404" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="414" operator="greaterThan">
       <formula>Z12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA18">
-    <cfRule type="cellIs" dxfId="1" priority="409" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="419" operator="greaterThan">
       <formula>Z18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA21">
-    <cfRule type="expression" dxfId="3" priority="414">
-      <formula>AND(AA21&gt;0,AA21&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="415" operator="greaterThan">
-      <formula>Z21</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AA25">
-    <cfRule type="expression" dxfId="3" priority="420">
+    <cfRule type="expression" dxfId="3" priority="424">
       <formula>AND(AA25&gt;0,AA25&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="421" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="425" operator="greaterThan">
       <formula>Z25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA26">
-    <cfRule type="expression" dxfId="3" priority="426">
+    <cfRule type="expression" dxfId="3" priority="430">
       <formula>AND(AA26&gt;0,AA26&lt;50)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="427" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="431" operator="greaterThan">
       <formula>Z26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA27">
-    <cfRule type="cellIs" dxfId="1" priority="432" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="436" operator="greaterThan">
       <formula>Z27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA30">
-    <cfRule type="cellIs" dxfId="1" priority="437" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="441" operator="greaterThan">
       <formula>Z30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA32">
-    <cfRule type="cellIs" dxfId="1" priority="442" operator="greaterThan">
-      <formula>Z32</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
-    <cfRule type="expression" dxfId="3" priority="379">
+    <cfRule type="expression" dxfId="3" priority="389">
       <formula>AND(AA7&gt;0,AA7&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="380" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="390" operator="greaterThan">
       <formula>Z7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9">
-    <cfRule type="expression" dxfId="3" priority="385">
+    <cfRule type="expression" dxfId="3" priority="395">
       <formula>AND(AA9&gt;0,AA9&lt;20)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="386" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="396" operator="greaterThan">
       <formula>Z9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
-    <cfRule type="cellIs" dxfId="4" priority="394" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="404" operator="lessThanOrEqual">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11">
-    <cfRule type="cellIs" dxfId="4" priority="400" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="410" operator="lessThanOrEqual">
       <formula>I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12">
-    <cfRule type="cellIs" dxfId="4" priority="406" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="416" operator="lessThanOrEqual">
       <formula>I12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB18">
-    <cfRule type="cellIs" dxfId="4" priority="411" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="421" operator="lessThanOrEqual">
       <formula>I18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB21">
-    <cfRule type="cellIs" dxfId="4" priority="417" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AB25">
+    <cfRule type="cellIs" dxfId="4" priority="427" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB26">
+    <cfRule type="cellIs" dxfId="4" priority="433" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB27">
+    <cfRule type="cellIs" dxfId="4" priority="438" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB30">
+    <cfRule type="cellIs" dxfId="4" priority="443" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB7">
+    <cfRule type="cellIs" dxfId="4" priority="392" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9">
+    <cfRule type="cellIs" dxfId="4" priority="398" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10">
+    <cfRule type="cellIs" dxfId="4" priority="403" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11">
+    <cfRule type="cellIs" dxfId="4" priority="409" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12">
+    <cfRule type="cellIs" dxfId="4" priority="415" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC18">
+    <cfRule type="cellIs" dxfId="4" priority="420" operator="lessThanOrEqual">
+      <formula>J18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC25">
+    <cfRule type="cellIs" dxfId="4" priority="426" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC26">
+    <cfRule type="cellIs" dxfId="4" priority="432" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC27">
+    <cfRule type="cellIs" dxfId="4" priority="437" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC30">
+    <cfRule type="cellIs" dxfId="4" priority="442" operator="lessThanOrEqual">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC7">
+    <cfRule type="cellIs" dxfId="4" priority="391" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9">
+    <cfRule type="cellIs" dxfId="4" priority="397" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE10">
+    <cfRule type="cellIs" dxfId="1" priority="459" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="460" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11">
+    <cfRule type="cellIs" dxfId="1" priority="464" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="465" operator="lessThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12">
+    <cfRule type="cellIs" dxfId="1" priority="469" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="470" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13">
+    <cfRule type="cellIs" dxfId="1" priority="474" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="475" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
+    <cfRule type="cellIs" dxfId="1" priority="479" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="480" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="cellIs" dxfId="1" priority="484" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="485" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE19">
+    <cfRule type="cellIs" dxfId="1" priority="489" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="490" operator="lessThan">
+      <formula>H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE20">
+    <cfRule type="cellIs" dxfId="1" priority="494" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="495" operator="lessThan">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE21">
+    <cfRule type="cellIs" dxfId="1" priority="499" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="500" operator="lessThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22">
+    <cfRule type="cellIs" dxfId="1" priority="504" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="505" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="1" priority="509" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="510" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="1" priority="514" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="515" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="1" priority="519" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="520" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="cellIs" dxfId="1" priority="524" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="525" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="1" priority="529" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="530" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="1" priority="534" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="535" operator="lessThan">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="1" priority="539" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="540" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="cellIs" dxfId="1" priority="544" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="545" operator="lessThan">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="1" priority="549" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="550" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="cellIs" dxfId="1" priority="554" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="555" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
+    <cfRule type="cellIs" dxfId="1" priority="559" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="560" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="cellIs" dxfId="1" priority="444" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="445" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="cellIs" dxfId="1" priority="449" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="450" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule type="cellIs" dxfId="1" priority="454" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="455" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="cellIs" dxfId="1" priority="461" operator="greaterThan">
+      <formula>AE10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11">
+    <cfRule type="cellIs" dxfId="1" priority="466" operator="greaterThan">
+      <formula>AE11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12">
+    <cfRule type="cellIs" dxfId="1" priority="471" operator="greaterThan">
+      <formula>AE12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13">
+    <cfRule type="cellIs" dxfId="1" priority="476" operator="greaterThan">
+      <formula>AE13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="cellIs" dxfId="1" priority="481" operator="greaterThan">
+      <formula>AE14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="cellIs" dxfId="1" priority="486" operator="greaterThan">
+      <formula>AE15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF19">
+    <cfRule type="cellIs" dxfId="1" priority="491" operator="greaterThan">
+      <formula>AE19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF20">
+    <cfRule type="cellIs" dxfId="1" priority="496" operator="greaterThan">
+      <formula>AE20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF21">
+    <cfRule type="cellIs" dxfId="1" priority="501" operator="greaterThan">
+      <formula>AE21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF22">
+    <cfRule type="cellIs" dxfId="1" priority="506" operator="greaterThan">
+      <formula>AE22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF23">
+    <cfRule type="cellIs" dxfId="1" priority="511" operator="greaterThan">
+      <formula>AE23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="cellIs" dxfId="1" priority="516" operator="greaterThan">
+      <formula>AE24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="cellIs" dxfId="1" priority="521" operator="greaterThan">
+      <formula>AE25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="cellIs" dxfId="1" priority="526" operator="greaterThan">
+      <formula>AE26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF27">
+    <cfRule type="cellIs" dxfId="1" priority="531" operator="greaterThan">
+      <formula>AE27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF28">
+    <cfRule type="cellIs" dxfId="1" priority="536" operator="greaterThan">
+      <formula>AE28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF29">
+    <cfRule type="cellIs" dxfId="1" priority="541" operator="greaterThan">
+      <formula>AE29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30">
+    <cfRule type="cellIs" dxfId="1" priority="546" operator="greaterThan">
+      <formula>AE30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31">
+    <cfRule type="cellIs" dxfId="1" priority="551" operator="greaterThan">
+      <formula>AE31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF32">
+    <cfRule type="cellIs" dxfId="1" priority="556" operator="greaterThan">
+      <formula>AE32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="cellIs" dxfId="1" priority="561" operator="greaterThan">
+      <formula>AE35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7">
+    <cfRule type="cellIs" dxfId="1" priority="446" operator="greaterThan">
+      <formula>AE7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="cellIs" dxfId="1" priority="451" operator="greaterThan">
+      <formula>AE8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule type="cellIs" dxfId="1" priority="456" operator="greaterThan">
+      <formula>AE9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="4" priority="463" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG11">
+    <cfRule type="cellIs" dxfId="4" priority="468" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="4" priority="473" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="4" priority="478" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14">
+    <cfRule type="cellIs" dxfId="4" priority="483" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15">
+    <cfRule type="cellIs" dxfId="4" priority="488" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG19">
+    <cfRule type="cellIs" dxfId="4" priority="493" operator="lessThanOrEqual">
+      <formula>I19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG20">
+    <cfRule type="cellIs" dxfId="4" priority="498" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG21">
+    <cfRule type="cellIs" dxfId="4" priority="503" operator="lessThanOrEqual">
       <formula>I21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB25">
-    <cfRule type="cellIs" dxfId="4" priority="423" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG22">
+    <cfRule type="cellIs" dxfId="4" priority="508" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="cellIs" dxfId="4" priority="513" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="4" priority="518" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="cellIs" dxfId="4" priority="523" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB26">
-    <cfRule type="cellIs" dxfId="4" priority="429" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG26">
+    <cfRule type="cellIs" dxfId="4" priority="528" operator="lessThanOrEqual">
       <formula>I26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB27">
-    <cfRule type="cellIs" dxfId="4" priority="434" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG27">
+    <cfRule type="cellIs" dxfId="4" priority="533" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB30">
-    <cfRule type="cellIs" dxfId="4" priority="439" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="cellIs" dxfId="4" priority="538" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG29">
+    <cfRule type="cellIs" dxfId="4" priority="543" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG30">
+    <cfRule type="cellIs" dxfId="4" priority="548" operator="lessThanOrEqual">
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB32">
-    <cfRule type="cellIs" dxfId="4" priority="444" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG31">
+    <cfRule type="cellIs" dxfId="4" priority="553" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG32">
+    <cfRule type="cellIs" dxfId="4" priority="558" operator="lessThanOrEqual">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7">
-    <cfRule type="cellIs" dxfId="4" priority="382" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG35">
+    <cfRule type="cellIs" dxfId="4" priority="563" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="cellIs" dxfId="4" priority="448" operator="lessThanOrEqual">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB9">
-    <cfRule type="cellIs" dxfId="4" priority="388" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="4" priority="453" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="4" priority="458" operator="lessThanOrEqual">
       <formula>I9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC10">
-    <cfRule type="cellIs" dxfId="4" priority="393" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH10">
+    <cfRule type="cellIs" dxfId="4" priority="462" operator="lessThanOrEqual">
       <formula>J10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC11">
-    <cfRule type="cellIs" dxfId="4" priority="399" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="cellIs" dxfId="4" priority="467" operator="lessThanOrEqual">
       <formula>J11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
-    <cfRule type="cellIs" dxfId="4" priority="405" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="cellIs" dxfId="4" priority="472" operator="lessThanOrEqual">
       <formula>J12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC18">
-    <cfRule type="cellIs" dxfId="4" priority="410" operator="lessThanOrEqual">
-      <formula>J18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC21">
-    <cfRule type="cellIs" dxfId="4" priority="416" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="cellIs" dxfId="4" priority="477" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14">
+    <cfRule type="cellIs" dxfId="4" priority="482" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="cellIs" dxfId="4" priority="487" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="cellIs" dxfId="4" priority="492" operator="lessThanOrEqual">
+      <formula>J19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="cellIs" dxfId="4" priority="497" operator="lessThanOrEqual">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="cellIs" dxfId="4" priority="502" operator="lessThanOrEqual">
       <formula>J21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC25">
-    <cfRule type="cellIs" dxfId="4" priority="422" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH22">
+    <cfRule type="cellIs" dxfId="4" priority="507" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="cellIs" dxfId="4" priority="512" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24">
+    <cfRule type="cellIs" dxfId="4" priority="517" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="cellIs" dxfId="4" priority="522" operator="lessThanOrEqual">
       <formula>J25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC26">
-    <cfRule type="cellIs" dxfId="4" priority="428" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH26">
+    <cfRule type="cellIs" dxfId="4" priority="527" operator="lessThanOrEqual">
       <formula>J26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC27">
-    <cfRule type="cellIs" dxfId="4" priority="433" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="cellIs" dxfId="4" priority="532" operator="lessThanOrEqual">
       <formula>J27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC30">
-    <cfRule type="cellIs" dxfId="4" priority="438" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH28">
+    <cfRule type="cellIs" dxfId="4" priority="537" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="cellIs" dxfId="4" priority="542" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH30">
+    <cfRule type="cellIs" dxfId="4" priority="547" operator="lessThanOrEqual">
       <formula>J30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC32">
-    <cfRule type="cellIs" dxfId="4" priority="443" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="cellIs" dxfId="4" priority="552" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32">
+    <cfRule type="cellIs" dxfId="4" priority="557" operator="lessThanOrEqual">
       <formula>J32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC7">
-    <cfRule type="cellIs" dxfId="4" priority="381" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="cellIs" dxfId="4" priority="562" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="cellIs" dxfId="4" priority="447" operator="lessThanOrEqual">
       <formula>J7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="4" priority="387" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH8">
+    <cfRule type="cellIs" dxfId="4" priority="452" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="cellIs" dxfId="4" priority="457" operator="lessThanOrEqual">
       <formula>J9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE10">
-    <cfRule type="cellIs" dxfId="1" priority="460" operator="equal">
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="1" priority="582" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="461" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="583" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE11">
-    <cfRule type="cellIs" dxfId="1" priority="465" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="466" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE12">
-    <cfRule type="cellIs" dxfId="1" priority="470" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="471" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE13">
-    <cfRule type="cellIs" dxfId="1" priority="475" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="476" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE14">
-    <cfRule type="cellIs" dxfId="1" priority="480" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="481" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="1" priority="485" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="486" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE19">
-    <cfRule type="cellIs" dxfId="1" priority="490" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="491" operator="lessThan">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE20">
-    <cfRule type="cellIs" dxfId="1" priority="495" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="496" operator="lessThan">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
-    <cfRule type="cellIs" dxfId="1" priority="500" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="501" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE22">
-    <cfRule type="cellIs" dxfId="1" priority="505" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="506" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="1" priority="510" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="511" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="1" priority="515" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="516" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="1" priority="520" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="521" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
-    <cfRule type="cellIs" dxfId="1" priority="525" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="526" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
-    <cfRule type="cellIs" dxfId="1" priority="530" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="531" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="1" priority="535" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="536" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
-    <cfRule type="cellIs" dxfId="1" priority="540" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="541" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
-    <cfRule type="cellIs" dxfId="1" priority="545" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="546" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="1" priority="550" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="551" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
-    <cfRule type="cellIs" dxfId="1" priority="555" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="556" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
-    <cfRule type="cellIs" dxfId="1" priority="560" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="561" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
-    <cfRule type="cellIs" dxfId="1" priority="565" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="566" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" dxfId="1" priority="445" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="446" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE8">
-    <cfRule type="cellIs" dxfId="1" priority="450" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="451" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE9">
-    <cfRule type="cellIs" dxfId="1" priority="455" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="456" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF10">
-    <cfRule type="cellIs" dxfId="1" priority="462" operator="greaterThan">
-      <formula>AE10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11">
-    <cfRule type="cellIs" dxfId="1" priority="467" operator="greaterThan">
-      <formula>AE11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF12">
-    <cfRule type="cellIs" dxfId="1" priority="472" operator="greaterThan">
-      <formula>AE12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13">
-    <cfRule type="cellIs" dxfId="1" priority="477" operator="greaterThan">
-      <formula>AE13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="cellIs" dxfId="1" priority="482" operator="greaterThan">
-      <formula>AE14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="1" priority="487" operator="greaterThan">
-      <formula>AE15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF19">
-    <cfRule type="cellIs" dxfId="1" priority="492" operator="greaterThan">
-      <formula>AE19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF20">
-    <cfRule type="cellIs" dxfId="1" priority="497" operator="greaterThan">
-      <formula>AE20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" dxfId="1" priority="502" operator="greaterThan">
-      <formula>AE21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF22">
-    <cfRule type="cellIs" dxfId="1" priority="507" operator="greaterThan">
-      <formula>AE22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF23">
-    <cfRule type="cellIs" dxfId="1" priority="512" operator="greaterThan">
-      <formula>AE23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
-    <cfRule type="cellIs" dxfId="1" priority="517" operator="greaterThan">
-      <formula>AE24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="1" priority="522" operator="greaterThan">
-      <formula>AE25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
-    <cfRule type="cellIs" dxfId="1" priority="527" operator="greaterThan">
-      <formula>AE26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="cellIs" dxfId="1" priority="532" operator="greaterThan">
-      <formula>AE27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
-    <cfRule type="cellIs" dxfId="1" priority="537" operator="greaterThan">
-      <formula>AE28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
-    <cfRule type="cellIs" dxfId="1" priority="542" operator="greaterThan">
-      <formula>AE29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
-    <cfRule type="cellIs" dxfId="1" priority="547" operator="greaterThan">
-      <formula>AE30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
-    <cfRule type="cellIs" dxfId="1" priority="552" operator="greaterThan">
-      <formula>AE31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF32">
-    <cfRule type="cellIs" dxfId="1" priority="557" operator="greaterThan">
-      <formula>AE32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF35">
-    <cfRule type="cellIs" dxfId="1" priority="562" operator="greaterThan">
-      <formula>AE35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
-    <cfRule type="cellIs" dxfId="1" priority="567" operator="greaterThan">
-      <formula>AE36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7">
-    <cfRule type="cellIs" dxfId="1" priority="447" operator="greaterThan">
-      <formula>AE7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" dxfId="1" priority="452" operator="greaterThan">
-      <formula>AE8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9">
-    <cfRule type="cellIs" dxfId="1" priority="457" operator="greaterThan">
-      <formula>AE9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
-    <cfRule type="cellIs" dxfId="4" priority="464" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG11">
-    <cfRule type="cellIs" dxfId="4" priority="469" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG12">
-    <cfRule type="cellIs" dxfId="4" priority="474" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG13">
-    <cfRule type="cellIs" dxfId="4" priority="479" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG14">
-    <cfRule type="cellIs" dxfId="4" priority="484" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="4" priority="489" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="cellIs" dxfId="4" priority="494" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="cellIs" dxfId="4" priority="499" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="cellIs" dxfId="4" priority="504" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG22">
-    <cfRule type="cellIs" dxfId="4" priority="509" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG23">
-    <cfRule type="cellIs" dxfId="4" priority="514" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
-    <cfRule type="cellIs" dxfId="4" priority="519" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
-    <cfRule type="cellIs" dxfId="4" priority="524" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG26">
-    <cfRule type="cellIs" dxfId="4" priority="529" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
-    <cfRule type="cellIs" dxfId="4" priority="534" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG28">
-    <cfRule type="cellIs" dxfId="4" priority="539" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG29">
-    <cfRule type="cellIs" dxfId="4" priority="544" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
-    <cfRule type="cellIs" dxfId="4" priority="549" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
-    <cfRule type="cellIs" dxfId="4" priority="554" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG32">
-    <cfRule type="cellIs" dxfId="4" priority="559" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG35">
-    <cfRule type="cellIs" dxfId="4" priority="564" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36">
-    <cfRule type="cellIs" dxfId="4" priority="569" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
-    <cfRule type="cellIs" dxfId="4" priority="449" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="4" priority="454" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG9">
-    <cfRule type="cellIs" dxfId="4" priority="459" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10">
-    <cfRule type="cellIs" dxfId="4" priority="463" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="4" priority="468" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12">
-    <cfRule type="cellIs" dxfId="4" priority="473" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH13">
-    <cfRule type="cellIs" dxfId="4" priority="478" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
-    <cfRule type="cellIs" dxfId="4" priority="483" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="4" priority="488" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="cellIs" dxfId="4" priority="493" operator="lessThanOrEqual">
-      <formula>J19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="cellIs" dxfId="4" priority="498" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH21">
-    <cfRule type="cellIs" dxfId="4" priority="503" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
-    <cfRule type="cellIs" dxfId="4" priority="508" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="4" priority="513" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24">
-    <cfRule type="cellIs" dxfId="4" priority="518" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH25">
-    <cfRule type="cellIs" dxfId="4" priority="523" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH26">
-    <cfRule type="cellIs" dxfId="4" priority="528" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH27">
-    <cfRule type="cellIs" dxfId="4" priority="533" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH28">
-    <cfRule type="cellIs" dxfId="4" priority="538" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH29">
-    <cfRule type="cellIs" dxfId="4" priority="543" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH30">
-    <cfRule type="cellIs" dxfId="4" priority="548" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31">
-    <cfRule type="cellIs" dxfId="4" priority="553" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32">
-    <cfRule type="cellIs" dxfId="4" priority="558" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH35">
-    <cfRule type="cellIs" dxfId="4" priority="563" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="cellIs" dxfId="4" priority="568" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="cellIs" dxfId="4" priority="448" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH8">
-    <cfRule type="cellIs" dxfId="4" priority="453" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH9">
-    <cfRule type="cellIs" dxfId="4" priority="458" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ10">
+  <conditionalFormatting sqref="AJ11">
     <cfRule type="cellIs" dxfId="1" priority="588" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="589" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ11">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ12">
     <cfRule type="cellIs" dxfId="1" priority="594" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="595" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ12">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13">
     <cfRule type="cellIs" dxfId="1" priority="600" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="601" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ14">
     <cfRule type="cellIs" dxfId="1" priority="606" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="607" operator="lessThan">
-      <formula>H13</formula>
+      <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ15">
-    <cfRule type="cellIs" dxfId="1" priority="612" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="611" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="613" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="612" operator="lessThan">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20">
-    <cfRule type="cellIs" dxfId="1" priority="617" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="616" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="618" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="617" operator="lessThan">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ21">
-    <cfRule type="cellIs" dxfId="1" priority="623" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="622" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="624" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="623" operator="lessThan">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="cellIs" dxfId="1" priority="628" operator="equal">
+  <conditionalFormatting sqref="AJ22">
+    <cfRule type="cellIs" dxfId="1" priority="627" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="629" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ29">
+    <cfRule type="cellIs" dxfId="2" priority="628" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ26">
     <cfRule type="cellIs" dxfId="1" priority="633" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="634" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ27">
     <cfRule type="cellIs" dxfId="1" priority="639" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="640" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ32">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ28">
     <cfRule type="cellIs" dxfId="1" priority="644" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="645" operator="lessThan">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ29">
+    <cfRule type="cellIs" dxfId="1" priority="650" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="651" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31">
+    <cfRule type="cellIs" dxfId="1" priority="656" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="657" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ32">
+    <cfRule type="cellIs" dxfId="1" priority="661" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="662" operator="lessThan">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AJ36">
+    <cfRule type="cellIs" dxfId="1" priority="666" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="667" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AJ7">
+    <cfRule type="cellIs" dxfId="1" priority="564" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="565" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8">
     <cfRule type="cellIs" dxfId="1" priority="570" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="571" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9">
     <cfRule type="cellIs" dxfId="1" priority="576" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="577" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9">
-    <cfRule type="cellIs" dxfId="1" priority="582" operator="equal">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10">
+    <cfRule type="expression" dxfId="3" priority="584">
+      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="585" operator="greaterThan">
+      <formula>AJ10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11">
+    <cfRule type="expression" dxfId="3" priority="590">
+      <formula>AND(AK11&gt;0,AK11&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="591" operator="greaterThan">
+      <formula>AJ11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK12">
+    <cfRule type="expression" dxfId="3" priority="596">
+      <formula>AND(AK12&gt;0,AK12&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="597" operator="greaterThan">
+      <formula>AJ12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="expression" dxfId="3" priority="602">
+      <formula>AND(AK13&gt;0,AK13&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="603" operator="greaterThan">
+      <formula>AJ13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="cellIs" dxfId="1" priority="608" operator="greaterThan">
+      <formula>AJ14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15">
+    <cfRule type="cellIs" dxfId="1" priority="613" operator="greaterThan">
+      <formula>AJ15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK20">
+    <cfRule type="expression" dxfId="3" priority="618">
+      <formula>AND(AK20&gt;0,AK20&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="619" operator="greaterThan">
+      <formula>AJ20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK21">
+    <cfRule type="cellIs" dxfId="1" priority="624" operator="greaterThan">
+      <formula>AJ21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK22">
+    <cfRule type="expression" dxfId="3" priority="629">
+      <formula>AND(AK22&gt;0,AK22&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="630" operator="greaterThan">
+      <formula>AJ22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK26">
+    <cfRule type="expression" dxfId="3" priority="635">
+      <formula>AND(AK26&gt;0,AK26&lt;45000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="636" operator="greaterThan">
+      <formula>AJ26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK27">
+    <cfRule type="cellIs" dxfId="1" priority="641" operator="greaterThan">
+      <formula>AJ27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK28">
+    <cfRule type="expression" dxfId="3" priority="646">
+      <formula>AND(AK28&gt;0,AK28&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="647" operator="greaterThan">
+      <formula>AJ28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK29">
+    <cfRule type="expression" dxfId="3" priority="652">
+      <formula>AND(AK29&gt;0,AK29&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="653" operator="greaterThan">
+      <formula>AJ29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK31">
+    <cfRule type="cellIs" dxfId="1" priority="658" operator="greaterThan">
+      <formula>AJ31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK32">
+    <cfRule type="cellIs" dxfId="1" priority="663" operator="greaterThan">
+      <formula>AJ32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK36">
+    <cfRule type="expression" dxfId="3" priority="668">
+      <formula>AND(AK36&gt;0,AK36&lt;3000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="669" operator="greaterThan">
+      <formula>AJ36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK7">
+    <cfRule type="expression" dxfId="3" priority="566">
+      <formula>AND(AK7&gt;0,AK7&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="567" operator="greaterThan">
+      <formula>AJ7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="expression" dxfId="3" priority="572">
+      <formula>AND(AK8&gt;0,AK8&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="573" operator="greaterThan">
+      <formula>AJ8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK9">
+    <cfRule type="expression" dxfId="3" priority="578">
+      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="579" operator="greaterThan">
+      <formula>AJ9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="cellIs" dxfId="4" priority="587" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL11">
+    <cfRule type="cellIs" dxfId="4" priority="593" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL12">
+    <cfRule type="cellIs" dxfId="4" priority="599" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL13">
+    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14">
+    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL20">
+    <cfRule type="cellIs" dxfId="4" priority="621" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL21">
+    <cfRule type="cellIs" dxfId="4" priority="626" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL22">
+    <cfRule type="cellIs" dxfId="4" priority="632" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL26">
+    <cfRule type="cellIs" dxfId="4" priority="638" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL27">
+    <cfRule type="cellIs" dxfId="4" priority="643" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL28">
+    <cfRule type="cellIs" dxfId="4" priority="649" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL29">
+    <cfRule type="cellIs" dxfId="4" priority="655" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL31">
+    <cfRule type="cellIs" dxfId="4" priority="660" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL32">
+    <cfRule type="cellIs" dxfId="4" priority="665" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL36">
+    <cfRule type="cellIs" dxfId="4" priority="671" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL7">
+    <cfRule type="cellIs" dxfId="4" priority="569" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL8">
+    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL9">
+    <cfRule type="cellIs" dxfId="4" priority="581" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="cellIs" dxfId="4" priority="586" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM11">
+    <cfRule type="cellIs" dxfId="4" priority="592" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12">
+    <cfRule type="cellIs" dxfId="4" priority="598" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM13">
+    <cfRule type="cellIs" dxfId="4" priority="604" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14">
+    <cfRule type="cellIs" dxfId="4" priority="609" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM15">
+    <cfRule type="cellIs" dxfId="4" priority="614" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM20">
+    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM21">
+    <cfRule type="cellIs" dxfId="4" priority="625" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM22">
+    <cfRule type="cellIs" dxfId="4" priority="631" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM26">
+    <cfRule type="cellIs" dxfId="4" priority="637" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM27">
+    <cfRule type="cellIs" dxfId="4" priority="642" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM28">
+    <cfRule type="cellIs" dxfId="4" priority="648" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM29">
+    <cfRule type="cellIs" dxfId="4" priority="654" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM31">
+    <cfRule type="cellIs" dxfId="4" priority="659" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM32">
+    <cfRule type="cellIs" dxfId="4" priority="664" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM36">
+    <cfRule type="cellIs" dxfId="4" priority="670" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM7">
+    <cfRule type="cellIs" dxfId="4" priority="568" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8">
+    <cfRule type="cellIs" dxfId="4" priority="574" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM9">
+    <cfRule type="cellIs" dxfId="4" priority="580" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO12">
+    <cfRule type="cellIs" dxfId="1" priority="672" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="583" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK10">
-    <cfRule type="expression" dxfId="3" priority="590">
-      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="591" operator="greaterThan">
-      <formula>AJ10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK11">
-    <cfRule type="expression" dxfId="3" priority="596">
-      <formula>AND(AK11&gt;0,AK11&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="597" operator="greaterThan">
-      <formula>AJ11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK12">
-    <cfRule type="expression" dxfId="3" priority="602">
-      <formula>AND(AK12&gt;0,AK12&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="603" operator="greaterThan">
-      <formula>AJ12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13">
-    <cfRule type="expression" dxfId="3" priority="608">
-      <formula>AND(AK13&gt;0,AK13&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="609" operator="greaterThan">
-      <formula>AJ13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK15">
-    <cfRule type="cellIs" dxfId="1" priority="614" operator="greaterThan">
-      <formula>AJ15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK20">
-    <cfRule type="expression" dxfId="3" priority="619">
-      <formula>AND(AK20&gt;0,AK20&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="620" operator="greaterThan">
-      <formula>AJ20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK21">
-    <cfRule type="cellIs" dxfId="1" priority="625" operator="greaterThan">
-      <formula>AJ21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK27">
-    <cfRule type="cellIs" dxfId="1" priority="630" operator="greaterThan">
-      <formula>AJ27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK29">
-    <cfRule type="expression" dxfId="3" priority="635">
-      <formula>AND(AK29&gt;0,AK29&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="636" operator="greaterThan">
-      <formula>AJ29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK31">
-    <cfRule type="cellIs" dxfId="1" priority="641" operator="greaterThan">
-      <formula>AJ31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK32">
-    <cfRule type="expression" dxfId="3" priority="646">
-      <formula>AND(AK32&gt;0,AK32&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="647" operator="greaterThan">
-      <formula>AJ32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7">
-    <cfRule type="expression" dxfId="3" priority="572">
-      <formula>AND(AK7&gt;0,AK7&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="573" operator="greaterThan">
-      <formula>AJ7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8">
-    <cfRule type="expression" dxfId="3" priority="578">
-      <formula>AND(AK8&gt;0,AK8&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="579" operator="greaterThan">
-      <formula>AJ8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK9">
-    <cfRule type="expression" dxfId="3" priority="584">
-      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="585" operator="greaterThan">
-      <formula>AJ9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL10">
-    <cfRule type="cellIs" dxfId="4" priority="593" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL11">
-    <cfRule type="cellIs" dxfId="4" priority="599" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL12">
-    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="673" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO20">
+    <cfRule type="cellIs" dxfId="1" priority="678" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="679" operator="lessThan">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO21">
+    <cfRule type="cellIs" dxfId="1" priority="684" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="685" operator="lessThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO23">
+    <cfRule type="cellIs" dxfId="1" priority="690" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="691" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO25">
+    <cfRule type="cellIs" dxfId="1" priority="696" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="697" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO26">
+    <cfRule type="cellIs" dxfId="1" priority="702" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="703" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO28">
+    <cfRule type="cellIs" dxfId="1" priority="708" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="709" operator="lessThan">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO29">
+    <cfRule type="cellIs" dxfId="1" priority="714" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="715" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO32">
+    <cfRule type="cellIs" dxfId="1" priority="720" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="721" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP12">
+    <cfRule type="expression" dxfId="3" priority="674">
+      <formula>AND(AP12&gt;0,AP12&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="675" operator="greaterThan">
+      <formula>AO12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP20">
+    <cfRule type="expression" dxfId="3" priority="680">
+      <formula>AND(AP20&gt;0,AP20&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="681" operator="greaterThan">
+      <formula>AO20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP21">
+    <cfRule type="expression" dxfId="3" priority="686">
+      <formula>AND(AP21&gt;0,AP21&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="687" operator="greaterThan">
+      <formula>AO21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP23">
+    <cfRule type="expression" dxfId="3" priority="692">
+      <formula>AND(AP23&gt;0,AP23&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="693" operator="greaterThan">
+      <formula>AO23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25">
+    <cfRule type="expression" dxfId="3" priority="698">
+      <formula>AND(AP25&gt;0,AP25&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="699" operator="greaterThan">
+      <formula>AO25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP26">
+    <cfRule type="expression" dxfId="3" priority="704">
+      <formula>AND(AP26&gt;0,AP26&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="705" operator="greaterThan">
+      <formula>AO26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP28">
+    <cfRule type="expression" dxfId="3" priority="710">
+      <formula>AND(AP28&gt;0,AP28&lt;3000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="711" operator="greaterThan">
+      <formula>AO28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP29">
+    <cfRule type="expression" dxfId="3" priority="716">
+      <formula>AND(AP29&gt;0,AP29&lt;3000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="717" operator="greaterThan">
+      <formula>AO29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP32">
+    <cfRule type="expression" dxfId="3" priority="722">
+      <formula>AND(AP32&gt;0,AP32&lt;50)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="723" operator="greaterThan">
+      <formula>AO32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ12">
+    <cfRule type="cellIs" dxfId="4" priority="677" operator="lessThanOrEqual">
       <formula>I12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL13">
-    <cfRule type="cellIs" dxfId="4" priority="611" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL15">
-    <cfRule type="cellIs" dxfId="4" priority="616" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AQ20">
+    <cfRule type="cellIs" dxfId="4" priority="683" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ21">
+    <cfRule type="cellIs" dxfId="4" priority="689" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ23">
+    <cfRule type="cellIs" dxfId="4" priority="695" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="4" priority="701" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ26">
+    <cfRule type="cellIs" dxfId="4" priority="707" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ28">
+    <cfRule type="cellIs" dxfId="4" priority="713" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ29">
+    <cfRule type="cellIs" dxfId="4" priority="719" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ32">
+    <cfRule type="cellIs" dxfId="4" priority="725" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR12">
+    <cfRule type="cellIs" dxfId="4" priority="676" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR20">
+    <cfRule type="cellIs" dxfId="4" priority="682" operator="lessThanOrEqual">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR21">
+    <cfRule type="cellIs" dxfId="4" priority="688" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR23">
+    <cfRule type="cellIs" dxfId="4" priority="694" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR25">
+    <cfRule type="cellIs" dxfId="4" priority="700" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR26">
+    <cfRule type="cellIs" dxfId="4" priority="706" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR28">
+    <cfRule type="cellIs" dxfId="4" priority="712" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR29">
+    <cfRule type="cellIs" dxfId="4" priority="718" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR32">
+    <cfRule type="cellIs" dxfId="4" priority="724" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14">
+    <cfRule type="cellIs" dxfId="1" priority="726" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="727" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT15">
+    <cfRule type="cellIs" dxfId="1" priority="732" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="733" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT27">
+    <cfRule type="cellIs" dxfId="1" priority="738" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="739" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT32">
+    <cfRule type="cellIs" dxfId="1" priority="744" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="745" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU14">
+    <cfRule type="expression" dxfId="3" priority="728">
+      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="729" operator="greaterThan">
+      <formula>AT14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU15">
+    <cfRule type="expression" dxfId="3" priority="734">
+      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="735" operator="greaterThan">
+      <formula>AT15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU27">
+    <cfRule type="expression" dxfId="3" priority="740">
+      <formula>AND(AU27&gt;0,AU27&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="741" operator="greaterThan">
+      <formula>AT27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU32">
+    <cfRule type="expression" dxfId="3" priority="746">
+      <formula>AND(AU32&gt;0,AU32&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="747" operator="greaterThan">
+      <formula>AT32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV14">
+    <cfRule type="cellIs" dxfId="4" priority="731" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV15">
+    <cfRule type="cellIs" dxfId="4" priority="737" operator="lessThanOrEqual">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL20">
-    <cfRule type="cellIs" dxfId="4" priority="622" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL21">
-    <cfRule type="cellIs" dxfId="4" priority="627" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL27">
-    <cfRule type="cellIs" dxfId="4" priority="632" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV27">
+    <cfRule type="cellIs" dxfId="4" priority="743" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL29">
-    <cfRule type="cellIs" dxfId="4" priority="638" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL31">
-    <cfRule type="cellIs" dxfId="4" priority="643" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL32">
-    <cfRule type="cellIs" dxfId="4" priority="649" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV32">
+    <cfRule type="cellIs" dxfId="4" priority="749" operator="lessThanOrEqual">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL7">
-    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL8">
-    <cfRule type="cellIs" dxfId="4" priority="581" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL9">
-    <cfRule type="cellIs" dxfId="4" priority="587" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM10">
-    <cfRule type="cellIs" dxfId="4" priority="592" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM11">
-    <cfRule type="cellIs" dxfId="4" priority="598" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM12">
-    <cfRule type="cellIs" dxfId="4" priority="604" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM13">
-    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM15">
-    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW14">
+    <cfRule type="cellIs" dxfId="4" priority="730" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW15">
+    <cfRule type="cellIs" dxfId="4" priority="736" operator="lessThanOrEqual">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM20">
-    <cfRule type="cellIs" dxfId="4" priority="621" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM21">
-    <cfRule type="cellIs" dxfId="4" priority="626" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM27">
-    <cfRule type="cellIs" dxfId="4" priority="631" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW27">
+    <cfRule type="cellIs" dxfId="4" priority="742" operator="lessThanOrEqual">
       <formula>J27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM29">
-    <cfRule type="cellIs" dxfId="4" priority="637" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM31">
-    <cfRule type="cellIs" dxfId="4" priority="642" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM32">
-    <cfRule type="cellIs" dxfId="4" priority="648" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM7">
-    <cfRule type="cellIs" dxfId="4" priority="574" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM8">
-    <cfRule type="cellIs" dxfId="4" priority="580" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM9">
-    <cfRule type="cellIs" dxfId="4" priority="586" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO12">
-    <cfRule type="cellIs" dxfId="1" priority="650" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="651" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO20">
-    <cfRule type="cellIs" dxfId="1" priority="656" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="657" operator="lessThan">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO21">
-    <cfRule type="cellIs" dxfId="1" priority="662" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="663" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO22">
-    <cfRule type="cellIs" dxfId="1" priority="668" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="669" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO23">
-    <cfRule type="cellIs" dxfId="1" priority="674" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="675" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO25">
-    <cfRule type="cellIs" dxfId="1" priority="680" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="681" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO26">
-    <cfRule type="cellIs" dxfId="1" priority="686" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="687" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO29">
-    <cfRule type="cellIs" dxfId="1" priority="692" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="693" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO32">
-    <cfRule type="cellIs" dxfId="1" priority="698" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="699" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="3" priority="652">
-      <formula>AND(AP12&gt;0,AP12&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="653" operator="greaterThan">
-      <formula>AO12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP20">
-    <cfRule type="expression" dxfId="3" priority="658">
-      <formula>AND(AP20&gt;0,AP20&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="659" operator="greaterThan">
-      <formula>AO20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP21">
-    <cfRule type="expression" dxfId="3" priority="664">
-      <formula>AND(AP21&gt;0,AP21&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="665" operator="greaterThan">
-      <formula>AO21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP22">
-    <cfRule type="expression" dxfId="3" priority="670">
-      <formula>AND(AP22&gt;0,AP22&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="671" operator="greaterThan">
-      <formula>AO22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP23">
-    <cfRule type="expression" dxfId="3" priority="676">
-      <formula>AND(AP23&gt;0,AP23&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="677" operator="greaterThan">
-      <formula>AO23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP25">
-    <cfRule type="expression" dxfId="3" priority="682">
-      <formula>AND(AP25&gt;0,AP25&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="683" operator="greaterThan">
-      <formula>AO25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP26">
-    <cfRule type="expression" dxfId="3" priority="688">
-      <formula>AND(AP26&gt;0,AP26&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="689" operator="greaterThan">
-      <formula>AO26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP29">
-    <cfRule type="expression" dxfId="3" priority="694">
-      <formula>AND(AP29&gt;0,AP29&lt;18)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="695" operator="greaterThan">
-      <formula>AO29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP32">
-    <cfRule type="expression" dxfId="3" priority="700">
-      <formula>AND(AP32&gt;0,AP32&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="701" operator="greaterThan">
-      <formula>AO32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ12">
-    <cfRule type="cellIs" dxfId="4" priority="655" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ20">
-    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ21">
-    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ22">
-    <cfRule type="cellIs" dxfId="4" priority="673" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ23">
-    <cfRule type="cellIs" dxfId="4" priority="679" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
-    <cfRule type="cellIs" dxfId="4" priority="685" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ26">
-    <cfRule type="cellIs" dxfId="4" priority="691" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ29">
-    <cfRule type="cellIs" dxfId="4" priority="697" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ32">
-    <cfRule type="cellIs" dxfId="4" priority="703" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR12">
-    <cfRule type="cellIs" dxfId="4" priority="654" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR20">
-    <cfRule type="cellIs" dxfId="4" priority="660" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR21">
-    <cfRule type="cellIs" dxfId="4" priority="666" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR22">
-    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR23">
-    <cfRule type="cellIs" dxfId="4" priority="678" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
-    <cfRule type="cellIs" dxfId="4" priority="684" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR26">
-    <cfRule type="cellIs" dxfId="4" priority="690" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR29">
-    <cfRule type="cellIs" dxfId="4" priority="696" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR32">
-    <cfRule type="cellIs" dxfId="4" priority="702" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT14">
-    <cfRule type="cellIs" dxfId="1" priority="704" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="705" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT15">
-    <cfRule type="cellIs" dxfId="1" priority="710" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="711" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT27">
-    <cfRule type="cellIs" dxfId="1" priority="716" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="717" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT32">
-    <cfRule type="cellIs" dxfId="1" priority="722" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="723" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU14">
-    <cfRule type="expression" dxfId="3" priority="706">
-      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="707" operator="greaterThan">
-      <formula>AT14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU15">
-    <cfRule type="expression" dxfId="3" priority="712">
-      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="713" operator="greaterThan">
-      <formula>AT15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU27">
-    <cfRule type="expression" dxfId="3" priority="718">
-      <formula>AND(AU27&gt;0,AU27&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="719" operator="greaterThan">
-      <formula>AT27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU32">
-    <cfRule type="expression" dxfId="3" priority="724">
-      <formula>AND(AU32&gt;0,AU32&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="725" operator="greaterThan">
-      <formula>AT32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV14">
-    <cfRule type="cellIs" dxfId="4" priority="709" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV15">
-    <cfRule type="cellIs" dxfId="4" priority="715" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV27">
-    <cfRule type="cellIs" dxfId="4" priority="721" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV32">
-    <cfRule type="cellIs" dxfId="4" priority="727" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW14">
-    <cfRule type="cellIs" dxfId="4" priority="708" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW15">
-    <cfRule type="cellIs" dxfId="4" priority="714" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW27">
-    <cfRule type="cellIs" dxfId="4" priority="720" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AW32">
-    <cfRule type="cellIs" dxfId="4" priority="726" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="748" operator="lessThanOrEqual">
       <formula>J32</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11760,51 +11790,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="cellIs" dxfId="1" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="227" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="229" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="228" operator="lessThan">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="cellIs" dxfId="1" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="232" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="234" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="233" operator="lessThan">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="cellIs" dxfId="1" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="238" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="240" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="239" operator="lessThan">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32">
-    <cfRule type="cellIs" dxfId="1" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="243" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="245" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="244" operator="lessThan">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34">
-    <cfRule type="cellIs" dxfId="1" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="248" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="250" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="249" operator="lessThan">
       <formula>H34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35">
-    <cfRule type="cellIs" dxfId="1" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="253" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="255" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="254" operator="lessThan">
       <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36">
+    <cfRule type="cellIs" dxfId="1" priority="258" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="259" operator="lessThan">
+      <formula>H36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
@@ -11920,44 +11958,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="3" priority="224">
-      <formula>AND(Q28&gt;0,Q28&lt;3000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="225" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="224" operator="greaterThan">
       <formula>P28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="cellIs" dxfId="1" priority="230" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="229" operator="greaterThan">
       <formula>P29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="3" priority="235">
+    <cfRule type="expression" dxfId="3" priority="234">
       <formula>AND(Q30&gt;0,Q30&lt;2000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="236" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="235" operator="greaterThan">
       <formula>P30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31">
-    <cfRule type="cellIs" dxfId="1" priority="241" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="240" operator="greaterThan">
       <formula>P31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="cellIs" dxfId="1" priority="246" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="245" operator="greaterThan">
       <formula>P32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="cellIs" dxfId="1" priority="251" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="250" operator="greaterThan">
       <formula>P34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="cellIs" dxfId="1" priority="256" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="255" operator="greaterThan">
       <formula>P35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q36">
+    <cfRule type="cellIs" dxfId="1" priority="260" operator="greaterThan">
+      <formula>P36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
@@ -12061,38 +12101,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28">
-    <cfRule type="cellIs" dxfId="4" priority="227" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="226" operator="lessThanOrEqual">
       <formula>I28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" dxfId="4" priority="232" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="231" operator="lessThanOrEqual">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R30">
-    <cfRule type="cellIs" dxfId="4" priority="238" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="237" operator="lessThanOrEqual">
       <formula>I30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R31">
-    <cfRule type="cellIs" dxfId="4" priority="243" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="242" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32">
-    <cfRule type="cellIs" dxfId="4" priority="248" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="247" operator="lessThanOrEqual">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34">
-    <cfRule type="cellIs" dxfId="4" priority="253" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="252" operator="lessThanOrEqual">
       <formula>I34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R35">
-    <cfRule type="cellIs" dxfId="4" priority="258" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="257" operator="lessThanOrEqual">
       <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R36">
+    <cfRule type="cellIs" dxfId="4" priority="262" operator="lessThanOrEqual">
+      <formula>I36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
@@ -12196,38 +12241,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28">
-    <cfRule type="cellIs" dxfId="4" priority="226" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="225" operator="lessThanOrEqual">
       <formula>J28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29">
-    <cfRule type="cellIs" dxfId="4" priority="231" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="230" operator="lessThanOrEqual">
       <formula>J29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30">
-    <cfRule type="cellIs" dxfId="4" priority="237" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="236" operator="lessThanOrEqual">
       <formula>J30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S31">
-    <cfRule type="cellIs" dxfId="4" priority="242" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="241" operator="lessThanOrEqual">
       <formula>J31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32">
-    <cfRule type="cellIs" dxfId="4" priority="247" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="246" operator="lessThanOrEqual">
       <formula>J32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34">
-    <cfRule type="cellIs" dxfId="4" priority="252" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="251" operator="lessThanOrEqual">
       <formula>J34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S35">
-    <cfRule type="cellIs" dxfId="4" priority="257" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="256" operator="lessThanOrEqual">
       <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S36">
+    <cfRule type="cellIs" dxfId="4" priority="261" operator="lessThanOrEqual">
+      <formula>J36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
@@ -12246,612 +12296,622 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10">
-    <cfRule type="cellIs" dxfId="1" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="281" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="278" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="282" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="cellIs" dxfId="1" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="287" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="284" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="288" operator="lessThan">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U12">
-    <cfRule type="cellIs" dxfId="1" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="293" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="290" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="294" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U13">
+    <cfRule type="cellIs" dxfId="1" priority="299" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="300" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U14">
-    <cfRule type="cellIs" dxfId="1" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="305" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="296" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="306" operator="lessThan">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15">
-    <cfRule type="cellIs" dxfId="1" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="311" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="302" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="312" operator="lessThan">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U20">
-    <cfRule type="cellIs" dxfId="1" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="316" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="307" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="317" operator="lessThan">
       <formula>H20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21">
-    <cfRule type="cellIs" dxfId="1" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="322" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="313" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="323" operator="lessThan">
       <formula>H21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22">
-    <cfRule type="cellIs" dxfId="1" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="328" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="319" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="329" operator="lessThan">
       <formula>H22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U23">
-    <cfRule type="cellIs" dxfId="1" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="334" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="325" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="335" operator="lessThan">
       <formula>H23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U24">
-    <cfRule type="cellIs" dxfId="1" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="340" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="331" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="341" operator="lessThan">
       <formula>H24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="cellIs" dxfId="1" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="346" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="337" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="347" operator="lessThan">
       <formula>H25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="cellIs" dxfId="1" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="352" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="343" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="353" operator="lessThan">
       <formula>H26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="cellIs" dxfId="1" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="358" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="349" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="359" operator="lessThan">
       <formula>H27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="cellIs" dxfId="1" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="364" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="355" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="365" operator="lessThan">
       <formula>H28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29">
-    <cfRule type="cellIs" dxfId="1" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="370" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="361" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="371" operator="lessThan">
       <formula>H29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31">
-    <cfRule type="cellIs" dxfId="1" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="376" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="367" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="377" operator="lessThan">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U32">
-    <cfRule type="cellIs" dxfId="1" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="381" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="372" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="382" operator="lessThan">
       <formula>H32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" dxfId="1" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="263" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="260" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="264" operator="lessThan">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="cellIs" dxfId="1" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="269" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="266" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="270" operator="lessThan">
       <formula>H8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9">
-    <cfRule type="cellIs" dxfId="1" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="275" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="272" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="276" operator="lessThan">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="3" priority="279">
+    <cfRule type="expression" dxfId="3" priority="283">
       <formula>AND(V10&gt;0,V10&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="280" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="284" operator="greaterThan">
       <formula>U10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="expression" dxfId="3" priority="285">
+    <cfRule type="expression" dxfId="3" priority="289">
       <formula>AND(V11&gt;0,V11&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="286" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="290" operator="greaterThan">
       <formula>U11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="3" priority="291">
+    <cfRule type="expression" dxfId="3" priority="295">
       <formula>AND(V12&gt;0,V12&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="292" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="296" operator="greaterThan">
       <formula>U12</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="V13">
+    <cfRule type="expression" dxfId="3" priority="301">
+      <formula>AND(V13&gt;0,V13&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="302" operator="greaterThan">
+      <formula>U13</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="expression" dxfId="3" priority="297">
+    <cfRule type="expression" dxfId="3" priority="307">
       <formula>AND(V14&gt;0,V14&lt;4000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="298" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="308" operator="greaterThan">
       <formula>U14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="1" priority="303" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="313" operator="greaterThan">
       <formula>U15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="expression" dxfId="3" priority="308">
+    <cfRule type="expression" dxfId="3" priority="318">
       <formula>AND(V20&gt;0,V20&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="309" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="319" operator="greaterThan">
       <formula>U20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="expression" dxfId="3" priority="314">
+    <cfRule type="expression" dxfId="3" priority="324">
       <formula>AND(V21&gt;0,V21&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="315" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="325" operator="greaterThan">
       <formula>U21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V22">
-    <cfRule type="expression" dxfId="3" priority="320">
+    <cfRule type="expression" dxfId="3" priority="330">
       <formula>AND(V22&gt;0,V22&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="321" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="331" operator="greaterThan">
       <formula>U22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="expression" dxfId="3" priority="326">
+    <cfRule type="expression" dxfId="3" priority="336">
       <formula>AND(V23&gt;0,V23&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="327" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="337" operator="greaterThan">
       <formula>U23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="expression" dxfId="3" priority="332">
+    <cfRule type="expression" dxfId="3" priority="342">
       <formula>AND(V24&gt;0,V24&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="333" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="343" operator="greaterThan">
       <formula>U24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25">
-    <cfRule type="expression" dxfId="3" priority="338">
+    <cfRule type="expression" dxfId="3" priority="348">
       <formula>AND(V25&gt;0,V25&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="339" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="349" operator="greaterThan">
       <formula>U25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V26">
-    <cfRule type="expression" dxfId="3" priority="344">
+    <cfRule type="expression" dxfId="3" priority="354">
       <formula>AND(V26&gt;0,V26&lt;30000)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="345" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="355" operator="greaterThan">
       <formula>U26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V27">
-    <cfRule type="expression" dxfId="3" priority="350">
+    <cfRule type="expression" dxfId="3" priority="360">
       <formula>AND(V27&gt;0,V27&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="351" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="361" operator="greaterThan">
       <formula>U27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V28">
-    <cfRule type="expression" dxfId="3" priority="356">
-      <formula>AND(V28&gt;0,V28&lt;3000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="357" operator="greaterThan">
+    <cfRule type="expression" dxfId="3" priority="366">
+      <formula>AND(V28&gt;0,V28&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="367" operator="greaterThan">
       <formula>U28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29">
-    <cfRule type="expression" dxfId="3" priority="362">
+    <cfRule type="expression" dxfId="3" priority="372">
       <formula>AND(V29&gt;0,V29&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="363" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="373" operator="greaterThan">
       <formula>U29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V31">
-    <cfRule type="cellIs" dxfId="1" priority="368" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="378" operator="greaterThan">
       <formula>U31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V32">
-    <cfRule type="expression" dxfId="3" priority="373">
+    <cfRule type="expression" dxfId="3" priority="383">
       <formula>AND(V32&gt;0,V32&lt;5)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="374" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="384" operator="greaterThan">
       <formula>U32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="expression" dxfId="3" priority="261">
+    <cfRule type="expression" dxfId="3" priority="265">
       <formula>AND(V7&gt;0,V7&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="262" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="266" operator="greaterThan">
       <formula>U7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="expression" dxfId="3" priority="267">
+    <cfRule type="expression" dxfId="3" priority="271">
       <formula>AND(V8&gt;0,V8&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="268" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="272" operator="greaterThan">
       <formula>U8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V9">
-    <cfRule type="expression" dxfId="3" priority="273">
+    <cfRule type="expression" dxfId="3" priority="277">
       <formula>AND(V9&gt;0,V9&lt;10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="274" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="278" operator="greaterThan">
       <formula>U9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="cellIs" dxfId="4" priority="282" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="286" operator="lessThanOrEqual">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="cellIs" dxfId="4" priority="288" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="292" operator="lessThanOrEqual">
       <formula>I11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="cellIs" dxfId="4" priority="294" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="298" operator="lessThanOrEqual">
       <formula>I12</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="W13">
+    <cfRule type="cellIs" dxfId="4" priority="304" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W14">
-    <cfRule type="cellIs" dxfId="4" priority="300" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="310" operator="lessThanOrEqual">
       <formula>I14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="4" priority="305" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="315" operator="lessThanOrEqual">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20">
-    <cfRule type="cellIs" dxfId="4" priority="311" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="321" operator="lessThanOrEqual">
       <formula>I20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="4" priority="317" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="327" operator="lessThanOrEqual">
       <formula>I21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22">
-    <cfRule type="cellIs" dxfId="4" priority="323" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="333" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="4" priority="329" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="339" operator="lessThanOrEqual">
       <formula>I23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="4" priority="335" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="345" operator="lessThanOrEqual">
       <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="4" priority="341" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="351" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="4" priority="347" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="357" operator="lessThanOrEqual">
       <formula>I26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27">
-    <cfRule type="cellIs" dxfId="4" priority="353" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="363" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28">
-    <cfRule type="cellIs" dxfId="4" priority="359" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="369" operator="lessThanOrEqual">
       <formula>I28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="cellIs" dxfId="4" priority="365" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="375" operator="lessThanOrEqual">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" dxfId="4" priority="370" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="380" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="4" priority="376" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="386" operator="lessThanOrEqual">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="4" priority="264" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="268" operator="lessThanOrEqual">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="4" priority="270" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="274" operator="lessThanOrEqual">
       <formula>I8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="cellIs" dxfId="4" priority="276" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="280" operator="lessThanOrEqual">
       <formula>I9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="cellIs" dxfId="4" priority="281" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="285" operator="lessThanOrEqual">
       <formula>J10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="cellIs" dxfId="4" priority="287" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="291" operator="lessThanOrEqual">
       <formula>J11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="cellIs" dxfId="4" priority="293" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="297" operator="lessThanOrEqual">
       <formula>J12</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="cellIs" dxfId="4" priority="303" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="4" priority="299" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="309" operator="lessThanOrEqual">
       <formula>J14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="4" priority="304" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="314" operator="lessThanOrEqual">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X20">
-    <cfRule type="cellIs" dxfId="4" priority="310" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="320" operator="lessThanOrEqual">
       <formula>J20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21">
-    <cfRule type="cellIs" dxfId="4" priority="316" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="326" operator="lessThanOrEqual">
       <formula>J21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X22">
-    <cfRule type="cellIs" dxfId="4" priority="322" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="332" operator="lessThanOrEqual">
       <formula>J22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23">
-    <cfRule type="cellIs" dxfId="4" priority="328" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="338" operator="lessThanOrEqual">
       <formula>J23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="4" priority="334" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="344" operator="lessThanOrEqual">
       <formula>J24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="4" priority="340" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="350" operator="lessThanOrEqual">
       <formula>J25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="4" priority="346" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="356" operator="lessThanOrEqual">
       <formula>J26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="4" priority="352" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="362" operator="lessThanOrEqual">
       <formula>J27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X28">
-    <cfRule type="cellIs" dxfId="4" priority="358" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="368" operator="lessThanOrEqual">
       <formula>J28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="4" priority="364" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="374" operator="lessThanOrEqual">
       <formula>J29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="4" priority="369" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="379" operator="lessThanOrEqual">
       <formula>J31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="4" priority="375" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="385" operator="lessThanOrEqual">
       <formula>J32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7">
-    <cfRule type="cellIs" dxfId="4" priority="263" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="267" operator="lessThanOrEqual">
       <formula>J7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8">
-    <cfRule type="cellIs" dxfId="4" priority="269" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="273" operator="lessThanOrEqual">
       <formula>J8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9">
-    <cfRule type="cellIs" dxfId="4" priority="275" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="279" operator="lessThanOrEqual">
       <formula>J9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
-    <cfRule type="cellIs" dxfId="1" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="399" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="390" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="400" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11">
-    <cfRule type="cellIs" dxfId="1" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="405" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="396" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="406" operator="lessThan">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12">
-    <cfRule type="cellIs" dxfId="1" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="411" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="402" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="412" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z18">
-    <cfRule type="cellIs" dxfId="1" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="417" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="408" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="418" operator="lessThan">
       <formula>H18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z21">
-    <cfRule type="cellIs" dxfId="1" priority="412" operator="equal">
+  <conditionalFormatting sqref="Z25">
+    <cfRule type="cellIs" dxfId="1" priority="422" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="413" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z25">
-    <cfRule type="cellIs" dxfId="1" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="423" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z26">
+    <cfRule type="cellIs" dxfId="1" priority="428" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="419" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z26">
-    <cfRule type="cellIs" dxfId="1" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="429" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z27">
+    <cfRule type="cellIs" dxfId="1" priority="434" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="425" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z27">
-    <cfRule type="cellIs" dxfId="1" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="435" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z30">
+    <cfRule type="cellIs" dxfId="1" priority="439" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="431" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z30">
-    <cfRule type="cellIs" dxfId="1" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="440" operator="lessThan">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7">
+    <cfRule type="cellIs" dxfId="1" priority="387" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="436" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z32">
-    <cfRule type="cellIs" dxfId="1" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="388" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9">
+    <cfRule type="cellIs" dxfId="1" priority="393" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="441" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7">
-    <cfRule type="cellIs" dxfId="1" priority="377" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="378" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z9">
-    <cfRule type="cellIs" dxfId="1" priority="383" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="384" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="394" operator="lessThan">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12894,39 +12954,39 @@
     <hyperlink ref="AS12" r:id="rId36"/>
     <hyperlink ref="G13" r:id="rId37"/>
     <hyperlink ref="T13" r:id="rId38"/>
-    <hyperlink ref="AI13" r:id="rId39"/>
-    <hyperlink ref="AN13" r:id="rId40"/>
-    <hyperlink ref="G14" r:id="rId41"/>
-    <hyperlink ref="T14" r:id="rId42"/>
-    <hyperlink ref="Y14" r:id="rId43"/>
-    <hyperlink ref="AI14" r:id="rId44"/>
-    <hyperlink ref="AN14" r:id="rId45"/>
-    <hyperlink ref="AX14" r:id="rId46"/>
-    <hyperlink ref="G15" r:id="rId47"/>
-    <hyperlink ref="T15" r:id="rId48"/>
-    <hyperlink ref="Y15" r:id="rId49"/>
-    <hyperlink ref="AI15" r:id="rId50"/>
-    <hyperlink ref="AN15" r:id="rId51"/>
-    <hyperlink ref="AX15" r:id="rId52"/>
-    <hyperlink ref="G16" r:id="rId53"/>
-    <hyperlink ref="T16" r:id="rId54"/>
-    <hyperlink ref="G17" r:id="rId55"/>
-    <hyperlink ref="T17" r:id="rId56"/>
-    <hyperlink ref="G18" r:id="rId57"/>
-    <hyperlink ref="AD18" r:id="rId58"/>
-    <hyperlink ref="G19" r:id="rId59"/>
-    <hyperlink ref="T19" r:id="rId60"/>
-    <hyperlink ref="AI19" r:id="rId61"/>
-    <hyperlink ref="G20" r:id="rId62"/>
-    <hyperlink ref="T20" r:id="rId63"/>
-    <hyperlink ref="Y20" r:id="rId64"/>
-    <hyperlink ref="AI20" r:id="rId65"/>
-    <hyperlink ref="AN20" r:id="rId66"/>
-    <hyperlink ref="AS20" r:id="rId67"/>
-    <hyperlink ref="G21" r:id="rId68"/>
-    <hyperlink ref="T21" r:id="rId69"/>
-    <hyperlink ref="Y21" r:id="rId70"/>
-    <hyperlink ref="AD21" r:id="rId71"/>
+    <hyperlink ref="Y13" r:id="rId39"/>
+    <hyperlink ref="AI13" r:id="rId40"/>
+    <hyperlink ref="AN13" r:id="rId41"/>
+    <hyperlink ref="G14" r:id="rId42"/>
+    <hyperlink ref="T14" r:id="rId43"/>
+    <hyperlink ref="Y14" r:id="rId44"/>
+    <hyperlink ref="AI14" r:id="rId45"/>
+    <hyperlink ref="AN14" r:id="rId46"/>
+    <hyperlink ref="AX14" r:id="rId47"/>
+    <hyperlink ref="G15" r:id="rId48"/>
+    <hyperlink ref="T15" r:id="rId49"/>
+    <hyperlink ref="Y15" r:id="rId50"/>
+    <hyperlink ref="AI15" r:id="rId51"/>
+    <hyperlink ref="AN15" r:id="rId52"/>
+    <hyperlink ref="AX15" r:id="rId53"/>
+    <hyperlink ref="G16" r:id="rId54"/>
+    <hyperlink ref="T16" r:id="rId55"/>
+    <hyperlink ref="G17" r:id="rId56"/>
+    <hyperlink ref="T17" r:id="rId57"/>
+    <hyperlink ref="G18" r:id="rId58"/>
+    <hyperlink ref="AD18" r:id="rId59"/>
+    <hyperlink ref="G19" r:id="rId60"/>
+    <hyperlink ref="T19" r:id="rId61"/>
+    <hyperlink ref="AI19" r:id="rId62"/>
+    <hyperlink ref="G20" r:id="rId63"/>
+    <hyperlink ref="T20" r:id="rId64"/>
+    <hyperlink ref="Y20" r:id="rId65"/>
+    <hyperlink ref="AI20" r:id="rId66"/>
+    <hyperlink ref="AN20" r:id="rId67"/>
+    <hyperlink ref="AS20" r:id="rId68"/>
+    <hyperlink ref="G21" r:id="rId69"/>
+    <hyperlink ref="T21" r:id="rId70"/>
+    <hyperlink ref="Y21" r:id="rId71"/>
     <hyperlink ref="AI21" r:id="rId72"/>
     <hyperlink ref="AN21" r:id="rId73"/>
     <hyperlink ref="AS21" r:id="rId74"/>
@@ -12935,43 +12995,43 @@
     <hyperlink ref="Y22" r:id="rId77"/>
     <hyperlink ref="AI22" r:id="rId78"/>
     <hyperlink ref="AN22" r:id="rId79"/>
-    <hyperlink ref="AS22" r:id="rId80"/>
-    <hyperlink ref="G23" r:id="rId81"/>
-    <hyperlink ref="T23" r:id="rId82"/>
-    <hyperlink ref="Y23" r:id="rId83"/>
-    <hyperlink ref="AI23" r:id="rId84"/>
-    <hyperlink ref="AS23" r:id="rId85"/>
-    <hyperlink ref="G24" r:id="rId86"/>
-    <hyperlink ref="T24" r:id="rId87"/>
-    <hyperlink ref="Y24" r:id="rId88"/>
-    <hyperlink ref="AI24" r:id="rId89"/>
-    <hyperlink ref="AN24" r:id="rId90"/>
-    <hyperlink ref="G25" r:id="rId91"/>
-    <hyperlink ref="T25" r:id="rId92"/>
-    <hyperlink ref="Y25" r:id="rId93"/>
-    <hyperlink ref="AD25" r:id="rId94"/>
-    <hyperlink ref="AI25" r:id="rId95"/>
-    <hyperlink ref="AN25" r:id="rId96"/>
-    <hyperlink ref="AS25" r:id="rId97"/>
-    <hyperlink ref="G26" r:id="rId98"/>
-    <hyperlink ref="T26" r:id="rId99"/>
-    <hyperlink ref="Y26" r:id="rId100"/>
-    <hyperlink ref="AD26" r:id="rId101"/>
-    <hyperlink ref="AI26" r:id="rId102"/>
-    <hyperlink ref="AN26" r:id="rId103"/>
-    <hyperlink ref="AS26" r:id="rId104"/>
-    <hyperlink ref="G27" r:id="rId105"/>
-    <hyperlink ref="T27" r:id="rId106"/>
-    <hyperlink ref="Y27" r:id="rId107"/>
-    <hyperlink ref="AD27" r:id="rId108"/>
-    <hyperlink ref="AI27" r:id="rId109"/>
-    <hyperlink ref="AN27" r:id="rId110"/>
-    <hyperlink ref="AX27" r:id="rId111"/>
-    <hyperlink ref="G28" r:id="rId112"/>
-    <hyperlink ref="T28" r:id="rId113"/>
-    <hyperlink ref="Y28" r:id="rId114"/>
-    <hyperlink ref="AI28" r:id="rId115"/>
-    <hyperlink ref="AN28" r:id="rId116"/>
+    <hyperlink ref="G23" r:id="rId80"/>
+    <hyperlink ref="T23" r:id="rId81"/>
+    <hyperlink ref="Y23" r:id="rId82"/>
+    <hyperlink ref="AI23" r:id="rId83"/>
+    <hyperlink ref="AS23" r:id="rId84"/>
+    <hyperlink ref="G24" r:id="rId85"/>
+    <hyperlink ref="T24" r:id="rId86"/>
+    <hyperlink ref="Y24" r:id="rId87"/>
+    <hyperlink ref="AI24" r:id="rId88"/>
+    <hyperlink ref="AN24" r:id="rId89"/>
+    <hyperlink ref="G25" r:id="rId90"/>
+    <hyperlink ref="T25" r:id="rId91"/>
+    <hyperlink ref="Y25" r:id="rId92"/>
+    <hyperlink ref="AD25" r:id="rId93"/>
+    <hyperlink ref="AI25" r:id="rId94"/>
+    <hyperlink ref="AN25" r:id="rId95"/>
+    <hyperlink ref="AS25" r:id="rId96"/>
+    <hyperlink ref="G26" r:id="rId97"/>
+    <hyperlink ref="T26" r:id="rId98"/>
+    <hyperlink ref="Y26" r:id="rId99"/>
+    <hyperlink ref="AD26" r:id="rId100"/>
+    <hyperlink ref="AI26" r:id="rId101"/>
+    <hyperlink ref="AN26" r:id="rId102"/>
+    <hyperlink ref="AS26" r:id="rId103"/>
+    <hyperlink ref="G27" r:id="rId104"/>
+    <hyperlink ref="T27" r:id="rId105"/>
+    <hyperlink ref="Y27" r:id="rId106"/>
+    <hyperlink ref="AD27" r:id="rId107"/>
+    <hyperlink ref="AI27" r:id="rId108"/>
+    <hyperlink ref="AN27" r:id="rId109"/>
+    <hyperlink ref="AX27" r:id="rId110"/>
+    <hyperlink ref="G28" r:id="rId111"/>
+    <hyperlink ref="T28" r:id="rId112"/>
+    <hyperlink ref="Y28" r:id="rId113"/>
+    <hyperlink ref="AI28" r:id="rId114"/>
+    <hyperlink ref="AN28" r:id="rId115"/>
+    <hyperlink ref="AS28" r:id="rId116"/>
     <hyperlink ref="G29" r:id="rId117"/>
     <hyperlink ref="T29" r:id="rId118"/>
     <hyperlink ref="Y29" r:id="rId119"/>
@@ -12990,30 +13050,29 @@
     <hyperlink ref="G32" r:id="rId132"/>
     <hyperlink ref="T32" r:id="rId133"/>
     <hyperlink ref="Y32" r:id="rId134"/>
-    <hyperlink ref="AD32" r:id="rId135"/>
-    <hyperlink ref="AI32" r:id="rId136"/>
-    <hyperlink ref="AN32" r:id="rId137"/>
-    <hyperlink ref="AS32" r:id="rId138"/>
-    <hyperlink ref="AX32" r:id="rId139"/>
-    <hyperlink ref="G33" r:id="rId140"/>
-    <hyperlink ref="G34" r:id="rId141"/>
-    <hyperlink ref="T34" r:id="rId142"/>
-    <hyperlink ref="G35" r:id="rId143"/>
-    <hyperlink ref="T35" r:id="rId144"/>
-    <hyperlink ref="AI35" r:id="rId145"/>
-    <hyperlink ref="G36" r:id="rId146"/>
-    <hyperlink ref="T36" r:id="rId147"/>
-    <hyperlink ref="AI36" r:id="rId148"/>
-    <hyperlink ref="K38" r:id="rId149"/>
-    <hyperlink ref="P38" r:id="rId150"/>
-    <hyperlink ref="U38" r:id="rId151"/>
-    <hyperlink ref="Z38" r:id="rId152"/>
-    <hyperlink ref="AE38" r:id="rId153"/>
-    <hyperlink ref="AJ38" r:id="rId154"/>
-    <hyperlink ref="AO38" r:id="rId155"/>
-    <hyperlink ref="AT38" r:id="rId156"/>
+    <hyperlink ref="AI32" r:id="rId135"/>
+    <hyperlink ref="AN32" r:id="rId136"/>
+    <hyperlink ref="AS32" r:id="rId137"/>
+    <hyperlink ref="AX32" r:id="rId138"/>
+    <hyperlink ref="G33" r:id="rId139"/>
+    <hyperlink ref="G34" r:id="rId140"/>
+    <hyperlink ref="T34" r:id="rId141"/>
+    <hyperlink ref="G35" r:id="rId142"/>
+    <hyperlink ref="T35" r:id="rId143"/>
+    <hyperlink ref="AI35" r:id="rId144"/>
+    <hyperlink ref="G36" r:id="rId145"/>
+    <hyperlink ref="T36" r:id="rId146"/>
+    <hyperlink ref="AN36" r:id="rId147"/>
+    <hyperlink ref="K38" r:id="rId148"/>
+    <hyperlink ref="P38" r:id="rId149"/>
+    <hyperlink ref="U38" r:id="rId150"/>
+    <hyperlink ref="Z38" r:id="rId151"/>
+    <hyperlink ref="AE38" r:id="rId152"/>
+    <hyperlink ref="AJ38" r:id="rId153"/>
+    <hyperlink ref="AO38" r:id="rId154"/>
+    <hyperlink ref="AT38" r:id="rId155"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId157"/>
+  <legacyDrawing r:id="rId156"/>
 </worksheet>
 </file>
--- a/hardware/manufacture/reDIP-SID-BOM.xlsx
+++ b/hardware/manufacture/reDIP-SID-BOM.xlsx
@@ -3497,36 +3497,13 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.62      $1.62
-    10   $1.55     $15.48
-    50   $1.51     $75.60
-   100   $1.30    $129.60
-   500   $1.26    $630.00
-  1000   $1.06  $1,062.00
-  3000   $1.01  $3,024.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
-================
-     5   £1.21      £6.05
-    10   £1.21     £12.10
-    50   £1.01     £50.50
-   250   £0.92    £229.75
-   500   £0.90    £448.50
-  1500   £0.88  £1,312.50
-  3000   £0.86  £2,574.00
- 15000   £0.84 £12,600.00</t>
+     1   $1.90      $1.90
+    10   $1.82     $18.19
+    50   $1.78     $88.82
+   100   $1.52    $152.26
+   500   $1.48    $740.16
+  1000   $1.25  $1,247.70
+  3000   $1.18  $3,552.78</t>
         </r>
       </text>
     </comment>
@@ -3542,35 +3519,11 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.80      $1.80
-    10   $1.72     $17.20
-    50   $1.68     $84.00
-   100   $1.44    $144.00
-  1000   $1.15  $1,150.00
- 10000   $1.08 $10,800.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     5   $1.80      $9.00
-    10   $1.72     $17.20
-    25   $1.70     $42.50
-    50   $1.68     $84.00
-   100   $1.44    $144.00
-  3000   $1.28  $3,840.00
-  4000   $1.17  $4,680.00
-  6000   $1.12  $6,720.00
+     1   $1.82      $1.82
+    10   $1.74     $17.40
+    50   $1.69     $84.50
+   100   $1.46    $146.00
+  1000   $1.28  $1,280.00
  10000   $1.09 $10,900.00</t>
         </r>
       </text>
@@ -3723,7 +3676,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="294">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -3846,9 +3799,9 @@
     <t>GRM033R60J224KE15D</t>
   </si>
   <si>
-    <t>C5,C6,C12-C14,C18,C19,C21: 3.3V DC DERATED TO 0.1uF
-C16: 1.2V DC DERATED TO 0.1uF
-C7: 1.55V DC VAG DERATED TO 0.1uF</t>
+    <t>C7: 1.55V DC VAG DERATED TO 0.1uF
+C5,C6,C12-C14,C18,C19,C21: 3.3V DC DERATED TO 0.1uF
+C16: 1.2V DC DERATED TO 0.1uF</t>
   </si>
   <si>
     <t>D1,D2</t>
@@ -4172,16 +4125,16 @@
     <t>X1</t>
   </si>
   <si>
-    <t>ASCO-24.000MHZ-EK-T3</t>
-  </si>
-  <si>
-    <t>OSC 24 MHz 30 ppm 1.6x1.2 mm</t>
+    <t>ECS-1612MV-240-CN-TR</t>
+  </si>
+  <si>
+    <t>OSC 24 MHz 25 ppm 1.6x1.2 mm</t>
   </si>
   <si>
     <t>Oscillator_SMD-4Pin_1.6x1.2mm</t>
   </si>
   <si>
-    <t>Abracon</t>
+    <t>ECS</t>
   </si>
   <si>
     <t>Total Purchase:</t>
@@ -4211,7 +4164,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>sø. 25. april 2021 kl. 00.44 +0200</t>
+    <t>sø. 25. april 2021 kl. 18.20 +0200</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -4226,7 +4179,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2021-04-25 00:44:29</t>
+    <t>2021-04-25 18:20:43</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -4328,7 +4281,7 @@
     <t>220-2212-1-ND</t>
   </si>
   <si>
-    <t>535-12073-1-ND</t>
+    <t>XC2829CT-ND</t>
   </si>
   <si>
     <t>Farnell</t>
@@ -4397,9 +4350,6 @@
     <t>2824959</t>
   </si>
   <si>
-    <t>3573055</t>
-  </si>
-  <si>
     <t>LCSC</t>
   </si>
   <si>
@@ -4502,7 +4452,7 @@
     <t>842ICE40UP5KSG48I</t>
   </si>
   <si>
-    <t>815ASCO24EKT3</t>
+    <t>5201612MV240CNT</t>
   </si>
   <si>
     <t>Newark</t>
@@ -4566,9 +4516,6 @@
   </si>
   <si>
     <t>46AC1428</t>
-  </si>
-  <si>
-    <t>89AH0815</t>
   </si>
   <si>
     <t>RS Components</t>
@@ -5402,35 +5349,35 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
       <c r="AS5" s="14"/>
       <c r="AT5" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AU5" s="15"/>
       <c r="AV5" s="15"/>
@@ -5663,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AE7" s="19" t="s">
         <v>174</v>
@@ -5677,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AJ7" s="17">
         <v>9990</v>
@@ -5691,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="AN7" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -5768,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AJ8" s="17">
         <v>45000</v>
@@ -5782,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -5859,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AJ9" s="17">
         <v>30000</v>
@@ -5873,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -5950,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AE10" s="17">
         <v>1634310</v>
@@ -5964,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ10" s="17">
         <v>150000</v>
@@ -5978,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -6055,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE11" s="17">
         <v>155342</v>
@@ -6069,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="AI11" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ11" s="17">
         <v>50000</v>
@@ -6083,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -6160,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AE12" s="17">
         <v>301000</v>
@@ -6174,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AJ12" s="17">
         <v>120000</v>
@@ -6188,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AO12" s="17">
         <v>7000</v>
@@ -6202,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -6276,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="AI13" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AJ13" s="19" t="s">
         <v>174</v>
@@ -6290,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -6364,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AJ14" s="17">
         <v>715</v>
@@ -6378,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AT14" s="17">
         <v>3678</v>
@@ -6392,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -6466,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AJ15" s="17">
         <v>3337</v>
@@ -6480,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AT15" s="17">
         <v>2910</v>
@@ -6494,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="AX15" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -6632,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -6706,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AJ19" s="19" t="s">
         <v>174</v>
@@ -6720,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AO19" s="17">
         <v>38000</v>
@@ -6734,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="AS19" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -6808,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ20" s="17">
         <v>95971</v>
@@ -6822,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO20" s="17">
         <v>1038637</v>
@@ -6836,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:50">
@@ -6910,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AJ21" s="19" t="s">
         <v>174</v>
@@ -6924,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:50">
@@ -6998,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AO22" s="17">
         <v>28000</v>
@@ -7012,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:50">
@@ -7086,13 +7033,13 @@
         <v>0</v>
       </c>
       <c r="AI23" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AJ23" s="19" t="s">
         <v>174</v>
       </c>
       <c r="AN23" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:50">
@@ -7166,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE24" s="17">
         <v>87234</v>
@@ -7180,13 +7127,13 @@
         <v>0</v>
       </c>
       <c r="AI24" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AJ24" s="19" t="s">
         <v>174</v>
       </c>
       <c r="AN24" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AO24" s="17">
         <v>37000</v>
@@ -7200,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:50">
@@ -7274,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="AD25" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AE25" s="17">
         <v>80383</v>
@@ -7288,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AJ25" s="19" t="s">
         <v>174</v>
@@ -7302,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AO25" s="17">
         <v>8000</v>
@@ -7316,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:50">
@@ -7390,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AE26" s="17">
         <v>11717</v>
@@ -7404,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="AI26" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AJ26" s="17">
         <v>7059</v>
@@ -7418,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AT26" s="17">
         <v>2885</v>
@@ -7432,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="AX26" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:50">
@@ -7506,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AJ27" s="17">
         <v>1948</v>
@@ -7520,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AO27" s="17">
         <v>3000</v>
@@ -7534,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:50">
@@ -7608,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AJ28" s="17">
         <v>190</v>
@@ -7622,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="AN28" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AO28" s="17">
         <v>12</v>
@@ -7636,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="AS28" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:50">
@@ -7696,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AE29" s="17">
         <v>594</v>
@@ -7710,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:50">
@@ -7787,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ30" s="19" t="s">
         <v>174</v>
@@ -7801,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:50">
@@ -7875,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AJ31" s="17">
         <v>280</v>
@@ -7889,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="AN31" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AO31" s="17">
         <v>1200</v>
@@ -7903,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AT31" s="17">
         <v>2794</v>
@@ -8061,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:49">
@@ -8096,10 +8043,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="17">
-        <v>198</v>
+        <v>628</v>
       </c>
       <c r="R35" s="18">
-        <f>iferror(lookup(if(Q35="",H35,Q35),{0,1,10,50,100,500,1000,3000},{0.0,1.62,1.548,1.512,1.296,1.26,1.062,1.008}),"")</f>
+        <f>iferror(lookup(if(Q35="",H35,Q35),{0,1,10,50,100,500,1000,3000},{0.0,1.9,1.819,1.7764,1.5226,1.48032,1.2477,1.18426}),"")</f>
         <v>0</v>
       </c>
       <c r="S35" s="18">
@@ -8109,25 +8056,11 @@
       <c r="T35" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="U35" s="17">
-        <v>2935</v>
-      </c>
-      <c r="W35" s="18">
-        <f>iferror(USD_GBP*lookup(if(V35="",H35,V35),{0,1,5,10,50,250,500,1500,3000,15000},{0.0,1.21,1.21,1.21,1.01,0.919,0.897,0.875,0.858,0.84}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="18">
-        <f>iferror(if(V35="",H35,V35)*W35,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="20" t="s">
-        <v>223</v>
-      </c>
       <c r="AE35" s="17">
-        <v>8705</v>
+        <v>2147</v>
       </c>
       <c r="AG35" s="18">
-        <f>iferror(lookup(if(AF35="",H35,AF35),{0,1,10,50,100,1000,10000},{0.0,1.8,1.72,1.68,1.44,1.15,1.08}),"")</f>
+        <f>iferror(lookup(if(AF35="",H35,AF35),{0,1,10,50,100,1000,10000},{0.0,1.82,1.74,1.69,1.46,1.28,1.09}),"")</f>
         <v>0</v>
       </c>
       <c r="AH35" s="18">
@@ -8135,21 +8068,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ35" s="17">
-        <v>2935</v>
-      </c>
-      <c r="AL35" s="18">
-        <f>iferror(lookup(if(AK35="",H35,AK35),{0,1,5,10,25,50,100,3000,4000,6000,10000},{0.0,1.8,1.8,1.72,1.7,1.68,1.44,1.28,1.17,1.12,1.09}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AM35" s="18">
-        <f>iferror(if(AK35="",H35,AK35)*AL35,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="20" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:49">
@@ -8347,7 +8266,7 @@
     </row>
     <row r="40" spans="1:49">
       <c r="A40" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L40">
         <f t="array" ref="L40">IFERROR(CONCATENATE(INDEX(O7:O35,SMALL(IF(ISNUMBER(L7:L35),IF(L7:L35&gt;0,IF(O7:O35&lt;&gt;"",ROW(L7:L35)-MIN(ROW(L7:L35))+1))),ROW()-ROW(A$38)+1)),",",TEXT(INDEX(L7:L35,SMALL(IF(ISNUMBER(L7:L35),IF(L7:L35&gt;0,IF(O7:O35&lt;&gt;"",ROW(L7:L35)-MIN(ROW(L7:L35))+1))),ROW()-ROW(A$38)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A35,SMALL(IF(ISNUMBER(L7:L35),IF(L7:L35&gt;0,IF(O7:O35&lt;&gt;"",ROW(L7:L35)-MIN(ROW(L7:L35))+1))),ROW()-ROW(A$38)+1)),",",";")),"")</f>
@@ -9501,1516 +9420,1490 @@
     <mergeCell ref="AT5:AX5"/>
   </mergeCells>
   <conditionalFormatting sqref="AA10">
+    <cfRule type="expression" dxfId="3" priority="391">
+      <formula>AND(AA10&gt;0,AA10&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="392" operator="greaterThan">
+      <formula>Z10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA11">
     <cfRule type="expression" dxfId="3" priority="397">
-      <formula>AND(AA10&gt;0,AA10&lt;10)</formula>
+      <formula>AND(AA11&gt;0,AA11&lt;5)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="398" operator="greaterThan">
-      <formula>Z10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA11">
+      <formula>Z11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12">
     <cfRule type="expression" dxfId="3" priority="403">
-      <formula>AND(AA11&gt;0,AA11&lt;5)</formula>
+      <formula>AND(AA12&gt;0,AA12&lt;50)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="404" operator="greaterThan">
-      <formula>Z11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA12">
-    <cfRule type="expression" dxfId="3" priority="409">
-      <formula>AND(AA12&gt;0,AA12&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="410" operator="greaterThan">
       <formula>Z12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA18">
+    <cfRule type="cellIs" dxfId="1" priority="409" operator="greaterThan">
+      <formula>Z18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA24">
+    <cfRule type="expression" dxfId="3" priority="414">
+      <formula>AND(AA24&gt;0,AA24&lt;50)</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="415" operator="greaterThan">
-      <formula>Z18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA24">
+      <formula>Z24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25">
     <cfRule type="expression" dxfId="3" priority="420">
-      <formula>AND(AA24&gt;0,AA24&lt;50)</formula>
+      <formula>AND(AA25&gt;0,AA25&lt;50)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="421" operator="greaterThan">
-      <formula>Z24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA25">
-    <cfRule type="expression" dxfId="3" priority="426">
-      <formula>AND(AA25&gt;0,AA25&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="427" operator="greaterThan">
       <formula>Z25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA26">
-    <cfRule type="cellIs" dxfId="1" priority="432" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="426" operator="greaterThan">
       <formula>Z26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA29">
-    <cfRule type="cellIs" dxfId="1" priority="437" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="431" operator="greaterThan">
       <formula>Z29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7">
+    <cfRule type="expression" dxfId="3" priority="379">
+      <formula>AND(AA7&gt;0,AA7&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="380" operator="greaterThan">
+      <formula>Z7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9">
     <cfRule type="expression" dxfId="3" priority="385">
-      <formula>AND(AA7&gt;0,AA7&lt;10)</formula>
+      <formula>AND(AA9&gt;0,AA9&lt;20)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="386" operator="greaterThan">
-      <formula>Z7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA9">
-    <cfRule type="expression" dxfId="3" priority="391">
-      <formula>AND(AA9&gt;0,AA9&lt;20)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="392" operator="greaterThan">
       <formula>Z9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10">
+    <cfRule type="cellIs" dxfId="4" priority="394" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11">
     <cfRule type="cellIs" dxfId="4" priority="400" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12">
+    <cfRule type="cellIs" dxfId="4" priority="406" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB18">
+    <cfRule type="cellIs" dxfId="4" priority="411" operator="lessThanOrEqual">
+      <formula>I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB24">
+    <cfRule type="cellIs" dxfId="4" priority="417" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB25">
+    <cfRule type="cellIs" dxfId="4" priority="423" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB26">
+    <cfRule type="cellIs" dxfId="4" priority="428" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB29">
+    <cfRule type="cellIs" dxfId="4" priority="433" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB7">
+    <cfRule type="cellIs" dxfId="4" priority="382" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9">
+    <cfRule type="cellIs" dxfId="4" priority="388" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10">
+    <cfRule type="cellIs" dxfId="4" priority="393" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11">
+    <cfRule type="cellIs" dxfId="4" priority="399" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12">
+    <cfRule type="cellIs" dxfId="4" priority="405" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC18">
+    <cfRule type="cellIs" dxfId="4" priority="410" operator="lessThanOrEqual">
+      <formula>J18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC24">
+    <cfRule type="cellIs" dxfId="4" priority="416" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC25">
+    <cfRule type="cellIs" dxfId="4" priority="422" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC26">
+    <cfRule type="cellIs" dxfId="4" priority="427" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC29">
+    <cfRule type="cellIs" dxfId="4" priority="432" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC7">
+    <cfRule type="cellIs" dxfId="4" priority="381" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9">
+    <cfRule type="cellIs" dxfId="4" priority="387" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE10">
+    <cfRule type="cellIs" dxfId="1" priority="444" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="445" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11">
+    <cfRule type="cellIs" dxfId="1" priority="449" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="450" operator="lessThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12">
+    <cfRule type="cellIs" dxfId="1" priority="454" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="455" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13">
+    <cfRule type="cellIs" dxfId="1" priority="459" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="460" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
+    <cfRule type="cellIs" dxfId="1" priority="464" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="465" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="cellIs" dxfId="1" priority="469" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="470" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE19">
+    <cfRule type="cellIs" dxfId="1" priority="474" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="475" operator="lessThan">
+      <formula>H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE20">
+    <cfRule type="cellIs" dxfId="1" priority="479" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="480" operator="lessThan">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE21">
+    <cfRule type="cellIs" dxfId="1" priority="484" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="485" operator="lessThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22">
+    <cfRule type="cellIs" dxfId="1" priority="489" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="490" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="1" priority="494" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="495" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="1" priority="499" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="500" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="1" priority="504" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="505" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="cellIs" dxfId="1" priority="509" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="510" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="1" priority="514" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="515" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="1" priority="519" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="520" operator="lessThan">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="1" priority="524" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="525" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE30">
+    <cfRule type="cellIs" dxfId="1" priority="529" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="530" operator="lessThan">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="1" priority="534" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="535" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="cellIs" dxfId="1" priority="539" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="540" operator="lessThan">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
+    <cfRule type="cellIs" dxfId="1" priority="544" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="545" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="cellIs" dxfId="1" priority="434" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="435" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="cellIs" dxfId="1" priority="439" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="440" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="cellIs" dxfId="1" priority="446" operator="greaterThan">
+      <formula>AE10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11">
+    <cfRule type="cellIs" dxfId="1" priority="451" operator="greaterThan">
+      <formula>AE11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12">
+    <cfRule type="cellIs" dxfId="1" priority="456" operator="greaterThan">
+      <formula>AE12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13">
+    <cfRule type="cellIs" dxfId="1" priority="461" operator="greaterThan">
+      <formula>AE13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="cellIs" dxfId="1" priority="466" operator="greaterThan">
+      <formula>AE14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="cellIs" dxfId="1" priority="471" operator="greaterThan">
+      <formula>AE15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF19">
+    <cfRule type="cellIs" dxfId="1" priority="476" operator="greaterThan">
+      <formula>AE19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF20">
+    <cfRule type="cellIs" dxfId="1" priority="481" operator="greaterThan">
+      <formula>AE20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF21">
+    <cfRule type="cellIs" dxfId="1" priority="486" operator="greaterThan">
+      <formula>AE21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF22">
+    <cfRule type="cellIs" dxfId="1" priority="491" operator="greaterThan">
+      <formula>AE22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF23">
+    <cfRule type="cellIs" dxfId="1" priority="496" operator="greaterThan">
+      <formula>AE23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="cellIs" dxfId="1" priority="501" operator="greaterThan">
+      <formula>AE24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="cellIs" dxfId="1" priority="506" operator="greaterThan">
+      <formula>AE25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="cellIs" dxfId="1" priority="511" operator="greaterThan">
+      <formula>AE26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF27">
+    <cfRule type="cellIs" dxfId="1" priority="516" operator="greaterThan">
+      <formula>AE27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF28">
+    <cfRule type="cellIs" dxfId="1" priority="521" operator="greaterThan">
+      <formula>AE28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF29">
+    <cfRule type="cellIs" dxfId="1" priority="526" operator="greaterThan">
+      <formula>AE29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF30">
+    <cfRule type="cellIs" dxfId="1" priority="531" operator="greaterThan">
+      <formula>AE30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31">
+    <cfRule type="cellIs" dxfId="1" priority="536" operator="greaterThan">
+      <formula>AE31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF34">
+    <cfRule type="cellIs" dxfId="1" priority="541" operator="greaterThan">
+      <formula>AE34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="cellIs" dxfId="1" priority="546" operator="greaterThan">
+      <formula>AE35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7">
+    <cfRule type="cellIs" dxfId="1" priority="436" operator="greaterThan">
+      <formula>AE7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="cellIs" dxfId="1" priority="441" operator="greaterThan">
+      <formula>AE8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="4" priority="448" operator="lessThanOrEqual">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB11">
-    <cfRule type="cellIs" dxfId="4" priority="406" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG11">
+    <cfRule type="cellIs" dxfId="4" priority="453" operator="lessThanOrEqual">
       <formula>I11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12">
-    <cfRule type="cellIs" dxfId="4" priority="412" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="4" priority="458" operator="lessThanOrEqual">
       <formula>I12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB18">
-    <cfRule type="cellIs" dxfId="4" priority="417" operator="lessThanOrEqual">
-      <formula>I18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB24">
-    <cfRule type="cellIs" dxfId="4" priority="423" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="4" priority="463" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14">
+    <cfRule type="cellIs" dxfId="4" priority="468" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15">
+    <cfRule type="cellIs" dxfId="4" priority="473" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG19">
+    <cfRule type="cellIs" dxfId="4" priority="478" operator="lessThanOrEqual">
+      <formula>I19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG20">
+    <cfRule type="cellIs" dxfId="4" priority="483" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG21">
+    <cfRule type="cellIs" dxfId="4" priority="488" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22">
+    <cfRule type="cellIs" dxfId="4" priority="493" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="cellIs" dxfId="4" priority="498" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="4" priority="503" operator="lessThanOrEqual">
       <formula>I24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB25">
-    <cfRule type="cellIs" dxfId="4" priority="429" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="cellIs" dxfId="4" priority="508" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB26">
-    <cfRule type="cellIs" dxfId="4" priority="434" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG26">
+    <cfRule type="cellIs" dxfId="4" priority="513" operator="lessThanOrEqual">
       <formula>I26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB29">
-    <cfRule type="cellIs" dxfId="4" priority="439" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG27">
+    <cfRule type="cellIs" dxfId="4" priority="518" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="cellIs" dxfId="4" priority="523" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG29">
+    <cfRule type="cellIs" dxfId="4" priority="528" operator="lessThanOrEqual">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7">
-    <cfRule type="cellIs" dxfId="4" priority="388" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG30">
+    <cfRule type="cellIs" dxfId="4" priority="533" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31">
+    <cfRule type="cellIs" dxfId="4" priority="538" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG34">
+    <cfRule type="cellIs" dxfId="4" priority="543" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG35">
+    <cfRule type="cellIs" dxfId="4" priority="548" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="cellIs" dxfId="4" priority="438" operator="lessThanOrEqual">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB9">
-    <cfRule type="cellIs" dxfId="4" priority="394" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC10">
-    <cfRule type="cellIs" dxfId="4" priority="399" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="4" priority="443" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10">
+    <cfRule type="cellIs" dxfId="4" priority="447" operator="lessThanOrEqual">
       <formula>J10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC11">
-    <cfRule type="cellIs" dxfId="4" priority="405" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="cellIs" dxfId="4" priority="452" operator="lessThanOrEqual">
       <formula>J11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
-    <cfRule type="cellIs" dxfId="4" priority="411" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="cellIs" dxfId="4" priority="457" operator="lessThanOrEqual">
       <formula>J12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC18">
-    <cfRule type="cellIs" dxfId="4" priority="416" operator="lessThanOrEqual">
-      <formula>J18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC24">
-    <cfRule type="cellIs" dxfId="4" priority="422" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="cellIs" dxfId="4" priority="462" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14">
+    <cfRule type="cellIs" dxfId="4" priority="467" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="cellIs" dxfId="4" priority="472" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="cellIs" dxfId="4" priority="477" operator="lessThanOrEqual">
+      <formula>J19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="cellIs" dxfId="4" priority="482" operator="lessThanOrEqual">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="cellIs" dxfId="4" priority="487" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH22">
+    <cfRule type="cellIs" dxfId="4" priority="492" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="cellIs" dxfId="4" priority="497" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24">
+    <cfRule type="cellIs" dxfId="4" priority="502" operator="lessThanOrEqual">
       <formula>J24</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC25">
-    <cfRule type="cellIs" dxfId="4" priority="428" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="cellIs" dxfId="4" priority="507" operator="lessThanOrEqual">
       <formula>J25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC26">
-    <cfRule type="cellIs" dxfId="4" priority="433" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH26">
+    <cfRule type="cellIs" dxfId="4" priority="512" operator="lessThanOrEqual">
       <formula>J26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC29">
-    <cfRule type="cellIs" dxfId="4" priority="438" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="cellIs" dxfId="4" priority="517" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH28">
+    <cfRule type="cellIs" dxfId="4" priority="522" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="cellIs" dxfId="4" priority="527" operator="lessThanOrEqual">
       <formula>J29</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC7">
-    <cfRule type="cellIs" dxfId="4" priority="387" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH30">
+    <cfRule type="cellIs" dxfId="4" priority="532" operator="lessThanOrEqual">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="cellIs" dxfId="4" priority="537" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="cellIs" dxfId="4" priority="542" operator="lessThanOrEqual">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="cellIs" dxfId="4" priority="547" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="cellIs" dxfId="4" priority="437" operator="lessThanOrEqual">
       <formula>J7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="4" priority="393" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE10">
-    <cfRule type="cellIs" dxfId="1" priority="450" operator="equal">
+  <conditionalFormatting sqref="AH8">
+    <cfRule type="cellIs" dxfId="4" priority="442" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="1" priority="567" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="451" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="568" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE11">
-    <cfRule type="cellIs" dxfId="1" priority="455" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="456" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE12">
-    <cfRule type="cellIs" dxfId="1" priority="460" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="461" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE13">
-    <cfRule type="cellIs" dxfId="1" priority="465" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="466" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE14">
-    <cfRule type="cellIs" dxfId="1" priority="470" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="471" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="1" priority="475" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="476" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE19">
-    <cfRule type="cellIs" dxfId="1" priority="480" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="481" operator="lessThan">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE20">
-    <cfRule type="cellIs" dxfId="1" priority="485" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="486" operator="lessThan">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
-    <cfRule type="cellIs" dxfId="1" priority="490" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="491" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE22">
-    <cfRule type="cellIs" dxfId="1" priority="495" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="496" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="1" priority="500" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="501" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="1" priority="505" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="506" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="1" priority="510" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="511" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
-    <cfRule type="cellIs" dxfId="1" priority="515" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="516" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
-    <cfRule type="cellIs" dxfId="1" priority="520" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="521" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="1" priority="525" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="526" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE29">
-    <cfRule type="cellIs" dxfId="1" priority="530" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="531" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
-    <cfRule type="cellIs" dxfId="1" priority="535" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="536" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="1" priority="540" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="541" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
-    <cfRule type="cellIs" dxfId="1" priority="545" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="546" operator="lessThan">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
-    <cfRule type="cellIs" dxfId="1" priority="550" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="551" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" dxfId="1" priority="440" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="441" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE8">
-    <cfRule type="cellIs" dxfId="1" priority="445" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="446" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF10">
-    <cfRule type="cellIs" dxfId="1" priority="452" operator="greaterThan">
-      <formula>AE10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11">
-    <cfRule type="cellIs" dxfId="1" priority="457" operator="greaterThan">
-      <formula>AE11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF12">
-    <cfRule type="cellIs" dxfId="1" priority="462" operator="greaterThan">
-      <formula>AE12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13">
-    <cfRule type="cellIs" dxfId="1" priority="467" operator="greaterThan">
-      <formula>AE13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="cellIs" dxfId="1" priority="472" operator="greaterThan">
-      <formula>AE14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="1" priority="477" operator="greaterThan">
-      <formula>AE15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF19">
-    <cfRule type="cellIs" dxfId="1" priority="482" operator="greaterThan">
-      <formula>AE19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF20">
-    <cfRule type="cellIs" dxfId="1" priority="487" operator="greaterThan">
-      <formula>AE20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" dxfId="1" priority="492" operator="greaterThan">
-      <formula>AE21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF22">
-    <cfRule type="cellIs" dxfId="1" priority="497" operator="greaterThan">
-      <formula>AE22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF23">
-    <cfRule type="cellIs" dxfId="1" priority="502" operator="greaterThan">
-      <formula>AE23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
-    <cfRule type="cellIs" dxfId="1" priority="507" operator="greaterThan">
-      <formula>AE24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="1" priority="512" operator="greaterThan">
-      <formula>AE25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
-    <cfRule type="cellIs" dxfId="1" priority="517" operator="greaterThan">
-      <formula>AE26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="cellIs" dxfId="1" priority="522" operator="greaterThan">
-      <formula>AE27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
-    <cfRule type="cellIs" dxfId="1" priority="527" operator="greaterThan">
-      <formula>AE28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF29">
-    <cfRule type="cellIs" dxfId="1" priority="532" operator="greaterThan">
-      <formula>AE29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
-    <cfRule type="cellIs" dxfId="1" priority="537" operator="greaterThan">
-      <formula>AE30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
-    <cfRule type="cellIs" dxfId="1" priority="542" operator="greaterThan">
-      <formula>AE31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
-    <cfRule type="cellIs" dxfId="1" priority="547" operator="greaterThan">
-      <formula>AE34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF35">
-    <cfRule type="cellIs" dxfId="1" priority="552" operator="greaterThan">
-      <formula>AE35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7">
-    <cfRule type="cellIs" dxfId="1" priority="442" operator="greaterThan">
-      <formula>AE7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" dxfId="1" priority="447" operator="greaterThan">
-      <formula>AE8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
-    <cfRule type="cellIs" dxfId="4" priority="454" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG11">
-    <cfRule type="cellIs" dxfId="4" priority="459" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG12">
-    <cfRule type="cellIs" dxfId="4" priority="464" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG13">
-    <cfRule type="cellIs" dxfId="4" priority="469" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG14">
-    <cfRule type="cellIs" dxfId="4" priority="474" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="4" priority="479" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG19">
-    <cfRule type="cellIs" dxfId="4" priority="484" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="cellIs" dxfId="4" priority="489" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="cellIs" dxfId="4" priority="494" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG22">
-    <cfRule type="cellIs" dxfId="4" priority="499" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG23">
-    <cfRule type="cellIs" dxfId="4" priority="504" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
-    <cfRule type="cellIs" dxfId="4" priority="509" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
-    <cfRule type="cellIs" dxfId="4" priority="514" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG26">
-    <cfRule type="cellIs" dxfId="4" priority="519" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
-    <cfRule type="cellIs" dxfId="4" priority="524" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG28">
-    <cfRule type="cellIs" dxfId="4" priority="529" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG29">
-    <cfRule type="cellIs" dxfId="4" priority="534" operator="lessThanOrEqual">
-      <formula>I29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
-    <cfRule type="cellIs" dxfId="4" priority="539" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
-    <cfRule type="cellIs" dxfId="4" priority="544" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
-    <cfRule type="cellIs" dxfId="4" priority="549" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG35">
-    <cfRule type="cellIs" dxfId="4" priority="554" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
-    <cfRule type="cellIs" dxfId="4" priority="444" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="4" priority="449" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10">
-    <cfRule type="cellIs" dxfId="4" priority="453" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="4" priority="458" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12">
-    <cfRule type="cellIs" dxfId="4" priority="463" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH13">
-    <cfRule type="cellIs" dxfId="4" priority="468" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
-    <cfRule type="cellIs" dxfId="4" priority="473" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="4" priority="478" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="cellIs" dxfId="4" priority="483" operator="lessThanOrEqual">
-      <formula>J19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="cellIs" dxfId="4" priority="488" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH21">
-    <cfRule type="cellIs" dxfId="4" priority="493" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
-    <cfRule type="cellIs" dxfId="4" priority="498" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="4" priority="503" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24">
-    <cfRule type="cellIs" dxfId="4" priority="508" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH25">
-    <cfRule type="cellIs" dxfId="4" priority="513" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH26">
-    <cfRule type="cellIs" dxfId="4" priority="518" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH27">
-    <cfRule type="cellIs" dxfId="4" priority="523" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH28">
-    <cfRule type="cellIs" dxfId="4" priority="528" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH29">
-    <cfRule type="cellIs" dxfId="4" priority="533" operator="lessThanOrEqual">
-      <formula>J29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH30">
-    <cfRule type="cellIs" dxfId="4" priority="538" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31">
-    <cfRule type="cellIs" dxfId="4" priority="543" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34">
-    <cfRule type="cellIs" dxfId="4" priority="548" operator="lessThanOrEqual">
-      <formula>J34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH35">
-    <cfRule type="cellIs" dxfId="4" priority="553" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="cellIs" dxfId="4" priority="443" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH8">
-    <cfRule type="cellIs" dxfId="4" priority="448" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ10">
+  <conditionalFormatting sqref="AJ11">
     <cfRule type="cellIs" dxfId="1" priority="573" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="574" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ11">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ12">
     <cfRule type="cellIs" dxfId="1" priority="579" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="580" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ12">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13">
     <cfRule type="cellIs" dxfId="1" priority="585" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="586" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ14">
     <cfRule type="cellIs" dxfId="1" priority="591" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="592" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ14">
-    <cfRule type="cellIs" dxfId="1" priority="597" operator="equal">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ15">
+    <cfRule type="cellIs" dxfId="1" priority="596" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="598" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ15">
-    <cfRule type="cellIs" dxfId="1" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="597" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ19">
+    <cfRule type="cellIs" dxfId="1" priority="601" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="603" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ19">
+    <cfRule type="cellIs" dxfId="2" priority="602" operator="lessThan">
+      <formula>H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ20">
     <cfRule type="cellIs" dxfId="1" priority="607" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="608" operator="lessThan">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ20">
-    <cfRule type="cellIs" dxfId="1" priority="613" operator="equal">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ21">
+    <cfRule type="cellIs" dxfId="1" priority="612" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="614" operator="lessThan">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21">
+    <cfRule type="cellIs" dxfId="2" priority="613" operator="lessThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ25">
     <cfRule type="cellIs" dxfId="1" priority="618" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="619" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ25">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ26">
     <cfRule type="cellIs" dxfId="1" priority="624" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="625" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ26">
-    <cfRule type="cellIs" dxfId="1" priority="630" operator="equal">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ27">
+    <cfRule type="cellIs" dxfId="1" priority="629" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="631" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
+    <cfRule type="cellIs" dxfId="2" priority="630" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ28">
     <cfRule type="cellIs" dxfId="1" priority="635" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="636" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ28">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ30">
     <cfRule type="cellIs" dxfId="1" priority="641" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="642" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ30">
-    <cfRule type="cellIs" dxfId="1" priority="647" operator="equal">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31">
+    <cfRule type="cellIs" dxfId="1" priority="646" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="648" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31">
-    <cfRule type="cellIs" dxfId="1" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="647" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ7">
+    <cfRule type="cellIs" dxfId="1" priority="549" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="653" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ35">
+    <cfRule type="cellIs" dxfId="2" priority="550" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8">
+    <cfRule type="cellIs" dxfId="1" priority="555" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="556" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9">
+    <cfRule type="cellIs" dxfId="1" priority="561" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="562" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10">
+    <cfRule type="expression" dxfId="3" priority="569">
+      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="570" operator="greaterThan">
+      <formula>AJ10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11">
+    <cfRule type="expression" dxfId="3" priority="575">
+      <formula>AND(AK11&gt;0,AK11&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="576" operator="greaterThan">
+      <formula>AJ11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK12">
+    <cfRule type="expression" dxfId="3" priority="581">
+      <formula>AND(AK12&gt;0,AK12&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="582" operator="greaterThan">
+      <formula>AJ12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="expression" dxfId="3" priority="587">
+      <formula>AND(AK13&gt;0,AK13&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="588" operator="greaterThan">
+      <formula>AJ13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="cellIs" dxfId="1" priority="593" operator="greaterThan">
+      <formula>AJ14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15">
+    <cfRule type="cellIs" dxfId="1" priority="598" operator="greaterThan">
+      <formula>AJ15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK19">
+    <cfRule type="expression" dxfId="3" priority="603">
+      <formula>AND(AK19&gt;0,AK19&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="604" operator="greaterThan">
+      <formula>AJ19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK20">
+    <cfRule type="cellIs" dxfId="1" priority="609" operator="greaterThan">
+      <formula>AJ20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK21">
+    <cfRule type="expression" dxfId="3" priority="614">
+      <formula>AND(AK21&gt;0,AK21&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="615" operator="greaterThan">
+      <formula>AJ21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK25">
+    <cfRule type="expression" dxfId="3" priority="620">
+      <formula>AND(AK25&gt;0,AK25&lt;45000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="621" operator="greaterThan">
+      <formula>AJ25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK26">
+    <cfRule type="cellIs" dxfId="1" priority="626" operator="greaterThan">
+      <formula>AJ26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK27">
+    <cfRule type="expression" dxfId="3" priority="631">
+      <formula>AND(AK27&gt;0,AK27&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="632" operator="greaterThan">
+      <formula>AJ27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK28">
+    <cfRule type="expression" dxfId="3" priority="637">
+      <formula>AND(AK28&gt;0,AK28&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="638" operator="greaterThan">
+      <formula>AJ28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK30">
+    <cfRule type="cellIs" dxfId="1" priority="643" operator="greaterThan">
+      <formula>AJ30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK31">
+    <cfRule type="cellIs" dxfId="1" priority="648" operator="greaterThan">
+      <formula>AJ31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK7">
+    <cfRule type="expression" dxfId="3" priority="551">
+      <formula>AND(AK7&gt;0,AK7&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="552" operator="greaterThan">
+      <formula>AJ7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="expression" dxfId="3" priority="557">
+      <formula>AND(AK8&gt;0,AK8&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="558" operator="greaterThan">
+      <formula>AJ8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK9">
+    <cfRule type="expression" dxfId="3" priority="563">
+      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="564" operator="greaterThan">
+      <formula>AJ9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="cellIs" dxfId="4" priority="572" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL11">
+    <cfRule type="cellIs" dxfId="4" priority="578" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL12">
+    <cfRule type="cellIs" dxfId="4" priority="584" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL13">
+    <cfRule type="cellIs" dxfId="4" priority="590" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14">
+    <cfRule type="cellIs" dxfId="4" priority="595" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="cellIs" dxfId="4" priority="600" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL19">
+    <cfRule type="cellIs" dxfId="4" priority="606" operator="lessThanOrEqual">
+      <formula>I19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL20">
+    <cfRule type="cellIs" dxfId="4" priority="611" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL21">
+    <cfRule type="cellIs" dxfId="4" priority="617" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL25">
+    <cfRule type="cellIs" dxfId="4" priority="623" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL26">
+    <cfRule type="cellIs" dxfId="4" priority="628" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL27">
+    <cfRule type="cellIs" dxfId="4" priority="634" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL28">
+    <cfRule type="cellIs" dxfId="4" priority="640" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL30">
+    <cfRule type="cellIs" dxfId="4" priority="645" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL31">
+    <cfRule type="cellIs" dxfId="4" priority="650" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL7">
+    <cfRule type="cellIs" dxfId="4" priority="554" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL8">
+    <cfRule type="cellIs" dxfId="4" priority="560" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL9">
+    <cfRule type="cellIs" dxfId="4" priority="566" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="cellIs" dxfId="4" priority="571" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM11">
+    <cfRule type="cellIs" dxfId="4" priority="577" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12">
+    <cfRule type="cellIs" dxfId="4" priority="583" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM13">
+    <cfRule type="cellIs" dxfId="4" priority="589" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14">
+    <cfRule type="cellIs" dxfId="4" priority="594" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM15">
+    <cfRule type="cellIs" dxfId="4" priority="599" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM19">
+    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
+      <formula>J19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM20">
+    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM21">
+    <cfRule type="cellIs" dxfId="4" priority="616" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM25">
+    <cfRule type="cellIs" dxfId="4" priority="622" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM26">
+    <cfRule type="cellIs" dxfId="4" priority="627" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM27">
+    <cfRule type="cellIs" dxfId="4" priority="633" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM28">
+    <cfRule type="cellIs" dxfId="4" priority="639" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM30">
+    <cfRule type="cellIs" dxfId="4" priority="644" operator="lessThanOrEqual">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM31">
+    <cfRule type="cellIs" dxfId="4" priority="649" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM7">
+    <cfRule type="cellIs" dxfId="4" priority="553" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8">
+    <cfRule type="cellIs" dxfId="4" priority="559" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM9">
+    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO12">
+    <cfRule type="cellIs" dxfId="1" priority="651" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="652" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO19">
     <cfRule type="cellIs" dxfId="1" priority="657" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="658" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7">
-    <cfRule type="cellIs" dxfId="1" priority="555" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="556" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8">
-    <cfRule type="cellIs" dxfId="1" priority="561" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="562" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9">
-    <cfRule type="cellIs" dxfId="1" priority="567" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="568" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK10">
-    <cfRule type="expression" dxfId="3" priority="575">
-      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="576" operator="greaterThan">
-      <formula>AJ10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK11">
-    <cfRule type="expression" dxfId="3" priority="581">
-      <formula>AND(AK11&gt;0,AK11&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="582" operator="greaterThan">
-      <formula>AJ11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK12">
-    <cfRule type="expression" dxfId="3" priority="587">
-      <formula>AND(AK12&gt;0,AK12&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="588" operator="greaterThan">
-      <formula>AJ12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13">
-    <cfRule type="expression" dxfId="3" priority="593">
-      <formula>AND(AK13&gt;0,AK13&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="594" operator="greaterThan">
-      <formula>AJ13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14">
-    <cfRule type="cellIs" dxfId="1" priority="599" operator="greaterThan">
-      <formula>AJ14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK15">
-    <cfRule type="cellIs" dxfId="1" priority="604" operator="greaterThan">
-      <formula>AJ15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK19">
-    <cfRule type="expression" dxfId="3" priority="609">
-      <formula>AND(AK19&gt;0,AK19&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="610" operator="greaterThan">
-      <formula>AJ19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK20">
-    <cfRule type="cellIs" dxfId="1" priority="615" operator="greaterThan">
-      <formula>AJ20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK21">
-    <cfRule type="expression" dxfId="3" priority="620">
-      <formula>AND(AK21&gt;0,AK21&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="621" operator="greaterThan">
-      <formula>AJ21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK25">
-    <cfRule type="expression" dxfId="3" priority="626">
-      <formula>AND(AK25&gt;0,AK25&lt;45000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="627" operator="greaterThan">
-      <formula>AJ25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK26">
-    <cfRule type="cellIs" dxfId="1" priority="632" operator="greaterThan">
-      <formula>AJ26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK27">
-    <cfRule type="expression" dxfId="3" priority="637">
-      <formula>AND(AK27&gt;0,AK27&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="638" operator="greaterThan">
-      <formula>AJ27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK28">
-    <cfRule type="expression" dxfId="3" priority="643">
-      <formula>AND(AK28&gt;0,AK28&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="644" operator="greaterThan">
-      <formula>AJ28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK30">
-    <cfRule type="cellIs" dxfId="1" priority="649" operator="greaterThan">
-      <formula>AJ30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK31">
-    <cfRule type="cellIs" dxfId="1" priority="654" operator="greaterThan">
-      <formula>AJ31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK35">
-    <cfRule type="expression" dxfId="3" priority="659">
-      <formula>AND(AK35&gt;0,AK35&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="660" operator="greaterThan">
-      <formula>AJ35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7">
-    <cfRule type="expression" dxfId="3" priority="557">
-      <formula>AND(AK7&gt;0,AK7&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="558" operator="greaterThan">
-      <formula>AJ7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8">
-    <cfRule type="expression" dxfId="3" priority="563">
-      <formula>AND(AK8&gt;0,AK8&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="564" operator="greaterThan">
-      <formula>AJ8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK9">
-    <cfRule type="expression" dxfId="3" priority="569">
-      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="570" operator="greaterThan">
-      <formula>AJ9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL10">
-    <cfRule type="cellIs" dxfId="4" priority="578" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL11">
-    <cfRule type="cellIs" dxfId="4" priority="584" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL12">
-    <cfRule type="cellIs" dxfId="4" priority="590" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL13">
-    <cfRule type="cellIs" dxfId="4" priority="596" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14">
-    <cfRule type="cellIs" dxfId="4" priority="601" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL15">
-    <cfRule type="cellIs" dxfId="4" priority="606" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL19">
-    <cfRule type="cellIs" dxfId="4" priority="612" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL20">
-    <cfRule type="cellIs" dxfId="4" priority="617" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL21">
-    <cfRule type="cellIs" dxfId="4" priority="623" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL25">
-    <cfRule type="cellIs" dxfId="4" priority="629" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL26">
-    <cfRule type="cellIs" dxfId="4" priority="634" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL27">
-    <cfRule type="cellIs" dxfId="4" priority="640" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL28">
-    <cfRule type="cellIs" dxfId="4" priority="646" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL30">
-    <cfRule type="cellIs" dxfId="4" priority="651" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL31">
-    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL35">
-    <cfRule type="cellIs" dxfId="4" priority="662" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL7">
-    <cfRule type="cellIs" dxfId="4" priority="560" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL8">
-    <cfRule type="cellIs" dxfId="4" priority="566" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL9">
-    <cfRule type="cellIs" dxfId="4" priority="572" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM10">
-    <cfRule type="cellIs" dxfId="4" priority="577" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM11">
-    <cfRule type="cellIs" dxfId="4" priority="583" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM12">
-    <cfRule type="cellIs" dxfId="4" priority="589" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM13">
-    <cfRule type="cellIs" dxfId="4" priority="595" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM14">
-    <cfRule type="cellIs" dxfId="4" priority="600" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM15">
-    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM19">
-    <cfRule type="cellIs" dxfId="4" priority="611" operator="lessThanOrEqual">
-      <formula>J19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM20">
-    <cfRule type="cellIs" dxfId="4" priority="616" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM21">
-    <cfRule type="cellIs" dxfId="4" priority="622" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM25">
-    <cfRule type="cellIs" dxfId="4" priority="628" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM26">
-    <cfRule type="cellIs" dxfId="4" priority="633" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM27">
-    <cfRule type="cellIs" dxfId="4" priority="639" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM28">
-    <cfRule type="cellIs" dxfId="4" priority="645" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM30">
-    <cfRule type="cellIs" dxfId="4" priority="650" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM31">
-    <cfRule type="cellIs" dxfId="4" priority="655" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM35">
-    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM7">
-    <cfRule type="cellIs" dxfId="4" priority="559" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM8">
-    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM9">
-    <cfRule type="cellIs" dxfId="4" priority="571" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO12">
+      <formula>H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO20">
     <cfRule type="cellIs" dxfId="1" priority="663" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="664" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO19">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO22">
     <cfRule type="cellIs" dxfId="1" priority="669" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="670" operator="lessThan">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO20">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO24">
     <cfRule type="cellIs" dxfId="1" priority="675" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="676" operator="lessThan">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO22">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO25">
     <cfRule type="cellIs" dxfId="1" priority="681" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="682" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO24">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO27">
     <cfRule type="cellIs" dxfId="1" priority="687" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="688" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO25">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO28">
     <cfRule type="cellIs" dxfId="1" priority="693" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="694" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO27">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO31">
     <cfRule type="cellIs" dxfId="1" priority="699" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="700" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO28">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP12">
+    <cfRule type="expression" dxfId="3" priority="653">
+      <formula>AND(AP12&gt;0,AP12&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="654" operator="greaterThan">
+      <formula>AO12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP19">
+    <cfRule type="expression" dxfId="3" priority="659">
+      <formula>AND(AP19&gt;0,AP19&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="660" operator="greaterThan">
+      <formula>AO19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP20">
+    <cfRule type="expression" dxfId="3" priority="665">
+      <formula>AND(AP20&gt;0,AP20&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="666" operator="greaterThan">
+      <formula>AO20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP22">
+    <cfRule type="expression" dxfId="3" priority="671">
+      <formula>AND(AP22&gt;0,AP22&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="672" operator="greaterThan">
+      <formula>AO22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP24">
+    <cfRule type="expression" dxfId="3" priority="677">
+      <formula>AND(AP24&gt;0,AP24&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="678" operator="greaterThan">
+      <formula>AO24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25">
+    <cfRule type="expression" dxfId="3" priority="683">
+      <formula>AND(AP25&gt;0,AP25&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="684" operator="greaterThan">
+      <formula>AO25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP27">
+    <cfRule type="expression" dxfId="3" priority="689">
+      <formula>AND(AP27&gt;0,AP27&lt;3000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="690" operator="greaterThan">
+      <formula>AO27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP28">
+    <cfRule type="expression" dxfId="3" priority="695">
+      <formula>AND(AP28&gt;0,AP28&lt;3000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="696" operator="greaterThan">
+      <formula>AO28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP31">
+    <cfRule type="expression" dxfId="3" priority="701">
+      <formula>AND(AP31&gt;0,AP31&lt;50)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="702" operator="greaterThan">
+      <formula>AO31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ12">
+    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ19">
+    <cfRule type="cellIs" dxfId="4" priority="662" operator="lessThanOrEqual">
+      <formula>I19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ20">
+    <cfRule type="cellIs" dxfId="4" priority="668" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ22">
+    <cfRule type="cellIs" dxfId="4" priority="674" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="cellIs" dxfId="4" priority="680" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="4" priority="686" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="4" priority="692" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ28">
+    <cfRule type="cellIs" dxfId="4" priority="698" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ31">
+    <cfRule type="cellIs" dxfId="4" priority="704" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR12">
+    <cfRule type="cellIs" dxfId="4" priority="655" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR19">
+    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
+      <formula>J19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR20">
+    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR22">
+    <cfRule type="cellIs" dxfId="4" priority="673" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR24">
+    <cfRule type="cellIs" dxfId="4" priority="679" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR25">
+    <cfRule type="cellIs" dxfId="4" priority="685" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="cellIs" dxfId="4" priority="691" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR28">
+    <cfRule type="cellIs" dxfId="4" priority="697" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR31">
+    <cfRule type="cellIs" dxfId="4" priority="703" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT14">
     <cfRule type="cellIs" dxfId="1" priority="705" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="706" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO31">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT15">
     <cfRule type="cellIs" dxfId="1" priority="711" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="712" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP12">
-    <cfRule type="expression" dxfId="3" priority="665">
-      <formula>AND(AP12&gt;0,AP12&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="666" operator="greaterThan">
-      <formula>AO12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP19">
-    <cfRule type="expression" dxfId="3" priority="671">
-      <formula>AND(AP19&gt;0,AP19&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="672" operator="greaterThan">
-      <formula>AO19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP20">
-    <cfRule type="expression" dxfId="3" priority="677">
-      <formula>AND(AP20&gt;0,AP20&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="678" operator="greaterThan">
-      <formula>AO20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP22">
-    <cfRule type="expression" dxfId="3" priority="683">
-      <formula>AND(AP22&gt;0,AP22&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="684" operator="greaterThan">
-      <formula>AO22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="3" priority="689">
-      <formula>AND(AP24&gt;0,AP24&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="690" operator="greaterThan">
-      <formula>AO24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP25">
-    <cfRule type="expression" dxfId="3" priority="695">
-      <formula>AND(AP25&gt;0,AP25&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="696" operator="greaterThan">
-      <formula>AO25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP27">
-    <cfRule type="expression" dxfId="3" priority="701">
-      <formula>AND(AP27&gt;0,AP27&lt;3000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="702" operator="greaterThan">
-      <formula>AO27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP28">
-    <cfRule type="expression" dxfId="3" priority="707">
-      <formula>AND(AP28&gt;0,AP28&lt;3000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="708" operator="greaterThan">
-      <formula>AO28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP31">
-    <cfRule type="expression" dxfId="3" priority="713">
-      <formula>AND(AP31&gt;0,AP31&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="714" operator="greaterThan">
-      <formula>AO31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ12">
-    <cfRule type="cellIs" dxfId="4" priority="668" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ19">
-    <cfRule type="cellIs" dxfId="4" priority="674" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ20">
-    <cfRule type="cellIs" dxfId="4" priority="680" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ22">
-    <cfRule type="cellIs" dxfId="4" priority="686" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
-    <cfRule type="cellIs" dxfId="4" priority="692" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
-    <cfRule type="cellIs" dxfId="4" priority="698" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
-    <cfRule type="cellIs" dxfId="4" priority="704" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ28">
-    <cfRule type="cellIs" dxfId="4" priority="710" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ31">
-    <cfRule type="cellIs" dxfId="4" priority="716" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR12">
-    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR19">
-    <cfRule type="cellIs" dxfId="4" priority="673" operator="lessThanOrEqual">
-      <formula>J19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR20">
-    <cfRule type="cellIs" dxfId="4" priority="679" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR22">
-    <cfRule type="cellIs" dxfId="4" priority="685" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR24">
-    <cfRule type="cellIs" dxfId="4" priority="691" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
-    <cfRule type="cellIs" dxfId="4" priority="697" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
-    <cfRule type="cellIs" dxfId="4" priority="703" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR28">
-    <cfRule type="cellIs" dxfId="4" priority="709" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR31">
-    <cfRule type="cellIs" dxfId="4" priority="715" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT14">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT26">
     <cfRule type="cellIs" dxfId="1" priority="717" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="718" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT15">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT31">
     <cfRule type="cellIs" dxfId="1" priority="723" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="724" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT26">
-    <cfRule type="cellIs" dxfId="1" priority="729" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="730" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT31">
-    <cfRule type="cellIs" dxfId="1" priority="735" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="736" operator="lessThan">
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU14">
+    <cfRule type="expression" dxfId="3" priority="707">
+      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="708" operator="greaterThan">
+      <formula>AT14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU15">
+    <cfRule type="expression" dxfId="3" priority="713">
+      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="714" operator="greaterThan">
+      <formula>AT15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU26">
     <cfRule type="expression" dxfId="3" priority="719">
-      <formula>AND(AU14&gt;0,AU14&lt;5)</formula>
+      <formula>AND(AU26&gt;0,AU26&lt;5)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="720" operator="greaterThan">
-      <formula>AT14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU15">
+      <formula>AT26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU31">
     <cfRule type="expression" dxfId="3" priority="725">
-      <formula>AND(AU15&gt;0,AU15&lt;5)</formula>
+      <formula>AND(AU31&gt;0,AU31&lt;5)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="726" operator="greaterThan">
-      <formula>AT15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU26">
-    <cfRule type="expression" dxfId="3" priority="731">
-      <formula>AND(AU26&gt;0,AU26&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="732" operator="greaterThan">
-      <formula>AT26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU31">
-    <cfRule type="expression" dxfId="3" priority="737">
-      <formula>AND(AU31&gt;0,AU31&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="738" operator="greaterThan">
       <formula>AT31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV14">
+    <cfRule type="cellIs" dxfId="4" priority="710" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV15">
+    <cfRule type="cellIs" dxfId="4" priority="716" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV26">
     <cfRule type="cellIs" dxfId="4" priority="722" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV15">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV31">
     <cfRule type="cellIs" dxfId="4" priority="728" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV26">
-    <cfRule type="cellIs" dxfId="4" priority="734" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV31">
-    <cfRule type="cellIs" dxfId="4" priority="740" operator="lessThanOrEqual">
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW14">
+    <cfRule type="cellIs" dxfId="4" priority="709" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW15">
+    <cfRule type="cellIs" dxfId="4" priority="715" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW26">
     <cfRule type="cellIs" dxfId="4" priority="721" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW15">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW31">
     <cfRule type="cellIs" dxfId="4" priority="727" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW26">
-    <cfRule type="cellIs" dxfId="4" priority="733" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW31">
-    <cfRule type="cellIs" dxfId="4" priority="739" operator="lessThanOrEqual">
       <formula>J31</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12188,14 +12081,6 @@
       <formula>H31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U35">
-    <cfRule type="cellIs" dxfId="1" priority="377" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="378" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U7">
     <cfRule type="cellIs" dxfId="1" priority="253" operator="equal">
       <formula>0</formula>
@@ -12358,14 +12243,6 @@
       <formula>U31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V35">
-    <cfRule type="expression" dxfId="3" priority="379">
-      <formula>AND(V35&gt;0,V35&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="380" operator="greaterThan">
-      <formula>U35</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="V7">
     <cfRule type="expression" dxfId="3" priority="255">
       <formula>AND(V7&gt;0,V7&lt;10)</formula>
@@ -12480,11 +12357,6 @@
       <formula>I31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" dxfId="4" priority="382" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="W7">
     <cfRule type="cellIs" dxfId="4" priority="258" operator="lessThanOrEqual">
       <formula>I7</formula>
@@ -12590,11 +12462,6 @@
       <formula>J31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X35">
-    <cfRule type="cellIs" dxfId="4" priority="381" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="X7">
     <cfRule type="cellIs" dxfId="4" priority="257" operator="lessThanOrEqual">
       <formula>J7</formula>
@@ -12611,82 +12478,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10">
+    <cfRule type="cellIs" dxfId="1" priority="389" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="390" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11">
     <cfRule type="cellIs" dxfId="1" priority="395" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="396" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z12">
     <cfRule type="cellIs" dxfId="1" priority="401" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="402" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z12">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18">
     <cfRule type="cellIs" dxfId="1" priority="407" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="408" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z18">
-    <cfRule type="cellIs" dxfId="1" priority="413" operator="equal">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z24">
+    <cfRule type="cellIs" dxfId="1" priority="412" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="414" operator="lessThan">
-      <formula>H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z24">
+    <cfRule type="cellIs" dxfId="2" priority="413" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25">
     <cfRule type="cellIs" dxfId="1" priority="418" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="419" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z25">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z26">
     <cfRule type="cellIs" dxfId="1" priority="424" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="425" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z26">
-    <cfRule type="cellIs" dxfId="1" priority="430" operator="equal">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z29">
+    <cfRule type="cellIs" dxfId="1" priority="429" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="431" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z29">
-    <cfRule type="cellIs" dxfId="1" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="430" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7">
+    <cfRule type="cellIs" dxfId="1" priority="377" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="436" operator="lessThan">
-      <formula>H29</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z7">
+    <cfRule type="cellIs" dxfId="2" priority="378" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9">
     <cfRule type="cellIs" dxfId="1" priority="383" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="384" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z9">
-    <cfRule type="cellIs" dxfId="1" priority="389" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="390" operator="lessThan">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12833,19 +12700,17 @@
     <hyperlink ref="AI34" r:id="rId140"/>
     <hyperlink ref="G35" r:id="rId141"/>
     <hyperlink ref="T35" r:id="rId142"/>
-    <hyperlink ref="Y35" r:id="rId143"/>
-    <hyperlink ref="AI35" r:id="rId144"/>
-    <hyperlink ref="AN35" r:id="rId145"/>
-    <hyperlink ref="K37" r:id="rId146"/>
-    <hyperlink ref="P37" r:id="rId147"/>
-    <hyperlink ref="U37" r:id="rId148"/>
-    <hyperlink ref="Z37" r:id="rId149"/>
-    <hyperlink ref="AE37" r:id="rId150"/>
-    <hyperlink ref="AJ37" r:id="rId151"/>
-    <hyperlink ref="AO37" r:id="rId152"/>
-    <hyperlink ref="AT37" r:id="rId153"/>
+    <hyperlink ref="AI35" r:id="rId143"/>
+    <hyperlink ref="K37" r:id="rId144"/>
+    <hyperlink ref="P37" r:id="rId145"/>
+    <hyperlink ref="U37" r:id="rId146"/>
+    <hyperlink ref="Z37" r:id="rId147"/>
+    <hyperlink ref="AE37" r:id="rId148"/>
+    <hyperlink ref="AJ37" r:id="rId149"/>
+    <hyperlink ref="AO37" r:id="rId150"/>
+    <hyperlink ref="AT37" r:id="rId151"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId154"/>
+  <legacyDrawing r:id="rId152"/>
 </worksheet>
 </file>